--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15412,7 +15412,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G393"/>
+  <dimension ref="A1:G397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13405,6 +13405,138 @@
         <v>27</v>
       </c>
       <c r="G393" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>897691</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2025-10-26T17:00:00</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>21</v>
+      </c>
+      <c r="F394" t="n">
+        <v>33</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>897692</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2025-10-26T17:00:00</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>27</v>
+      </c>
+      <c r="F395" t="n">
+        <v>47</v>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>897693</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2025-10-26T17:00:00</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>28</v>
+      </c>
+      <c r="F396" t="n">
+        <v>18</v>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>897694</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2025-10-26T17:00:00</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>42</v>
+      </c>
+      <c r="F397" t="n">
+        <v>34</v>
+      </c>
+      <c r="G397" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -13515,7 +13647,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -13563,14 +13695,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
         <v>472</v>
@@ -13585,16 +13717,16 @@
         <v>32.1</v>
       </c>
       <c r="K3" t="n">
-        <v>596</v>
+        <v>643</v>
       </c>
       <c r="L3" t="n">
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="M3" t="n">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="N3" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="4">
@@ -13611,7 +13743,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -13659,7 +13791,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -13707,14 +13839,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
         <v>490</v>
@@ -13729,16 +13861,16 @@
         <v>35.2</v>
       </c>
       <c r="K6" t="n">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="L6" t="n">
-        <v>648</v>
+        <v>669</v>
       </c>
       <c r="M6" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="N6" t="n">
-        <v>36</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="7">
@@ -13755,7 +13887,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -13803,7 +13935,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -13851,7 +13983,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13899,14 +14031,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>18</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
         <v>504</v>
@@ -13921,16 +14053,16 @@
         <v>35.6</v>
       </c>
       <c r="K10" t="n">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="L10" t="n">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="M10" t="n">
-        <v>28.9</v>
+        <v>28.2</v>
       </c>
       <c r="N10" t="n">
-        <v>37.4</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="11">
@@ -13947,7 +14079,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13995,7 +14127,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -14043,7 +14175,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14091,7 +14223,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14139,7 +14271,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14187,7 +14319,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14235,26 +14367,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="H17" t="n">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="I17" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="J17" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="K17" t="n">
         <v>722</v>
@@ -14283,7 +14415,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -14331,26 +14463,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
         <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>792</v>
+        <v>834</v>
       </c>
       <c r="H19" t="n">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="I19" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="J19" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="K19" t="n">
         <v>406</v>
@@ -14379,26 +14511,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" t="n">
         <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="H20" t="n">
-        <v>522</v>
+        <v>569</v>
       </c>
       <c r="I20" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="J20" t="n">
-        <v>29</v>
+        <v>29.9</v>
       </c>
       <c r="K20" t="n">
         <v>848</v>
@@ -14427,7 +14559,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14475,14 +14607,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" t="n">
         <v>482</v>
@@ -14497,16 +14629,16 @@
         <v>31.4</v>
       </c>
       <c r="K22" t="n">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="L22" t="n">
-        <v>590</v>
+        <v>632</v>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="N22" t="n">
-        <v>36.9</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="23">
@@ -14523,26 +14655,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" t="n">
         <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="H23" t="n">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="I23" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="J23" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="K23" t="n">
         <v>452</v>
@@ -14637,7 +14769,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -14670,23 +14802,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" t="n">
-        <v>1068</v>
+        <v>1115</v>
       </c>
       <c r="G3" t="n">
-        <v>1174</v>
+        <v>1201</v>
       </c>
       <c r="H3" t="n">
-        <v>28.1</v>
+        <v>28.6</v>
       </c>
       <c r="I3" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="4">
@@ -14703,7 +14835,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14736,7 +14868,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14769,23 +14901,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>1006</v>
+        <v>1039</v>
       </c>
       <c r="G6" t="n">
-        <v>1212</v>
+        <v>1233</v>
       </c>
       <c r="H6" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="I6" t="n">
-        <v>35.6</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="7">
@@ -14802,7 +14934,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14835,7 +14967,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -14868,7 +15000,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -14901,23 +15033,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" t="n">
-        <v>966</v>
+        <v>984</v>
       </c>
       <c r="G10" t="n">
-        <v>1238</v>
+        <v>1266</v>
       </c>
       <c r="H10" t="n">
-        <v>28.4</v>
+        <v>28.1</v>
       </c>
       <c r="I10" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="11">
@@ -14934,7 +15066,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -14967,7 +15099,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15000,7 +15132,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15033,7 +15165,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15066,7 +15198,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15099,7 +15231,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15132,23 +15264,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" t="n">
-        <v>1066</v>
+        <v>1094</v>
       </c>
       <c r="G17" t="n">
-        <v>868</v>
+        <v>886</v>
       </c>
       <c r="H17" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="I17" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="18">
@@ -15165,7 +15297,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15198,23 +15330,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" t="n">
-        <v>1198</v>
+        <v>1240</v>
       </c>
       <c r="G19" t="n">
-        <v>1052</v>
+        <v>1086</v>
       </c>
       <c r="H19" t="n">
-        <v>35.2</v>
+        <v>35.4</v>
       </c>
       <c r="I19" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -15231,23 +15363,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" t="n">
-        <v>1424</v>
+        <v>1451</v>
       </c>
       <c r="G20" t="n">
-        <v>1310</v>
+        <v>1357</v>
       </c>
       <c r="H20" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="I20" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="21">
@@ -15264,7 +15396,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15297,23 +15429,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" t="n">
-        <v>882</v>
+        <v>916</v>
       </c>
       <c r="G22" t="n">
-        <v>1092</v>
+        <v>1134</v>
       </c>
       <c r="H22" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="I22" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="23">
@@ -15330,23 +15462,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" t="n">
-        <v>814</v>
+        <v>835</v>
       </c>
       <c r="G23" t="n">
-        <v>996</v>
+        <v>1029</v>
       </c>
       <c r="H23" t="n">
         <v>23.9</v>
       </c>
       <c r="I23" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
     </row>
   </sheetData>
@@ -15403,7 +15535,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-25T17:00:00Z</t>
+          <t>2025-10-26T17:00:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -15412,7 +15544,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15544,7 +15544,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15544,7 +15544,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15544,7 +15544,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15544,7 +15544,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G397"/>
+  <dimension ref="A1:G400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13537,6 +13537,105 @@
         <v>34</v>
       </c>
       <c r="G397" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>897696</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2025-10-27T16:30:00</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>32</v>
+      </c>
+      <c r="F398" t="n">
+        <v>28</v>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>897695</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2025-10-27T19:00:00</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>34</v>
+      </c>
+      <c r="F399" t="n">
+        <v>32</v>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>897697</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2025-10-27T19:00:00</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>25</v>
+      </c>
+      <c r="F400" t="n">
+        <v>37</v>
+      </c>
+      <c r="G400" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -13647,26 +13746,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
         <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>604</v>
+        <v>636</v>
       </c>
       <c r="H2" t="n">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="I2" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="J2" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="K2" t="n">
         <v>572</v>
@@ -13695,7 +13794,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -13743,14 +13842,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
         <v>544</v>
@@ -13765,16 +13864,16 @@
         <v>28</v>
       </c>
       <c r="K4" t="n">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="L4" t="n">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="M4" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="N4" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="5">
@@ -13791,26 +13890,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
         <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>686</v>
+        <v>711</v>
       </c>
       <c r="H5" t="n">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="I5" t="n">
-        <v>34.3</v>
+        <v>33.9</v>
       </c>
       <c r="J5" t="n">
-        <v>24.8</v>
+        <v>25.4</v>
       </c>
       <c r="K5" t="n">
         <v>604</v>
@@ -13839,7 +13938,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -13887,14 +13986,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n">
         <v>812</v>
@@ -13909,13 +14008,13 @@
         <v>31.8</v>
       </c>
       <c r="K7" t="n">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="L7" t="n">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="M7" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="N7" t="n">
         <v>34.8</v>
@@ -13935,7 +14034,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -13983,7 +14082,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -14031,7 +14130,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14079,7 +14178,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -14127,7 +14226,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -14175,14 +14274,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>24</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
         <v>840</v>
@@ -14197,16 +14296,16 @@
         <v>25.9</v>
       </c>
       <c r="K13" t="n">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="L13" t="n">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="M13" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="N13" t="n">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="14">
@@ -14223,23 +14322,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>690</v>
+        <v>724</v>
       </c>
       <c r="H14" t="n">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="I14" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="J14" t="n">
         <v>33.5</v>
@@ -14271,7 +14370,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14319,7 +14418,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14367,7 +14466,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14415,7 +14514,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -14463,7 +14562,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -14511,7 +14610,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14559,7 +14658,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14607,7 +14706,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14655,7 +14754,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14769,20 +14868,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" t="n">
-        <v>1176</v>
+        <v>1208</v>
       </c>
       <c r="G2" t="n">
-        <v>966</v>
+        <v>994</v>
       </c>
       <c r="H2" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="I2" t="n">
         <v>28.4</v>
@@ -14802,7 +14901,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -14835,23 +14934,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>1044</v>
+        <v>1081</v>
       </c>
       <c r="G4" t="n">
-        <v>866</v>
+        <v>891</v>
       </c>
       <c r="H4" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="I4" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="5">
@@ -14868,23 +14967,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="n">
-        <v>1290</v>
+        <v>1315</v>
       </c>
       <c r="G5" t="n">
-        <v>1030</v>
+        <v>1067</v>
       </c>
       <c r="H5" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="I5" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="6">
@@ -14901,7 +15000,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14934,23 +15033,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="n">
-        <v>1130</v>
+        <v>1162</v>
       </c>
       <c r="G7" t="n">
-        <v>1244</v>
+        <v>1278</v>
       </c>
       <c r="H7" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="I7" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
     </row>
     <row r="8">
@@ -14967,7 +15066,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15000,7 +15099,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15033,7 +15132,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15066,7 +15165,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15099,7 +15198,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15132,23 +15231,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" t="n">
-        <v>1184</v>
+        <v>1212</v>
       </c>
       <c r="G13" t="n">
-        <v>926</v>
+        <v>958</v>
       </c>
       <c r="H13" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="I13" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="14">
@@ -15165,23 +15264,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" t="n">
-        <v>1124</v>
+        <v>1158</v>
       </c>
       <c r="G14" t="n">
-        <v>1360</v>
+        <v>1392</v>
       </c>
       <c r="H14" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="I14" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="15">
@@ -15198,7 +15297,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15231,7 +15330,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15264,7 +15363,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15297,7 +15396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15330,7 +15429,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15363,7 +15462,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15396,7 +15495,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15429,7 +15528,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15462,7 +15561,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15535,7 +15634,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-26T17:00:00Z</t>
+          <t>2025-10-27T19:00:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -15544,7 +15643,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G400"/>
+  <dimension ref="A1:G406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13636,6 +13636,204 @@
         <v>37</v>
       </c>
       <c r="G400" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>897702</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2025-10-28T17:00:00</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>38</v>
+      </c>
+      <c r="F401" t="n">
+        <v>25</v>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>897703</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2025-10-28T19:00:00</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>47</v>
+      </c>
+      <c r="F402" t="n">
+        <v>20</v>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>897698</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2025-10-28T19:10:00</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>41</v>
+      </c>
+      <c r="F403" t="n">
+        <v>18</v>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>897699</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2025-10-28T19:30:00</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>20</v>
+      </c>
+      <c r="F404" t="n">
+        <v>26</v>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>897700</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2025-10-28T19:30:00</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>40</v>
+      </c>
+      <c r="F405" t="n">
+        <v>19</v>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>897701</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2025-10-28T19:30:00</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>28</v>
+      </c>
+      <c r="F406" t="n">
+        <v>22</v>
+      </c>
+      <c r="G406" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -13746,7 +13944,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -13794,14 +13992,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
         <v>472</v>
@@ -13816,16 +14014,16 @@
         <v>32.1</v>
       </c>
       <c r="K3" t="n">
-        <v>643</v>
+        <v>668</v>
       </c>
       <c r="L3" t="n">
-        <v>687</v>
+        <v>725</v>
       </c>
       <c r="M3" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="N3" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="4">
@@ -13842,7 +14040,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -13890,7 +14088,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -13938,14 +14136,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
         <v>490</v>
@@ -13960,16 +14158,16 @@
         <v>35.2</v>
       </c>
       <c r="K6" t="n">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="L6" t="n">
-        <v>669</v>
+        <v>716</v>
       </c>
       <c r="M6" t="n">
-        <v>28.9</v>
+        <v>28.4</v>
       </c>
       <c r="N6" t="n">
-        <v>35.2</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="7">
@@ -13986,7 +14184,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14034,14 +14232,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="n">
         <v>458</v>
@@ -14056,16 +14254,16 @@
         <v>28.3</v>
       </c>
       <c r="K8" t="n">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="L8" t="n">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="M8" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="N8" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="9">
@@ -14082,26 +14280,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>636</v>
+        <v>677</v>
       </c>
       <c r="H9" t="n">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="I9" t="n">
-        <v>35.3</v>
+        <v>35.6</v>
       </c>
       <c r="J9" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="K9" t="n">
         <v>668</v>
@@ -14130,26 +14328,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
         <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="H10" t="n">
-        <v>640</v>
+        <v>662</v>
       </c>
       <c r="I10" t="n">
         <v>28</v>
       </c>
       <c r="J10" t="n">
-        <v>35.6</v>
+        <v>34.8</v>
       </c>
       <c r="K10" t="n">
         <v>480</v>
@@ -14178,14 +14376,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>22</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
         <v>598</v>
@@ -14200,16 +14398,16 @@
         <v>35.3</v>
       </c>
       <c r="K11" t="n">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="L11" t="n">
-        <v>502</v>
+        <v>542</v>
       </c>
       <c r="M11" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="N11" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="12">
@@ -14226,26 +14424,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="H12" t="n">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="I12" t="n">
-        <v>30.6</v>
+        <v>31.2</v>
       </c>
       <c r="J12" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="K12" t="n">
         <v>740</v>
@@ -14274,7 +14472,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14322,7 +14520,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14370,7 +14568,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14418,7 +14616,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14466,26 +14664,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
         <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="H17" t="n">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="I17" t="n">
-        <v>28.6</v>
+        <v>29.9</v>
       </c>
       <c r="J17" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="K17" t="n">
         <v>722</v>
@@ -14514,7 +14712,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -14562,23 +14760,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
         <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>834</v>
+        <v>854</v>
       </c>
       <c r="H19" t="n">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="I19" t="n">
-        <v>36.3</v>
+        <v>35.6</v>
       </c>
       <c r="J19" t="n">
         <v>27.7</v>
@@ -14610,7 +14808,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14658,26 +14856,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
         <v>24</v>
       </c>
       <c r="G21" t="n">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="H21" t="n">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="I21" t="n">
-        <v>32</v>
+        <v>32.4</v>
       </c>
       <c r="J21" t="n">
-        <v>31.1</v>
+        <v>30.7</v>
       </c>
       <c r="K21" t="n">
         <v>826</v>
@@ -14706,14 +14904,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" t="n">
         <v>482</v>
@@ -14728,16 +14926,16 @@
         <v>31.4</v>
       </c>
       <c r="K22" t="n">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="L22" t="n">
-        <v>632</v>
+        <v>673</v>
       </c>
       <c r="M22" t="n">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="N22" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="23">
@@ -14754,14 +14952,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
         <v>383</v>
@@ -14776,16 +14974,16 @@
         <v>29.4</v>
       </c>
       <c r="K23" t="n">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="L23" t="n">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="M23" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="N23" t="n">
-        <v>29.4</v>
+        <v>28.9</v>
       </c>
     </row>
   </sheetData>
@@ -14868,7 +15066,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -14901,23 +15099,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" t="n">
-        <v>1115</v>
+        <v>1140</v>
       </c>
       <c r="G3" t="n">
-        <v>1201</v>
+        <v>1239</v>
       </c>
       <c r="H3" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="I3" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -14934,7 +15132,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14967,7 +15165,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15000,23 +15198,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="n">
-        <v>1039</v>
+        <v>1059</v>
       </c>
       <c r="G6" t="n">
-        <v>1233</v>
+        <v>1280</v>
       </c>
       <c r="H6" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.2</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="7">
@@ -15033,7 +15231,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -15066,23 +15264,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>982</v>
+        <v>1004</v>
       </c>
       <c r="G8" t="n">
-        <v>996</v>
+        <v>1024</v>
       </c>
       <c r="H8" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="I8" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -15099,23 +15297,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="n">
-        <v>1304</v>
+        <v>1345</v>
       </c>
       <c r="G9" t="n">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="H9" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="I9" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="10">
@@ -15132,23 +15330,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" t="n">
-        <v>984</v>
+        <v>1012</v>
       </c>
       <c r="G10" t="n">
-        <v>1266</v>
+        <v>1288</v>
       </c>
       <c r="H10" t="n">
         <v>28.1</v>
       </c>
       <c r="I10" t="n">
-        <v>36.2</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="11">
@@ -15165,23 +15363,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" t="n">
-        <v>986</v>
+        <v>1005</v>
       </c>
       <c r="G11" t="n">
-        <v>1278</v>
+        <v>1318</v>
       </c>
       <c r="H11" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="I11" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="12">
@@ -15198,23 +15396,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="n">
-        <v>1168</v>
+        <v>1208</v>
       </c>
       <c r="G12" t="n">
-        <v>976</v>
+        <v>995</v>
       </c>
       <c r="H12" t="n">
-        <v>30.7</v>
+        <v>31</v>
       </c>
       <c r="I12" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="13">
@@ -15231,7 +15429,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15264,7 +15462,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15297,7 +15495,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15330,7 +15528,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15363,23 +15561,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" t="n">
-        <v>1094</v>
+        <v>1141</v>
       </c>
       <c r="G17" t="n">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="H17" t="n">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="I17" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="18">
@@ -15396,7 +15594,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15429,23 +15627,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
+        <v>36</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1260</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H19" t="n">
         <v>35</v>
       </c>
-      <c r="F19" t="n">
-        <v>1240</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1086</v>
-      </c>
-      <c r="H19" t="n">
-        <v>35.4</v>
-      </c>
       <c r="I19" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="20">
@@ -15462,7 +15660,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15495,23 +15693,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" t="n">
-        <v>1274</v>
+        <v>1312</v>
       </c>
       <c r="G21" t="n">
-        <v>1220</v>
+        <v>1245</v>
       </c>
       <c r="H21" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="I21" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="22">
@@ -15528,23 +15726,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" t="n">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="G22" t="n">
-        <v>1134</v>
+        <v>1175</v>
       </c>
       <c r="H22" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="I22" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="23">
@@ -15561,23 +15759,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" t="n">
-        <v>835</v>
+        <v>861</v>
       </c>
       <c r="G23" t="n">
-        <v>1029</v>
+        <v>1049</v>
       </c>
       <c r="H23" t="n">
         <v>23.9</v>
       </c>
       <c r="I23" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
     </row>
   </sheetData>
@@ -15634,7 +15832,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-27T19:00:00Z</t>
+          <t>2025-10-28T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -15643,7 +15841,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15841,7 +15841,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15841,7 +15841,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G406"/>
+  <dimension ref="A1:G410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13834,6 +13834,138 @@
         <v>22</v>
       </c>
       <c r="G406" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>897707</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2025-10-29T16:30:00</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>30</v>
+      </c>
+      <c r="F407" t="n">
+        <v>37</v>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>897705</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2025-10-29T17:00:00</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>23</v>
+      </c>
+      <c r="F408" t="n">
+        <v>32</v>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>897706</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2025-10-29T19:00:00</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>27</v>
+      </c>
+      <c r="F409" t="n">
+        <v>31</v>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>897704</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2025-10-29T19:30:00</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>40</v>
+      </c>
+      <c r="F410" t="n">
+        <v>27</v>
+      </c>
+      <c r="G410" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -13944,26 +14076,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
         <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="H2" t="n">
-        <v>522</v>
+        <v>559</v>
       </c>
       <c r="I2" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="J2" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="K2" t="n">
         <v>572</v>
@@ -13992,7 +14124,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -14040,14 +14172,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
         <v>544</v>
@@ -14062,16 +14194,16 @@
         <v>28</v>
       </c>
       <c r="K4" t="n">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="L4" t="n">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="M4" t="n">
         <v>31.6</v>
       </c>
       <c r="N4" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -14088,26 +14220,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
         <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>711</v>
+        <v>738</v>
       </c>
       <c r="H5" t="n">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="I5" t="n">
-        <v>33.9</v>
+        <v>33.5</v>
       </c>
       <c r="J5" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="K5" t="n">
         <v>604</v>
@@ -14136,7 +14268,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14184,14 +14316,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>812</v>
@@ -14206,16 +14338,16 @@
         <v>31.8</v>
       </c>
       <c r="K7" t="n">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="L7" t="n">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="M7" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="N7" t="n">
-        <v>34.8</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="8">
@@ -14232,7 +14364,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -14280,7 +14412,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -14328,7 +14460,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14376,7 +14508,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -14424,7 +14556,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -14472,14 +14604,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>24</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
         <v>840</v>
@@ -14494,16 +14626,16 @@
         <v>25.9</v>
       </c>
       <c r="K13" t="n">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="L13" t="n">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="M13" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="N13" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="14">
@@ -14520,7 +14652,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14568,26 +14700,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>728</v>
+        <v>768</v>
       </c>
       <c r="H15" t="n">
-        <v>746</v>
+        <v>773</v>
       </c>
       <c r="I15" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="J15" t="n">
-        <v>33.9</v>
+        <v>33.6</v>
       </c>
       <c r="K15" t="n">
         <v>434</v>
@@ -14616,26 +14748,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
         <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="H16" t="n">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="I16" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="J16" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="K16" t="n">
         <v>658</v>
@@ -14664,7 +14796,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14712,14 +14844,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
         <v>486</v>
@@ -14734,16 +14866,16 @@
         <v>38.6</v>
       </c>
       <c r="K18" t="n">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="L18" t="n">
-        <v>546</v>
+        <v>586</v>
       </c>
       <c r="M18" t="n">
         <v>28.2</v>
       </c>
       <c r="N18" t="n">
-        <v>30.3</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="19">
@@ -14760,7 +14892,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -14808,7 +14940,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14856,7 +14988,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14904,7 +15036,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14952,7 +15084,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15066,23 +15198,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
-        <v>1208</v>
+        <v>1238</v>
       </c>
       <c r="G2" t="n">
-        <v>994</v>
+        <v>1031</v>
       </c>
       <c r="H2" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="I2" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="3">
@@ -15099,7 +15231,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -15132,23 +15264,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>1081</v>
+        <v>1113</v>
       </c>
       <c r="G4" t="n">
-        <v>891</v>
+        <v>914</v>
       </c>
       <c r="H4" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="I4" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="5">
@@ -15165,20 +15297,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>1315</v>
+        <v>1342</v>
       </c>
       <c r="G5" t="n">
-        <v>1067</v>
+        <v>1098</v>
       </c>
       <c r="H5" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="I5" t="n">
         <v>27.4</v>
@@ -15198,7 +15330,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15231,23 +15363,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="n">
-        <v>1162</v>
+        <v>1199</v>
       </c>
       <c r="G7" t="n">
-        <v>1278</v>
+        <v>1308</v>
       </c>
       <c r="H7" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="8">
@@ -15264,7 +15396,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15297,7 +15429,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15330,7 +15462,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15363,7 +15495,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15396,7 +15528,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15429,20 +15561,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" t="n">
-        <v>1212</v>
+        <v>1243</v>
       </c>
       <c r="G13" t="n">
-        <v>958</v>
+        <v>985</v>
       </c>
       <c r="H13" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="I13" t="n">
         <v>25.9</v>
@@ -15462,7 +15594,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15495,23 +15627,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" t="n">
-        <v>1162</v>
+        <v>1202</v>
       </c>
       <c r="G15" t="n">
-        <v>1200</v>
+        <v>1227</v>
       </c>
       <c r="H15" t="n">
-        <v>32.3</v>
+        <v>32.5</v>
       </c>
       <c r="I15" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="16">
@@ -15528,23 +15660,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="G16" t="n">
-        <v>1008</v>
+        <v>1040</v>
       </c>
       <c r="H16" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="I16" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="17">
@@ -15561,7 +15693,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15594,23 +15726,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" t="n">
-        <v>994</v>
+        <v>1021</v>
       </c>
       <c r="G18" t="n">
-        <v>1240</v>
+        <v>1280</v>
       </c>
       <c r="H18" t="n">
         <v>27.6</v>
       </c>
       <c r="I18" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="19">
@@ -15627,7 +15759,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15660,7 +15792,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15693,7 +15825,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15726,7 +15858,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15759,7 +15891,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15832,7 +15964,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-28T19:30:00Z</t>
+          <t>2025-10-29T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -15841,7 +15973,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15973,7 +15973,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15973,7 +15973,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15973,7 +15973,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G410"/>
+  <dimension ref="A1:G413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13966,6 +13966,105 @@
         <v>27</v>
       </c>
       <c r="G410" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>897708</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2025-10-30T19:00:00</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>22</v>
+      </c>
+      <c r="F411" t="n">
+        <v>14</v>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>897710</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2025-10-30T19:00:00</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>40</v>
+      </c>
+      <c r="F412" t="n">
+        <v>27</v>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>897709</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2025-10-30T19:10:00</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>53</v>
+      </c>
+      <c r="F413" t="n">
+        <v>23</v>
+      </c>
+      <c r="G413" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -14076,7 +14175,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -14124,7 +14223,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -14172,7 +14271,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14220,7 +14319,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14268,14 +14367,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
         <v>490</v>
@@ -14290,16 +14389,16 @@
         <v>35.2</v>
       </c>
       <c r="K6" t="n">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="L6" t="n">
-        <v>716</v>
+        <v>769</v>
       </c>
       <c r="M6" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="N6" t="n">
-        <v>35.8</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="7">
@@ -14316,7 +14415,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14364,14 +14463,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
         <v>458</v>
@@ -14386,16 +14485,16 @@
         <v>28.3</v>
       </c>
       <c r="K8" t="n">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="L8" t="n">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="M8" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="N8" t="n">
-        <v>33.1</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="9">
@@ -14412,26 +14511,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>677</v>
+        <v>730</v>
       </c>
       <c r="H9" t="n">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="I9" t="n">
-        <v>35.6</v>
+        <v>36.5</v>
       </c>
       <c r="J9" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="K9" t="n">
         <v>668</v>
@@ -14460,7 +14559,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14508,14 +14607,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>22</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
         <v>598</v>
@@ -14530,16 +14629,16 @@
         <v>35.3</v>
       </c>
       <c r="K11" t="n">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="L11" t="n">
-        <v>542</v>
+        <v>582</v>
       </c>
       <c r="M11" t="n">
         <v>27.1</v>
       </c>
       <c r="N11" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="12">
@@ -14556,7 +14655,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -14604,7 +14703,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14652,7 +14751,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14700,7 +14799,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14748,7 +14847,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14796,26 +14895,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
         <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="H17" t="n">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="I17" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="J17" t="n">
-        <v>23.3</v>
+        <v>22.7</v>
       </c>
       <c r="K17" t="n">
         <v>722</v>
@@ -14844,7 +14943,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -14892,7 +14991,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -14940,26 +15039,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
         <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="H20" t="n">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="I20" t="n">
-        <v>31.7</v>
+        <v>32.1</v>
       </c>
       <c r="J20" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="K20" t="n">
         <v>848</v>
@@ -14988,7 +15087,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15036,7 +15135,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15084,7 +15183,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15198,7 +15297,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -15231,7 +15330,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -15264,7 +15363,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -15297,7 +15396,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15330,23 +15429,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
+        <v>37</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1082</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1333</v>
+      </c>
+      <c r="H6" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="I6" t="n">
         <v>36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1059</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1280</v>
-      </c>
-      <c r="H6" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>35.6</v>
       </c>
     </row>
     <row r="7">
@@ -15363,7 +15462,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -15396,23 +15495,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="G8" t="n">
-        <v>1024</v>
+        <v>1046</v>
       </c>
       <c r="H8" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="9">
@@ -15429,23 +15528,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="n">
-        <v>1345</v>
+        <v>1398</v>
       </c>
       <c r="G9" t="n">
-        <v>1012</v>
+        <v>1035</v>
       </c>
       <c r="H9" t="n">
-        <v>36.4</v>
+        <v>36.8</v>
       </c>
       <c r="I9" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="10">
@@ -15462,7 +15561,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15495,23 +15594,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="n">
-        <v>1005</v>
+        <v>1032</v>
       </c>
       <c r="G11" t="n">
-        <v>1318</v>
+        <v>1358</v>
       </c>
       <c r="H11" t="n">
         <v>27.2</v>
       </c>
       <c r="I11" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="12">
@@ -15528,7 +15627,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15561,7 +15660,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15594,7 +15693,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15627,7 +15726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15660,7 +15759,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15693,23 +15792,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="n">
-        <v>1141</v>
+        <v>1163</v>
       </c>
       <c r="G17" t="n">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="H17" t="n">
-        <v>31.7</v>
+        <v>31.4</v>
       </c>
       <c r="I17" t="n">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="18">
@@ -15726,7 +15825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15759,7 +15858,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15792,23 +15891,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="n">
-        <v>1451</v>
+        <v>1491</v>
       </c>
       <c r="G20" t="n">
-        <v>1357</v>
+        <v>1384</v>
       </c>
       <c r="H20" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="I20" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="21">
@@ -15825,7 +15924,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15858,7 +15957,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15891,7 +15990,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15964,7 +16063,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-29T19:30:00Z</t>
+          <t>2025-10-30T19:10:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -15973,7 +16072,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -16072,7 +16072,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G413"/>
+  <dimension ref="A1:G417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14065,6 +14065,138 @@
         <v>23</v>
       </c>
       <c r="G413" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>897711</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2025-10-31T17:00:00</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>25</v>
+      </c>
+      <c r="F414" t="n">
+        <v>20</v>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>897712</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2025-10-31T17:00:00</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>33</v>
+      </c>
+      <c r="F415" t="n">
+        <v>28</v>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>897713</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2025-10-31T17:00:00</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>18</v>
+      </c>
+      <c r="F416" t="n">
+        <v>39</v>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>897664</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2025-10-31T19:30:00</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>33</v>
+      </c>
+      <c r="F417" t="n">
+        <v>34</v>
+      </c>
+      <c r="G417" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -14175,7 +14307,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -14223,26 +14355,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
         <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="H3" t="n">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="I3" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="J3" t="n">
-        <v>32.1</v>
+        <v>31.4</v>
       </c>
       <c r="K3" t="n">
         <v>668</v>
@@ -14271,14 +14403,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
         <v>544</v>
@@ -14293,16 +14425,16 @@
         <v>28</v>
       </c>
       <c r="K4" t="n">
-        <v>569</v>
+        <v>608</v>
       </c>
       <c r="L4" t="n">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="M4" t="n">
-        <v>31.6</v>
+        <v>32</v>
       </c>
       <c r="N4" t="n">
-        <v>29</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="5">
@@ -14319,7 +14451,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14367,7 +14499,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14415,14 +14547,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
         <v>812</v>
@@ -14437,16 +14569,16 @@
         <v>31.8</v>
       </c>
       <c r="K7" t="n">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="L7" t="n">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="M7" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="N7" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="8">
@@ -14463,7 +14595,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -14511,7 +14643,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -14559,7 +14691,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14607,7 +14739,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -14655,26 +14787,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="H12" t="n">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="I12" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="J12" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
       <c r="K12" t="n">
         <v>740</v>
@@ -14703,7 +14835,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14751,7 +14883,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14799,14 +14931,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
         <v>768</v>
@@ -14821,16 +14953,16 @@
         <v>33.6</v>
       </c>
       <c r="K15" t="n">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="L15" t="n">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="M15" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="N15" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="16">
@@ -14847,26 +14979,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
         <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="H16" t="n">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="I16" t="n">
-        <v>28.4</v>
+        <v>27.6</v>
       </c>
       <c r="J16" t="n">
-        <v>26.3</v>
+        <v>27.2</v>
       </c>
       <c r="K16" t="n">
         <v>658</v>
@@ -14895,7 +15027,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14943,14 +15075,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
         <v>486</v>
@@ -14965,16 +15097,16 @@
         <v>38.6</v>
       </c>
       <c r="K18" t="n">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="L18" t="n">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="M18" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="N18" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="19">
@@ -14991,7 +15123,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15039,7 +15171,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15087,26 +15219,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
         <v>24</v>
       </c>
       <c r="G21" t="n">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="H21" t="n">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="I21" t="n">
         <v>32.4</v>
       </c>
       <c r="J21" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="K21" t="n">
         <v>826</v>
@@ -15135,7 +15267,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15183,7 +15315,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15297,7 +15429,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -15330,23 +15462,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="n">
-        <v>1140</v>
+        <v>1165</v>
       </c>
       <c r="G3" t="n">
-        <v>1239</v>
+        <v>1259</v>
       </c>
       <c r="H3" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="I3" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="4">
@@ -15363,23 +15495,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>1113</v>
+        <v>1152</v>
       </c>
       <c r="G4" t="n">
-        <v>914</v>
+        <v>932</v>
       </c>
       <c r="H4" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="I4" t="n">
-        <v>28.6</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="5">
@@ -15396,7 +15528,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15429,7 +15561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15462,20 +15594,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" t="n">
-        <v>1199</v>
+        <v>1227</v>
       </c>
       <c r="G7" t="n">
-        <v>1308</v>
+        <v>1341</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="I7" t="n">
         <v>32.7</v>
@@ -15495,7 +15627,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15528,7 +15660,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15561,7 +15693,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15594,7 +15726,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15627,23 +15759,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
-        <v>1208</v>
+        <v>1241</v>
       </c>
       <c r="G12" t="n">
-        <v>995</v>
+        <v>1029</v>
       </c>
       <c r="H12" t="n">
         <v>31</v>
       </c>
       <c r="I12" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="13">
@@ -15660,7 +15792,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15693,7 +15825,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15726,17 +15858,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" t="n">
-        <v>1202</v>
+        <v>1236</v>
       </c>
       <c r="G15" t="n">
-        <v>1227</v>
+        <v>1260</v>
       </c>
       <c r="H15" t="n">
         <v>32.5</v>
@@ -15759,23 +15891,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" t="n">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="G16" t="n">
-        <v>1040</v>
+        <v>1079</v>
       </c>
       <c r="H16" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="I16" t="n">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="17">
@@ -15792,7 +15924,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15825,23 +15957,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" t="n">
-        <v>1021</v>
+        <v>1041</v>
       </c>
       <c r="G18" t="n">
-        <v>1280</v>
+        <v>1305</v>
       </c>
       <c r="H18" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="I18" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="19">
@@ -15858,7 +15990,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15891,7 +16023,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15924,23 +16056,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" t="n">
-        <v>1312</v>
+        <v>1345</v>
       </c>
       <c r="G21" t="n">
-        <v>1245</v>
+        <v>1273</v>
       </c>
       <c r="H21" t="n">
         <v>33.6</v>
       </c>
       <c r="I21" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="22">
@@ -15957,7 +16089,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15990,7 +16122,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16063,7 +16195,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-30T19:10:00Z</t>
+          <t>2025-10-31T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -16072,7 +16204,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -16204,7 +16204,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -16204,7 +16204,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G417"/>
+  <dimension ref="A1:G421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14197,6 +14197,138 @@
         <v>34</v>
       </c>
       <c r="G417" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>897718</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2025-11-01T16:30:00</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>21</v>
+      </c>
+      <c r="F418" t="n">
+        <v>31</v>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>897716</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2025-11-01T19:00:00</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>41</v>
+      </c>
+      <c r="F419" t="n">
+        <v>23</v>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>897717</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2025-11-01T19:00:00</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>28</v>
+      </c>
+      <c r="F420" t="n">
+        <v>23</v>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>897715</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2025-11-01T19:30:00</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>24</v>
+      </c>
+      <c r="F421" t="n">
+        <v>19</v>
+      </c>
+      <c r="G421" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -14307,26 +14439,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
         <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="H2" t="n">
-        <v>559</v>
+        <v>590</v>
       </c>
       <c r="I2" t="n">
-        <v>33.3</v>
+        <v>32.7</v>
       </c>
       <c r="J2" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="K2" t="n">
         <v>572</v>
@@ -14355,7 +14487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -14403,7 +14535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14451,26 +14583,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
         <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>738</v>
+        <v>779</v>
       </c>
       <c r="H5" t="n">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="I5" t="n">
-        <v>33.5</v>
+        <v>33.9</v>
       </c>
       <c r="J5" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="K5" t="n">
         <v>604</v>
@@ -14499,7 +14631,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14547,7 +14679,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14595,26 +14727,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
         <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="H8" t="n">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="I8" t="n">
-        <v>32.7</v>
+        <v>32.1</v>
       </c>
       <c r="J8" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="K8" t="n">
         <v>560</v>
@@ -14643,7 +14775,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -14691,14 +14823,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
         <v>532</v>
@@ -14713,16 +14845,16 @@
         <v>34.8</v>
       </c>
       <c r="K10" t="n">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="L10" t="n">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="M10" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="N10" t="n">
-        <v>36.8</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="11">
@@ -14739,14 +14871,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>22</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
         <v>598</v>
@@ -14761,16 +14893,16 @@
         <v>35.3</v>
       </c>
       <c r="K11" t="n">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="L11" t="n">
-        <v>582</v>
+        <v>623</v>
       </c>
       <c r="M11" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="N11" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="12">
@@ -14787,7 +14919,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -14835,7 +14967,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14883,14 +15015,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>23</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
         <v>724</v>
@@ -14905,16 +15037,16 @@
         <v>33.5</v>
       </c>
       <c r="K14" t="n">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="L14" t="n">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="M14" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="N14" t="n">
-        <v>38.9</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="15">
@@ -14931,7 +15063,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14979,7 +15111,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15027,23 +15159,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
         <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="H17" t="n">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="I17" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="J17" t="n">
         <v>22.7</v>
@@ -15075,7 +15207,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15123,7 +15255,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15171,7 +15303,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15219,7 +15351,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15267,7 +15399,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15315,14 +15447,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
         <v>383</v>
@@ -15337,16 +15469,16 @@
         <v>29.4</v>
       </c>
       <c r="K23" t="n">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="L23" t="n">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="M23" t="n">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="N23" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
     </row>
   </sheetData>
@@ -15429,23 +15561,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" t="n">
-        <v>1238</v>
+        <v>1259</v>
       </c>
       <c r="G2" t="n">
-        <v>1031</v>
+        <v>1062</v>
       </c>
       <c r="H2" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="I2" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="3">
@@ -15462,7 +15594,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -15495,7 +15627,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -15528,23 +15660,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" t="n">
-        <v>1342</v>
+        <v>1383</v>
       </c>
       <c r="G5" t="n">
-        <v>1098</v>
+        <v>1121</v>
       </c>
       <c r="H5" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="I5" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="6">
@@ -15561,7 +15693,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15594,7 +15726,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -15627,23 +15759,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>1018</v>
+        <v>1042</v>
       </c>
       <c r="G8" t="n">
-        <v>1046</v>
+        <v>1065</v>
       </c>
       <c r="H8" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="I8" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="9">
@@ -15660,7 +15792,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15693,23 +15825,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="n">
-        <v>1012</v>
+        <v>1035</v>
       </c>
       <c r="G10" t="n">
-        <v>1288</v>
+        <v>1316</v>
       </c>
       <c r="H10" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="I10" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="11">
@@ -15726,23 +15858,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" t="n">
-        <v>1032</v>
+        <v>1055</v>
       </c>
       <c r="G11" t="n">
-        <v>1358</v>
+        <v>1399</v>
       </c>
       <c r="H11" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="I11" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="12">
@@ -15759,7 +15891,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15792,7 +15924,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15825,23 +15957,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
-        <v>1158</v>
+        <v>1189</v>
       </c>
       <c r="G14" t="n">
-        <v>1392</v>
+        <v>1413</v>
       </c>
       <c r="H14" t="n">
         <v>29.7</v>
       </c>
       <c r="I14" t="n">
-        <v>35.7</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="15">
@@ -15858,7 +15990,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15891,7 +16023,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15924,23 +16056,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" t="n">
-        <v>1163</v>
+        <v>1191</v>
       </c>
       <c r="G17" t="n">
-        <v>920</v>
+        <v>943</v>
       </c>
       <c r="H17" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="I17" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="18">
@@ -15957,7 +16089,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15990,7 +16122,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -16023,7 +16155,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16056,7 +16188,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16089,7 +16221,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16122,23 +16254,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" t="n">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="G23" t="n">
-        <v>1049</v>
+        <v>1073</v>
       </c>
       <c r="H23" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="I23" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -16195,7 +16327,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-31T19:30:00Z</t>
+          <t>2025-11-01T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -16204,7 +16336,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G421"/>
+  <dimension ref="A1:G426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14329,6 +14329,171 @@
         <v>19</v>
       </c>
       <c r="G421" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>897722</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2025-11-02T10:00:00</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>21</v>
+      </c>
+      <c r="F422" t="n">
+        <v>30</v>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>897719</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2025-11-02T14:00:00</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>39</v>
+      </c>
+      <c r="F423" t="n">
+        <v>33</v>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>897721</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2025-11-02T14:30:00</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>16</v>
+      </c>
+      <c r="F424" t="n">
+        <v>37</v>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>897720</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2025-11-02T14:30:00</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>24</v>
+      </c>
+      <c r="F425" t="n">
+        <v>24</v>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>897723</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2025-11-02T17:00:00</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>30</v>
+      </c>
+      <c r="F426" t="n">
+        <v>50</v>
+      </c>
+      <c r="G426" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -14439,7 +14604,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -14487,26 +14652,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
         <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="H3" t="n">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="I3" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="J3" t="n">
-        <v>31.4</v>
+        <v>31</v>
       </c>
       <c r="K3" t="n">
         <v>668</v>
@@ -14535,14 +14700,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
         <v>544</v>
@@ -14557,16 +14722,16 @@
         <v>28</v>
       </c>
       <c r="K4" t="n">
-        <v>608</v>
+        <v>638</v>
       </c>
       <c r="L4" t="n">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="M4" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="N4" t="n">
-        <v>28.4</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="5">
@@ -14583,7 +14748,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14631,26 +14796,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="H6" t="n">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="I6" t="n">
-        <v>30.6</v>
+        <v>30.1</v>
       </c>
       <c r="J6" t="n">
-        <v>35.2</v>
+        <v>34.9</v>
       </c>
       <c r="K6" t="n">
         <v>592</v>
@@ -14679,7 +14844,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14727,7 +14892,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -14775,7 +14940,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -14823,7 +14988,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14871,7 +15036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -14919,14 +15084,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" t="n">
         <v>501</v>
@@ -14941,16 +15106,16 @@
         <v>27.3</v>
       </c>
       <c r="K12" t="n">
-        <v>740</v>
+        <v>777</v>
       </c>
       <c r="L12" t="n">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="M12" t="n">
-        <v>30.8</v>
+        <v>31.1</v>
       </c>
       <c r="N12" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="13">
@@ -14967,7 +15132,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15015,7 +15180,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15063,7 +15228,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15111,26 +15276,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
         <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="H16" t="n">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="I16" t="n">
-        <v>27.6</v>
+        <v>26.9</v>
       </c>
       <c r="J16" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="K16" t="n">
         <v>658</v>
@@ -15159,7 +15324,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15207,14 +15372,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" t="n">
         <v>486</v>
@@ -15229,16 +15394,16 @@
         <v>38.6</v>
       </c>
       <c r="K18" t="n">
-        <v>555</v>
+        <v>588</v>
       </c>
       <c r="L18" t="n">
-        <v>611</v>
+        <v>650</v>
       </c>
       <c r="M18" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="N18" t="n">
-        <v>30.6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -15255,14 +15420,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="n">
         <v>854</v>
@@ -15277,16 +15442,16 @@
         <v>27.7</v>
       </c>
       <c r="K19" t="n">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="L19" t="n">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="M19" t="n">
-        <v>33.8</v>
+        <v>35.1</v>
       </c>
       <c r="N19" t="n">
-        <v>37.3</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="20">
@@ -15303,14 +15468,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" t="n">
         <v>643</v>
@@ -15325,16 +15490,16 @@
         <v>29.8</v>
       </c>
       <c r="K20" t="n">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="L20" t="n">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="M20" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="N20" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="21">
@@ -15351,26 +15516,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
         <v>24</v>
       </c>
       <c r="G21" t="n">
-        <v>519</v>
+        <v>558</v>
       </c>
       <c r="H21" t="n">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="I21" t="n">
-        <v>32.4</v>
+        <v>32.8</v>
       </c>
       <c r="J21" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="K21" t="n">
         <v>826</v>
@@ -15399,26 +15564,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" t="n">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="H22" t="n">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="I22" t="n">
         <v>30.1</v>
       </c>
       <c r="J22" t="n">
-        <v>31.4</v>
+        <v>32.5</v>
       </c>
       <c r="K22" t="n">
         <v>452</v>
@@ -15447,7 +15612,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15561,7 +15726,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -15594,23 +15759,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="n">
-        <v>1165</v>
+        <v>1189</v>
       </c>
       <c r="G3" t="n">
-        <v>1259</v>
+        <v>1283</v>
       </c>
       <c r="H3" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="I3" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="4">
@@ -15627,23 +15792,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>1152</v>
+        <v>1182</v>
       </c>
       <c r="G4" t="n">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="H4" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="I4" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -15660,7 +15825,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15693,23 +15858,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="n">
-        <v>1082</v>
+        <v>1103</v>
       </c>
       <c r="G6" t="n">
-        <v>1333</v>
+        <v>1363</v>
       </c>
       <c r="H6" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="7">
@@ -15726,7 +15891,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -15759,7 +15924,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15792,7 +15957,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15825,7 +15990,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15858,7 +16023,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15891,23 +16056,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" t="n">
-        <v>1241</v>
+        <v>1278</v>
       </c>
       <c r="G12" t="n">
-        <v>1029</v>
+        <v>1045</v>
       </c>
       <c r="H12" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="I12" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="13">
@@ -15924,7 +16089,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15957,7 +16122,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15990,7 +16155,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16023,23 +16188,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" t="n">
-        <v>1045</v>
+        <v>1061</v>
       </c>
       <c r="G16" t="n">
-        <v>1079</v>
+        <v>1116</v>
       </c>
       <c r="H16" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="I16" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="17">
@@ -16056,7 +16221,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16089,23 +16254,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" t="n">
-        <v>1041</v>
+        <v>1074</v>
       </c>
       <c r="G18" t="n">
-        <v>1305</v>
+        <v>1344</v>
       </c>
       <c r="H18" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="I18" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="19">
@@ -16122,20 +16287,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" t="n">
-        <v>1260</v>
+        <v>1310</v>
       </c>
       <c r="G19" t="n">
-        <v>1112</v>
+        <v>1142</v>
       </c>
       <c r="H19" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="I19" t="n">
         <v>30.9</v>
@@ -16155,23 +16320,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="n">
-        <v>1491</v>
+        <v>1515</v>
       </c>
       <c r="G20" t="n">
-        <v>1384</v>
+        <v>1408</v>
       </c>
       <c r="H20" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="I20" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="21">
@@ -16188,23 +16353,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21" t="n">
-        <v>1345</v>
+        <v>1384</v>
       </c>
       <c r="G21" t="n">
-        <v>1273</v>
+        <v>1306</v>
       </c>
       <c r="H21" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="I21" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="22">
@@ -16221,23 +16386,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" t="n">
-        <v>934</v>
+        <v>964</v>
       </c>
       <c r="G22" t="n">
-        <v>1175</v>
+        <v>1225</v>
       </c>
       <c r="H22" t="n">
         <v>27.5</v>
       </c>
       <c r="I22" t="n">
-        <v>34.6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
@@ -16254,7 +16419,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16327,7 +16492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-01T19:30:00Z</t>
+          <t>2025-11-02T17:00:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -16336,7 +16501,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -16501,7 +16501,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -16501,7 +16501,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -16501,7 +16501,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -16501,7 +16501,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G426"/>
+  <dimension ref="A1:G429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14494,6 +14494,105 @@
         <v>50</v>
       </c>
       <c r="G426" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>897725</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2025-11-03T14:30:00</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>44</v>
+      </c>
+      <c r="F427" t="n">
+        <v>24</v>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>897727</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2025-11-03T17:30:00</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>38</v>
+      </c>
+      <c r="F428" t="n">
+        <v>33</v>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>897724</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2025-11-03T19:10:00</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>23</v>
+      </c>
+      <c r="F429" t="n">
+        <v>26</v>
+      </c>
+      <c r="G429" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -14604,7 +14703,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -14652,7 +14751,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -14700,7 +14799,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14748,7 +14847,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14796,7 +14895,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14844,23 +14943,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>812</v>
+        <v>850</v>
       </c>
       <c r="H7" t="n">
-        <v>826</v>
+        <v>859</v>
       </c>
       <c r="I7" t="n">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="J7" t="n">
         <v>31.8</v>
@@ -14892,7 +14991,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -14940,26 +15039,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>730</v>
+        <v>753</v>
       </c>
       <c r="H9" t="n">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="I9" t="n">
-        <v>36.5</v>
+        <v>35.9</v>
       </c>
       <c r="J9" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="K9" t="n">
         <v>668</v>
@@ -14988,14 +15087,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
         <v>532</v>
@@ -15010,16 +15109,16 @@
         <v>34.8</v>
       </c>
       <c r="K10" t="n">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="L10" t="n">
-        <v>654</v>
+        <v>698</v>
       </c>
       <c r="M10" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="N10" t="n">
-        <v>36.3</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="11">
@@ -15036,7 +15135,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15084,7 +15183,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15132,26 +15231,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" t="n">
         <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>840</v>
+        <v>884</v>
       </c>
       <c r="H13" t="n">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="I13" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="J13" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="K13" t="n">
         <v>403</v>
@@ -15180,14 +15279,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>23</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
         <v>724</v>
@@ -15202,13 +15301,13 @@
         <v>33.5</v>
       </c>
       <c r="K14" t="n">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="L14" t="n">
-        <v>643</v>
+        <v>681</v>
       </c>
       <c r="M14" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="N14" t="n">
         <v>37.8</v>
@@ -15228,7 +15327,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15276,7 +15375,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15324,7 +15423,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15372,7 +15471,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15420,7 +15519,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15468,7 +15567,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15516,7 +15615,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15564,7 +15663,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15612,14 +15711,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
         <v>383</v>
@@ -15634,16 +15733,16 @@
         <v>29.4</v>
       </c>
       <c r="K23" t="n">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="L23" t="n">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="M23" t="n">
         <v>24.9</v>
       </c>
       <c r="N23" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
     </row>
   </sheetData>
@@ -15726,7 +15825,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -15759,7 +15858,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -15792,7 +15891,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -15825,7 +15924,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15858,7 +15957,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15891,20 +15990,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" t="n">
-        <v>1227</v>
+        <v>1265</v>
       </c>
       <c r="G7" t="n">
-        <v>1341</v>
+        <v>1374</v>
       </c>
       <c r="H7" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="I7" t="n">
         <v>32.7</v>
@@ -15924,7 +16023,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15957,20 +16056,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" t="n">
-        <v>1398</v>
+        <v>1421</v>
       </c>
       <c r="G9" t="n">
-        <v>1035</v>
+        <v>1061</v>
       </c>
       <c r="H9" t="n">
-        <v>36.8</v>
+        <v>36.4</v>
       </c>
       <c r="I9" t="n">
         <v>27.2</v>
@@ -15990,23 +16089,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" t="n">
-        <v>1035</v>
+        <v>1059</v>
       </c>
       <c r="G10" t="n">
-        <v>1316</v>
+        <v>1360</v>
       </c>
       <c r="H10" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="I10" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="11">
@@ -16023,7 +16122,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16056,7 +16155,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16089,20 +16188,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" t="n">
-        <v>1243</v>
+        <v>1287</v>
       </c>
       <c r="G13" t="n">
-        <v>985</v>
+        <v>1009</v>
       </c>
       <c r="H13" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="I13" t="n">
         <v>25.9</v>
@@ -16122,23 +16221,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" t="n">
-        <v>1189</v>
+        <v>1222</v>
       </c>
       <c r="G14" t="n">
-        <v>1413</v>
+        <v>1451</v>
       </c>
       <c r="H14" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="I14" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="15">
@@ -16155,7 +16254,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16188,7 +16287,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16221,7 +16320,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16254,7 +16353,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16287,7 +16386,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -16320,7 +16419,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16353,7 +16452,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16386,7 +16485,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16419,23 +16518,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" t="n">
-        <v>880</v>
+        <v>906</v>
       </c>
       <c r="G23" t="n">
-        <v>1073</v>
+        <v>1096</v>
       </c>
       <c r="H23" t="n">
         <v>23.8</v>
       </c>
       <c r="I23" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
     </row>
   </sheetData>
@@ -16492,7 +16591,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-02T17:00:00Z</t>
+          <t>2025-11-03T19:10:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -16501,7 +16600,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -16600,7 +16600,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -16600,7 +16600,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -16600,7 +16600,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G429"/>
+  <dimension ref="A1:G432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14593,6 +14593,105 @@
         <v>26</v>
       </c>
       <c r="G429" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>897728</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2025-11-04T13:30:00</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>25</v>
+      </c>
+      <c r="F430" t="n">
+        <v>39</v>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>897726</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2025-11-04T17:00:00</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>23</v>
+      </c>
+      <c r="F431" t="n">
+        <v>36</v>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>897729</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2025-11-04T17:00:00</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>29</v>
+      </c>
+      <c r="F432" t="n">
+        <v>33</v>
+      </c>
+      <c r="G432" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -14703,7 +14802,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -14751,7 +14850,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -14799,7 +14898,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14847,7 +14946,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14895,7 +14994,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14943,7 +15042,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14991,14 +15090,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
         <v>482</v>
@@ -15013,16 +15112,16 @@
         <v>27.7</v>
       </c>
       <c r="K8" t="n">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="L8" t="n">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="M8" t="n">
-        <v>28</v>
+        <v>28.4</v>
       </c>
       <c r="N8" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -15039,7 +15138,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15087,7 +15186,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15135,7 +15234,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15183,7 +15282,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15231,7 +15330,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15279,7 +15378,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15327,26 +15426,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
         <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>768</v>
+        <v>791</v>
       </c>
       <c r="H15" t="n">
-        <v>773</v>
+        <v>809</v>
       </c>
       <c r="I15" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="J15" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="K15" t="n">
         <v>468</v>
@@ -15375,7 +15474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15423,7 +15522,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15471,23 +15570,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" t="n">
         <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="H18" t="n">
-        <v>694</v>
+        <v>733</v>
       </c>
       <c r="I18" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="J18" t="n">
         <v>38.6</v>
@@ -15519,14 +15618,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
         <v>854</v>
@@ -15541,16 +15640,16 @@
         <v>27.7</v>
       </c>
       <c r="K19" t="n">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="L19" t="n">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="M19" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="N19" t="n">
-        <v>36.8</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="20">
@@ -15567,14 +15666,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
         <v>643</v>
@@ -15589,16 +15688,16 @@
         <v>29.8</v>
       </c>
       <c r="K20" t="n">
-        <v>872</v>
+        <v>911</v>
       </c>
       <c r="L20" t="n">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="M20" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="N20" t="n">
-        <v>32.5</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="21">
@@ -15615,7 +15714,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15663,20 +15762,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" t="n">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="H22" t="n">
-        <v>552</v>
+        <v>585</v>
       </c>
       <c r="I22" t="n">
         <v>30.1</v>
@@ -15711,7 +15810,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15825,7 +15924,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -15858,7 +15957,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -15891,7 +15990,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -15924,7 +16023,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15957,7 +16056,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15990,7 +16089,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16023,23 +16122,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>1042</v>
+        <v>1078</v>
       </c>
       <c r="G8" t="n">
-        <v>1065</v>
+        <v>1088</v>
       </c>
       <c r="H8" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="I8" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="9">
@@ -16056,7 +16155,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16089,7 +16188,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16122,7 +16221,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16155,7 +16254,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16188,7 +16287,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16221,7 +16320,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16254,20 +16353,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" t="n">
-        <v>1236</v>
+        <v>1259</v>
       </c>
       <c r="G15" t="n">
-        <v>1260</v>
+        <v>1296</v>
       </c>
       <c r="H15" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="I15" t="n">
         <v>33.2</v>
@@ -16287,7 +16386,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16320,7 +16419,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16353,23 +16452,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" t="n">
-        <v>1074</v>
+        <v>1099</v>
       </c>
       <c r="G18" t="n">
-        <v>1344</v>
+        <v>1383</v>
       </c>
       <c r="H18" t="n">
         <v>27.5</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="19">
@@ -16386,23 +16485,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" t="n">
-        <v>1310</v>
+        <v>1343</v>
       </c>
       <c r="G19" t="n">
-        <v>1142</v>
+        <v>1171</v>
       </c>
       <c r="H19" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="I19" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="20">
@@ -16419,23 +16518,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" t="n">
-        <v>1515</v>
+        <v>1554</v>
       </c>
       <c r="G20" t="n">
-        <v>1408</v>
+        <v>1433</v>
       </c>
       <c r="H20" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="I20" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="21">
@@ -16452,7 +16551,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16485,23 +16584,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" t="n">
-        <v>964</v>
+        <v>993</v>
       </c>
       <c r="G22" t="n">
-        <v>1225</v>
+        <v>1258</v>
       </c>
       <c r="H22" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="I22" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="23">
@@ -16518,7 +16617,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16591,7 +16690,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-03T19:10:00Z</t>
+          <t>2025-11-04T17:00:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -16600,7 +16699,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -16699,7 +16699,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G432"/>
+  <dimension ref="A1:G436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14692,6 +14692,138 @@
         <v>33</v>
       </c>
       <c r="G432" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>897731</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2025-11-05T12:15:00</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>41</v>
+      </c>
+      <c r="F433" t="n">
+        <v>46</v>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>897732</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2025-11-05T12:30:00</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>36</v>
+      </c>
+      <c r="F434" t="n">
+        <v>20</v>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>897734</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2025-11-05T17:00:00</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>41</v>
+      </c>
+      <c r="F435" t="n">
+        <v>19</v>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>897733</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>2025-11-05T17:30:00</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>35</v>
+      </c>
+      <c r="F436" t="n">
+        <v>36</v>
+      </c>
+      <c r="G436" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -14802,14 +14934,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
         <v>687</v>
@@ -14824,16 +14956,16 @@
         <v>28.1</v>
       </c>
       <c r="K2" t="n">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="L2" t="n">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="M2" t="n">
-        <v>35.8</v>
+        <v>36.4</v>
       </c>
       <c r="N2" t="n">
-        <v>29.5</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="3">
@@ -14850,7 +14982,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -14898,26 +15030,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="H4" t="n">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="I4" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="J4" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="K4" t="n">
         <v>638</v>
@@ -14946,7 +15078,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14994,26 +15126,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
         <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="H6" t="n">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="I6" t="n">
-        <v>30.1</v>
+        <v>30.7</v>
       </c>
       <c r="J6" t="n">
-        <v>34.9</v>
+        <v>35.6</v>
       </c>
       <c r="K6" t="n">
         <v>592</v>
@@ -15042,26 +15174,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>850</v>
+        <v>885</v>
       </c>
       <c r="H7" t="n">
-        <v>859</v>
+        <v>895</v>
       </c>
       <c r="I7" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="J7" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="K7" t="n">
         <v>415</v>
@@ -15090,7 +15222,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15138,7 +15270,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15186,7 +15318,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15234,7 +15366,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15282,7 +15414,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15330,14 +15462,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
         <v>884</v>
@@ -15352,16 +15484,16 @@
         <v>25.8</v>
       </c>
       <c r="K13" t="n">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="L13" t="n">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="M13" t="n">
-        <v>28.8</v>
+        <v>28.2</v>
       </c>
       <c r="N13" t="n">
-        <v>25.9</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="14">
@@ -15378,14 +15510,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>23</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" t="n">
         <v>724</v>
@@ -15400,16 +15532,16 @@
         <v>33.5</v>
       </c>
       <c r="K14" t="n">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="L14" t="n">
-        <v>681</v>
+        <v>722</v>
       </c>
       <c r="M14" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="N14" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -15426,7 +15558,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15474,14 +15606,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
         <v>403</v>
@@ -15496,16 +15628,16 @@
         <v>27.9</v>
       </c>
       <c r="K16" t="n">
-        <v>658</v>
+        <v>694</v>
       </c>
       <c r="L16" t="n">
-        <v>698</v>
+        <v>733</v>
       </c>
       <c r="M16" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="N16" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="17">
@@ -15522,7 +15654,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15570,7 +15702,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15618,7 +15750,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15666,7 +15798,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15714,26 +15846,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" t="n">
         <v>24</v>
       </c>
       <c r="G21" t="n">
-        <v>558</v>
+        <v>599</v>
       </c>
       <c r="H21" t="n">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="I21" t="n">
-        <v>32.8</v>
+        <v>33.3</v>
       </c>
       <c r="J21" t="n">
-        <v>30.7</v>
+        <v>30.1</v>
       </c>
       <c r="K21" t="n">
         <v>826</v>
@@ -15762,7 +15894,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15810,7 +15942,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15924,23 +16056,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>1259</v>
+        <v>1305</v>
       </c>
       <c r="G2" t="n">
-        <v>1062</v>
+        <v>1103</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="I2" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -15957,7 +16089,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -15990,23 +16122,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="n">
-        <v>1182</v>
+        <v>1218</v>
       </c>
       <c r="G4" t="n">
-        <v>953</v>
+        <v>973</v>
       </c>
       <c r="H4" t="n">
         <v>34.8</v>
       </c>
       <c r="I4" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="5">
@@ -16023,7 +16155,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16056,23 +16188,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="n">
-        <v>1103</v>
+        <v>1144</v>
       </c>
       <c r="G6" t="n">
-        <v>1363</v>
+        <v>1409</v>
       </c>
       <c r="H6" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="I6" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="7">
@@ -16089,23 +16221,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="n">
-        <v>1265</v>
+        <v>1300</v>
       </c>
       <c r="G7" t="n">
-        <v>1374</v>
+        <v>1410</v>
       </c>
       <c r="H7" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="I7" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
     </row>
     <row r="8">
@@ -16122,7 +16254,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16155,7 +16287,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16188,7 +16320,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16221,7 +16353,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16254,7 +16386,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16287,23 +16419,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>1287</v>
+        <v>1307</v>
       </c>
       <c r="G13" t="n">
-        <v>1009</v>
+        <v>1045</v>
       </c>
       <c r="H13" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="I13" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="14">
@@ -16320,23 +16452,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
-        <v>1222</v>
+        <v>1241</v>
       </c>
       <c r="G14" t="n">
-        <v>1451</v>
+        <v>1492</v>
       </c>
       <c r="H14" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="I14" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="15">
@@ -16353,7 +16485,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16386,23 +16518,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" t="n">
-        <v>1061</v>
+        <v>1097</v>
       </c>
       <c r="G16" t="n">
-        <v>1116</v>
+        <v>1151</v>
       </c>
       <c r="H16" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="I16" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="17">
@@ -16419,7 +16551,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16452,7 +16584,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16485,7 +16617,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -16518,7 +16650,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16551,23 +16683,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" t="n">
-        <v>1384</v>
+        <v>1425</v>
       </c>
       <c r="G21" t="n">
-        <v>1306</v>
+        <v>1325</v>
       </c>
       <c r="H21" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="I21" t="n">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="22">
@@ -16584,7 +16716,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16617,7 +16749,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16690,7 +16822,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-04T17:00:00Z</t>
+          <t>2025-11-05T17:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -16699,7 +16831,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -16831,7 +16831,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -16831,7 +16831,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G436"/>
+  <dimension ref="A1:G442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14824,6 +14824,204 @@
         <v>36</v>
       </c>
       <c r="G436" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>897737</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>2025-11-06T19:00:00</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>27</v>
+      </c>
+      <c r="F437" t="n">
+        <v>29</v>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>897738</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>2025-11-06T19:10:00</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>34</v>
+      </c>
+      <c r="F438" t="n">
+        <v>26</v>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>897730</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>2025-11-06T19:30:00</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>39</v>
+      </c>
+      <c r="F439" t="n">
+        <v>25</v>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>897735</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>2025-11-06T19:30:00</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>51</v>
+      </c>
+      <c r="F440" t="n">
+        <v>24</v>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>897736</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>2025-11-06T19:30:00</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>29</v>
+      </c>
+      <c r="F441" t="n">
+        <v>20</v>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>897739</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>2025-11-06T19:30:00</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>19</v>
+      </c>
+      <c r="F442" t="n">
+        <v>37</v>
+      </c>
+      <c r="G442" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -14934,7 +15132,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -14982,7 +15180,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -15030,7 +15228,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -15078,14 +15276,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>23</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
         <v>779</v>
@@ -15100,16 +15298,16 @@
         <v>25.5</v>
       </c>
       <c r="K5" t="n">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="L5" t="n">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="M5" t="n">
-        <v>33.6</v>
+        <v>33.2</v>
       </c>
       <c r="N5" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="6">
@@ -15126,7 +15324,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15174,7 +15372,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -15222,26 +15420,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
         <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="H8" t="n">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="I8" t="n">
-        <v>32.1</v>
+        <v>33.3</v>
       </c>
       <c r="J8" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="K8" t="n">
         <v>596</v>
@@ -15270,26 +15468,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>753</v>
+        <v>787</v>
       </c>
       <c r="H9" t="n">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="I9" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J9" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="K9" t="n">
         <v>668</v>
@@ -15318,14 +15516,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>532</v>
@@ -15340,16 +15538,16 @@
         <v>34.8</v>
       </c>
       <c r="K10" t="n">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="L10" t="n">
-        <v>698</v>
+        <v>737</v>
       </c>
       <c r="M10" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="N10" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="11">
@@ -15366,14 +15564,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>22</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="n">
         <v>598</v>
@@ -15388,16 +15586,16 @@
         <v>35.3</v>
       </c>
       <c r="K11" t="n">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="L11" t="n">
-        <v>623</v>
+        <v>674</v>
       </c>
       <c r="M11" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="N11" t="n">
-        <v>36.6</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="12">
@@ -15414,26 +15612,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" t="n">
         <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="H12" t="n">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="I12" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="J12" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="K12" t="n">
         <v>777</v>
@@ -15462,7 +15660,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15510,7 +15708,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15558,26 +15756,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
         <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>791</v>
+        <v>830</v>
       </c>
       <c r="H15" t="n">
-        <v>809</v>
+        <v>834</v>
       </c>
       <c r="I15" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="J15" t="n">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="K15" t="n">
         <v>468</v>
@@ -15606,7 +15804,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15654,14 +15852,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" t="n">
         <v>469</v>
@@ -15676,16 +15874,16 @@
         <v>22.7</v>
       </c>
       <c r="K17" t="n">
-        <v>722</v>
+        <v>759</v>
       </c>
       <c r="L17" t="n">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="M17" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="N17" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -15702,7 +15900,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15750,14 +15948,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
         <v>854</v>
@@ -15772,16 +15970,16 @@
         <v>27.7</v>
       </c>
       <c r="K19" t="n">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="L19" t="n">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="M19" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="N19" t="n">
-        <v>36.2</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="20">
@@ -15798,14 +15996,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G20" t="n">
         <v>643</v>
@@ -15820,16 +16018,16 @@
         <v>29.8</v>
       </c>
       <c r="K20" t="n">
-        <v>911</v>
+        <v>931</v>
       </c>
       <c r="L20" t="n">
-        <v>837</v>
+        <v>866</v>
       </c>
       <c r="M20" t="n">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="N20" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="21">
@@ -15846,7 +16044,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15894,26 +16092,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" t="n">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="H22" t="n">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="I22" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="J22" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="K22" t="n">
         <v>452</v>
@@ -15942,26 +16140,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" t="n">
         <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="H23" t="n">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="I23" t="n">
-        <v>22.5</v>
+        <v>22.9</v>
       </c>
       <c r="J23" t="n">
-        <v>29.4</v>
+        <v>28.8</v>
       </c>
       <c r="K23" t="n">
         <v>523</v>
@@ -16056,7 +16254,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -16089,7 +16287,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -16122,7 +16320,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16155,23 +16353,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" t="n">
-        <v>1383</v>
+        <v>1409</v>
       </c>
       <c r="G5" t="n">
-        <v>1121</v>
+        <v>1155</v>
       </c>
       <c r="H5" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="I5" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="6">
@@ -16188,7 +16386,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16221,7 +16419,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16254,23 +16452,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" t="n">
-        <v>1078</v>
+        <v>1129</v>
       </c>
       <c r="G8" t="n">
-        <v>1088</v>
+        <v>1112</v>
       </c>
       <c r="H8" t="n">
-        <v>29.9</v>
+        <v>30.5</v>
       </c>
       <c r="I8" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="9">
@@ -16287,17 +16485,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" t="n">
-        <v>1421</v>
+        <v>1455</v>
       </c>
       <c r="G9" t="n">
-        <v>1061</v>
+        <v>1087</v>
       </c>
       <c r="H9" t="n">
         <v>36.4</v>
@@ -16320,23 +16518,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" t="n">
-        <v>1059</v>
+        <v>1084</v>
       </c>
       <c r="G10" t="n">
-        <v>1360</v>
+        <v>1399</v>
       </c>
       <c r="H10" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="I10" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="11">
@@ -16353,23 +16551,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>1055</v>
+        <v>1079</v>
       </c>
       <c r="G11" t="n">
-        <v>1399</v>
+        <v>1450</v>
       </c>
       <c r="H11" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="I11" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="12">
@@ -16386,23 +16584,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" t="n">
-        <v>1278</v>
+        <v>1305</v>
       </c>
       <c r="G12" t="n">
-        <v>1045</v>
+        <v>1074</v>
       </c>
       <c r="H12" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="I12" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="13">
@@ -16419,7 +16617,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16452,7 +16650,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16485,23 +16683,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>1259</v>
+        <v>1298</v>
       </c>
       <c r="G15" t="n">
-        <v>1296</v>
+        <v>1321</v>
       </c>
       <c r="H15" t="n">
-        <v>32.3</v>
+        <v>32.5</v>
       </c>
       <c r="I15" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -16518,7 +16716,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16551,23 +16749,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" t="n">
-        <v>1191</v>
+        <v>1228</v>
       </c>
       <c r="G17" t="n">
-        <v>943</v>
+        <v>962</v>
       </c>
       <c r="H17" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="I17" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="18">
@@ -16584,7 +16782,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16617,23 +16815,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" t="n">
-        <v>1343</v>
+        <v>1372</v>
       </c>
       <c r="G19" t="n">
-        <v>1171</v>
+        <v>1198</v>
       </c>
       <c r="H19" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="I19" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="20">
@@ -16650,23 +16848,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" t="n">
-        <v>1554</v>
+        <v>1574</v>
       </c>
       <c r="G20" t="n">
-        <v>1433</v>
+        <v>1462</v>
       </c>
       <c r="H20" t="n">
-        <v>33.8</v>
+        <v>33.5</v>
       </c>
       <c r="I20" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="21">
@@ -16683,7 +16881,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16716,23 +16914,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" t="n">
-        <v>993</v>
+        <v>1012</v>
       </c>
       <c r="G22" t="n">
-        <v>1258</v>
+        <v>1295</v>
       </c>
       <c r="H22" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="I22" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
@@ -16749,23 +16947,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" t="n">
-        <v>906</v>
+        <v>935</v>
       </c>
       <c r="G23" t="n">
-        <v>1096</v>
+        <v>1116</v>
       </c>
       <c r="H23" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="I23" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
     </row>
   </sheetData>
@@ -16822,7 +17020,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-05T17:30:00Z</t>
+          <t>2025-11-06T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -16831,7 +17029,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -17029,7 +17029,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -17029,7 +17029,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G442"/>
+  <dimension ref="A1:G446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15022,6 +15022,138 @@
         <v>37</v>
       </c>
       <c r="G442" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>897740</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>2025-11-07T12:15:00</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
+        <v>29</v>
+      </c>
+      <c r="F443" t="n">
+        <v>31</v>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>897743</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>2025-11-07T12:30:00</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
+        <v>37</v>
+      </c>
+      <c r="F444" t="n">
+        <v>24</v>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>897742</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>2025-11-07T17:30:00</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="E445" t="n">
+        <v>40</v>
+      </c>
+      <c r="F445" t="n">
+        <v>24</v>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>897741</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>2025-11-07T19:00:00</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="E446" t="n">
+        <v>25</v>
+      </c>
+      <c r="F446" t="n">
+        <v>36</v>
+      </c>
+      <c r="G446" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -15132,14 +15264,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
         <v>687</v>
@@ -15154,16 +15286,16 @@
         <v>28.1</v>
       </c>
       <c r="K2" t="n">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="L2" t="n">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="M2" t="n">
-        <v>36.4</v>
+        <v>35.7</v>
       </c>
       <c r="N2" t="n">
-        <v>30.2</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="3">
@@ -15180,14 +15312,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
         <v>521</v>
@@ -15202,16 +15334,16 @@
         <v>31</v>
       </c>
       <c r="K3" t="n">
-        <v>668</v>
+        <v>692</v>
       </c>
       <c r="L3" t="n">
-        <v>725</v>
+        <v>765</v>
       </c>
       <c r="M3" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="N3" t="n">
-        <v>30.2</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="4">
@@ -15228,26 +15360,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>580</v>
+        <v>617</v>
       </c>
       <c r="H4" t="n">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="I4" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J4" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="K4" t="n">
         <v>638</v>
@@ -15276,7 +15408,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15324,26 +15456,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
         <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="H6" t="n">
-        <v>640</v>
+        <v>671</v>
       </c>
       <c r="I6" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="J6" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="K6" t="n">
         <v>592</v>
@@ -15372,26 +15504,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>885</v>
+        <v>925</v>
       </c>
       <c r="H7" t="n">
-        <v>895</v>
+        <v>919</v>
       </c>
       <c r="I7" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="J7" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="K7" t="n">
         <v>415</v>
@@ -15420,7 +15552,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15468,7 +15600,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15516,7 +15648,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15564,7 +15696,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15612,7 +15744,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15660,14 +15792,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
         <v>884</v>
@@ -15682,16 +15814,16 @@
         <v>25.8</v>
       </c>
       <c r="K13" t="n">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="L13" t="n">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="M13" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="N13" t="n">
-        <v>26.6</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="14">
@@ -15708,26 +15840,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="H14" t="n">
-        <v>770</v>
+        <v>806</v>
       </c>
       <c r="I14" t="n">
-        <v>31.5</v>
+        <v>31.2</v>
       </c>
       <c r="J14" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="K14" t="n">
         <v>517</v>
@@ -15756,7 +15888,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15804,14 +15936,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G16" t="n">
         <v>403</v>
@@ -15826,16 +15958,16 @@
         <v>27.9</v>
       </c>
       <c r="K16" t="n">
-        <v>694</v>
+        <v>730</v>
       </c>
       <c r="L16" t="n">
-        <v>733</v>
+        <v>758</v>
       </c>
       <c r="M16" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="N16" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="17">
@@ -15852,7 +15984,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15900,7 +16032,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15948,7 +16080,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15996,7 +16128,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16044,7 +16176,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16092,7 +16224,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16140,7 +16272,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16254,23 +16386,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" t="n">
-        <v>1305</v>
+        <v>1329</v>
       </c>
       <c r="G2" t="n">
-        <v>1103</v>
+        <v>1140</v>
       </c>
       <c r="H2" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="3">
@@ -16287,23 +16419,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="n">
-        <v>1189</v>
+        <v>1213</v>
       </c>
       <c r="G3" t="n">
-        <v>1283</v>
+        <v>1323</v>
       </c>
       <c r="H3" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="I3" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="4">
@@ -16320,23 +16452,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" t="n">
-        <v>1218</v>
+        <v>1255</v>
       </c>
       <c r="G4" t="n">
-        <v>973</v>
+        <v>997</v>
       </c>
       <c r="H4" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="I4" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="5">
@@ -16353,7 +16485,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16386,23 +16518,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>1144</v>
+        <v>1173</v>
       </c>
       <c r="G6" t="n">
-        <v>1409</v>
+        <v>1440</v>
       </c>
       <c r="H6" t="n">
         <v>29.3</v>
       </c>
       <c r="I6" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -16419,23 +16551,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="G7" t="n">
-        <v>1410</v>
+        <v>1434</v>
       </c>
       <c r="H7" t="n">
-        <v>30.2</v>
+        <v>30.5</v>
       </c>
       <c r="I7" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="8">
@@ -16452,7 +16584,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16485,7 +16617,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16518,7 +16650,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16551,7 +16683,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16584,7 +16716,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16617,23 +16749,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" t="n">
-        <v>1307</v>
+        <v>1338</v>
       </c>
       <c r="G13" t="n">
-        <v>1045</v>
+        <v>1074</v>
       </c>
       <c r="H13" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="I13" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="14">
@@ -16650,20 +16782,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" t="n">
-        <v>1241</v>
+        <v>1266</v>
       </c>
       <c r="G14" t="n">
-        <v>1492</v>
+        <v>1528</v>
       </c>
       <c r="H14" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="I14" t="n">
         <v>35.5</v>
@@ -16683,7 +16815,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16716,23 +16848,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" t="n">
-        <v>1097</v>
+        <v>1133</v>
       </c>
       <c r="G16" t="n">
-        <v>1151</v>
+        <v>1176</v>
       </c>
       <c r="H16" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="I16" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="17">
@@ -16749,7 +16881,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16782,7 +16914,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16815,7 +16947,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -16848,7 +16980,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16881,7 +17013,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16914,7 +17046,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16947,7 +17079,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17020,7 +17152,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-06T19:30:00Z</t>
+          <t>2025-11-07T19:00:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -17029,7 +17161,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -17161,7 +17161,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G446"/>
+  <dimension ref="A1:G451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15154,6 +15154,171 @@
         <v>36</v>
       </c>
       <c r="G446" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>897744</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>2025-11-08T17:00:00</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="E447" t="n">
+        <v>39</v>
+      </c>
+      <c r="F447" t="n">
+        <v>36</v>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>897745</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>2025-11-08T17:00:00</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="E448" t="n">
+        <v>27</v>
+      </c>
+      <c r="F448" t="n">
+        <v>29</v>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>897746</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>2025-11-08T17:00:00</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="E449" t="n">
+        <v>31</v>
+      </c>
+      <c r="F449" t="n">
+        <v>24</v>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>897748</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>2025-11-08T19:30:00</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
+        <v>30</v>
+      </c>
+      <c r="F450" t="n">
+        <v>31</v>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>897747</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>2025-11-08T17:10:00</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
+        <v>49</v>
+      </c>
+      <c r="F451" t="n">
+        <v>14</v>
+      </c>
+      <c r="G451" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -15264,7 +15429,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -15312,7 +15477,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -15360,7 +15525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -15408,14 +15573,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>23</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
         <v>779</v>
@@ -15430,16 +15595,16 @@
         <v>25.5</v>
       </c>
       <c r="K5" t="n">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="L5" t="n">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="M5" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="N5" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="6">
@@ -15456,7 +15621,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15504,7 +15669,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -15552,26 +15717,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
         <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="H8" t="n">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="I8" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="J8" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="K8" t="n">
         <v>596</v>
@@ -15600,26 +15765,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>787</v>
+        <v>836</v>
       </c>
       <c r="H9" t="n">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="I9" t="n">
-        <v>35.8</v>
+        <v>36.3</v>
       </c>
       <c r="J9" t="n">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="K9" t="n">
         <v>668</v>
@@ -15648,26 +15813,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>532</v>
+        <v>571</v>
       </c>
       <c r="H10" t="n">
-        <v>662</v>
+        <v>698</v>
       </c>
       <c r="I10" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="J10" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="K10" t="n">
         <v>552</v>
@@ -15696,14 +15861,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>22</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
         <v>598</v>
@@ -15718,16 +15883,16 @@
         <v>35.3</v>
       </c>
       <c r="K11" t="n">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="L11" t="n">
-        <v>674</v>
+        <v>723</v>
       </c>
       <c r="M11" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="N11" t="n">
-        <v>37.4</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="12">
@@ -15744,26 +15909,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
         <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="H12" t="n">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="I12" t="n">
-        <v>31.1</v>
+        <v>30.8</v>
       </c>
       <c r="J12" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="K12" t="n">
         <v>777</v>
@@ -15792,7 +15957,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15840,7 +16005,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15888,14 +16053,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" t="n">
         <v>830</v>
@@ -15910,16 +16075,16 @@
         <v>33.4</v>
       </c>
       <c r="K15" t="n">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="L15" t="n">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="M15" t="n">
         <v>31.2</v>
       </c>
       <c r="N15" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="16">
@@ -15936,7 +16101,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15984,14 +16149,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
         <v>469</v>
@@ -16006,16 +16171,16 @@
         <v>22.7</v>
       </c>
       <c r="K17" t="n">
-        <v>759</v>
+        <v>795</v>
       </c>
       <c r="L17" t="n">
-        <v>599</v>
+        <v>638</v>
       </c>
       <c r="M17" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="N17" t="n">
-        <v>26</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="18">
@@ -16032,14 +16197,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" t="n">
         <v>511</v>
@@ -16054,13 +16219,13 @@
         <v>38.6</v>
       </c>
       <c r="K18" t="n">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="L18" t="n">
-        <v>650</v>
+        <v>681</v>
       </c>
       <c r="M18" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="N18" t="n">
         <v>31</v>
@@ -16080,7 +16245,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -16128,7 +16293,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16176,7 +16341,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16224,7 +16389,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16272,26 +16437,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" t="n">
         <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="H23" t="n">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="I23" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="J23" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="K23" t="n">
         <v>523</v>
@@ -16386,7 +16551,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -16419,7 +16584,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -16452,7 +16617,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16485,20 +16650,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="n">
-        <v>1409</v>
+        <v>1438</v>
       </c>
       <c r="G5" t="n">
-        <v>1155</v>
+        <v>1182</v>
       </c>
       <c r="H5" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="I5" t="n">
         <v>27.5</v>
@@ -16518,7 +16683,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16551,7 +16716,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16584,17 +16749,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" t="n">
-        <v>1129</v>
+        <v>1159</v>
       </c>
       <c r="G8" t="n">
-        <v>1112</v>
+        <v>1143</v>
       </c>
       <c r="H8" t="n">
         <v>30.5</v>
@@ -16617,23 +16782,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="n">
-        <v>1455</v>
+        <v>1504</v>
       </c>
       <c r="G9" t="n">
-        <v>1087</v>
+        <v>1101</v>
       </c>
       <c r="H9" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="I9" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="10">
@@ -16650,20 +16815,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>1084</v>
+        <v>1123</v>
       </c>
       <c r="G10" t="n">
-        <v>1399</v>
+        <v>1435</v>
       </c>
       <c r="H10" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="I10" t="n">
         <v>35.9</v>
@@ -16683,23 +16848,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="n">
-        <v>1079</v>
+        <v>1093</v>
       </c>
       <c r="G11" t="n">
-        <v>1450</v>
+        <v>1499</v>
       </c>
       <c r="H11" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="I11" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="12">
@@ -16716,23 +16881,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" t="n">
-        <v>1305</v>
+        <v>1332</v>
       </c>
       <c r="G12" t="n">
-        <v>1074</v>
+        <v>1103</v>
       </c>
       <c r="H12" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="I12" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="13">
@@ -16749,7 +16914,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16782,7 +16947,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16815,20 +16980,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" t="n">
-        <v>1298</v>
+        <v>1329</v>
       </c>
       <c r="G15" t="n">
-        <v>1321</v>
+        <v>1351</v>
       </c>
       <c r="H15" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="I15" t="n">
         <v>33</v>
@@ -16848,7 +17013,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16881,23 +17046,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" t="n">
-        <v>1228</v>
+        <v>1264</v>
       </c>
       <c r="G17" t="n">
-        <v>962</v>
+        <v>1001</v>
       </c>
       <c r="H17" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="I17" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -16914,23 +17079,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" t="n">
-        <v>1099</v>
+        <v>1123</v>
       </c>
       <c r="G18" t="n">
-        <v>1383</v>
+        <v>1414</v>
       </c>
       <c r="H18" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="I18" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="19">
@@ -16947,7 +17112,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -16980,7 +17145,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17013,7 +17178,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17046,7 +17211,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17079,23 +17244,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" t="n">
-        <v>935</v>
+        <v>966</v>
       </c>
       <c r="G23" t="n">
-        <v>1116</v>
+        <v>1140</v>
       </c>
       <c r="H23" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="I23" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
     </row>
   </sheetData>
@@ -17152,7 +17317,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-07T19:00:00Z</t>
+          <t>2025-11-08T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -17161,7 +17326,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -17326,7 +17326,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -17326,7 +17326,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G451"/>
+  <dimension ref="A1:G454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15319,6 +15319,105 @@
         <v>14</v>
       </c>
       <c r="G451" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>897749</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>2025-11-09T10:00:00</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
+        <v>33</v>
+      </c>
+      <c r="F452" t="n">
+        <v>39</v>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>897751</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>2025-11-09T10:00:00</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="E453" t="n">
+        <v>36</v>
+      </c>
+      <c r="F453" t="n">
+        <v>26</v>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>897750</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>2025-11-09T15:00:00</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="E454" t="n">
+        <v>32</v>
+      </c>
+      <c r="F454" t="n">
+        <v>34</v>
+      </c>
+      <c r="G454" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -15429,7 +15528,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -15477,14 +15576,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
         <v>521</v>
@@ -15499,16 +15598,16 @@
         <v>31</v>
       </c>
       <c r="K3" t="n">
-        <v>692</v>
+        <v>731</v>
       </c>
       <c r="L3" t="n">
-        <v>765</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>27.7</v>
+        <v>28.1</v>
       </c>
       <c r="N3" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="4">
@@ -15525,23 +15624,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>617</v>
+        <v>653</v>
       </c>
       <c r="H4" t="n">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="I4" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="J4" t="n">
         <v>27.2</v>
@@ -15573,7 +15672,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15621,26 +15720,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>581</v>
+        <v>614</v>
       </c>
       <c r="H6" t="n">
-        <v>671</v>
+        <v>710</v>
       </c>
       <c r="I6" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="J6" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="K6" t="n">
         <v>592</v>
@@ -15669,26 +15768,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>925</v>
+        <v>957</v>
       </c>
       <c r="H7" t="n">
-        <v>919</v>
+        <v>953</v>
       </c>
       <c r="I7" t="n">
         <v>31.9</v>
       </c>
       <c r="J7" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="K7" t="n">
         <v>415</v>
@@ -15717,7 +15816,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15765,7 +15864,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15813,7 +15912,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15861,7 +15960,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15909,7 +16008,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15957,14 +16056,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
         <v>884</v>
@@ -15979,16 +16078,16 @@
         <v>25.8</v>
       </c>
       <c r="K13" t="n">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="L13" t="n">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="M13" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="N13" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="14">
@@ -16005,7 +16104,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16053,7 +16152,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16101,7 +16200,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16149,7 +16248,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16197,7 +16296,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16245,7 +16344,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -16293,7 +16392,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16341,14 +16440,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G21" t="n">
         <v>599</v>
@@ -16363,16 +16462,16 @@
         <v>30.1</v>
       </c>
       <c r="K21" t="n">
-        <v>826</v>
+        <v>852</v>
       </c>
       <c r="L21" t="n">
-        <v>784</v>
+        <v>820</v>
       </c>
       <c r="M21" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="N21" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
     </row>
     <row r="22">
@@ -16389,7 +16488,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16437,7 +16536,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16551,7 +16650,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -16584,20 +16683,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
-        <v>1213</v>
+        <v>1252</v>
       </c>
       <c r="G3" t="n">
-        <v>1323</v>
+        <v>1356</v>
       </c>
       <c r="H3" t="n">
-        <v>28.2</v>
+        <v>28.5</v>
       </c>
       <c r="I3" t="n">
         <v>30.8</v>
@@ -16617,23 +16716,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" t="n">
-        <v>1255</v>
+        <v>1291</v>
       </c>
       <c r="G4" t="n">
-        <v>997</v>
+        <v>1023</v>
       </c>
       <c r="H4" t="n">
         <v>34.9</v>
       </c>
       <c r="I4" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="5">
@@ -16650,7 +16749,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16683,23 +16782,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" t="n">
-        <v>1173</v>
+        <v>1206</v>
       </c>
       <c r="G6" t="n">
-        <v>1440</v>
+        <v>1479</v>
       </c>
       <c r="H6" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="7">
@@ -16716,17 +16815,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="n">
-        <v>1340</v>
+        <v>1372</v>
       </c>
       <c r="G7" t="n">
-        <v>1434</v>
+        <v>1468</v>
       </c>
       <c r="H7" t="n">
         <v>30.5</v>
@@ -16749,7 +16848,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16782,7 +16881,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16815,7 +16914,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16848,7 +16947,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16881,7 +16980,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16914,23 +17013,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" t="n">
-        <v>1338</v>
+        <v>1372</v>
       </c>
       <c r="G13" t="n">
-        <v>1074</v>
+        <v>1106</v>
       </c>
       <c r="H13" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="I13" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="14">
@@ -16947,7 +17046,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16980,7 +17079,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17013,7 +17112,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17046,7 +17145,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17079,7 +17178,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17112,7 +17211,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17145,7 +17244,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17178,23 +17277,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" t="n">
-        <v>1425</v>
+        <v>1451</v>
       </c>
       <c r="G21" t="n">
-        <v>1325</v>
+        <v>1361</v>
       </c>
       <c r="H21" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="I21" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="22">
@@ -17211,7 +17310,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17244,7 +17343,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17317,7 +17416,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-08T19:30:00Z</t>
+          <t>2025-11-09T15:00:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -17326,7 +17425,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -17425,7 +17425,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G454"/>
+  <dimension ref="A1:G462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15418,6 +15418,270 @@
         <v>34</v>
       </c>
       <c r="G454" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>897755</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>2025-11-10T16:30:00</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="E455" t="n">
+        <v>43</v>
+      </c>
+      <c r="F455" t="n">
+        <v>26</v>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>897756</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>2025-11-10T17:00:00</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="E456" t="n">
+        <v>32</v>
+      </c>
+      <c r="F456" t="n">
+        <v>22</v>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>897753</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>2025-11-10T19:30:00</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="E457" t="n">
+        <v>32</v>
+      </c>
+      <c r="F457" t="n">
+        <v>52</v>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>897754</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>2025-11-10T19:00:00</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="E458" t="n">
+        <v>31</v>
+      </c>
+      <c r="F458" t="n">
+        <v>30</v>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>897757</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>2025-11-10T19:10:00</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
+        <v>29</v>
+      </c>
+      <c r="F459" t="n">
+        <v>40</v>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>897752</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>2025-11-10T19:30:00</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="E460" t="n">
+        <v>46</v>
+      </c>
+      <c r="F460" t="n">
+        <v>25</v>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>897758</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>2025-11-10T19:30:00</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="E461" t="n">
+        <v>27</v>
+      </c>
+      <c r="F461" t="n">
+        <v>34</v>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>897759</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>2025-11-10T19:30:00</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
+        <v>35</v>
+      </c>
+      <c r="F462" t="n">
+        <v>21</v>
+      </c>
+      <c r="G462" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -15528,26 +15792,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
         <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>687</v>
+        <v>730</v>
       </c>
       <c r="H2" t="n">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="I2" t="n">
-        <v>32.7</v>
+        <v>33.2</v>
       </c>
       <c r="J2" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="K2" t="n">
         <v>642</v>
@@ -15576,7 +15840,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -15624,7 +15888,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -15672,14 +15936,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>23</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
         <v>779</v>
@@ -15694,16 +15958,16 @@
         <v>25.5</v>
       </c>
       <c r="K5" t="n">
-        <v>659</v>
+        <v>711</v>
       </c>
       <c r="L5" t="n">
-        <v>595</v>
+        <v>627</v>
       </c>
       <c r="M5" t="n">
-        <v>33</v>
+        <v>33.9</v>
       </c>
       <c r="N5" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="6">
@@ -15720,7 +15984,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15768,7 +16032,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -15816,26 +16080,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
         <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>563</v>
+        <v>598</v>
       </c>
       <c r="H8" t="n">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="I8" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="J8" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="K8" t="n">
         <v>596</v>
@@ -15864,26 +16128,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>836</v>
+        <v>865</v>
       </c>
       <c r="H9" t="n">
-        <v>617</v>
+        <v>657</v>
       </c>
       <c r="I9" t="n">
-        <v>36.3</v>
+        <v>36</v>
       </c>
       <c r="J9" t="n">
-        <v>26.8</v>
+        <v>27.4</v>
       </c>
       <c r="K9" t="n">
         <v>668</v>
@@ -15912,14 +16176,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
         <v>571</v>
@@ -15934,16 +16198,16 @@
         <v>34.9</v>
       </c>
       <c r="K10" t="n">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="L10" t="n">
-        <v>737</v>
+        <v>772</v>
       </c>
       <c r="M10" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="N10" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="11">
@@ -15960,14 +16224,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>22</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
         <v>598</v>
@@ -15982,16 +16246,16 @@
         <v>35.3</v>
       </c>
       <c r="K11" t="n">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="L11" t="n">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="M11" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="N11" t="n">
-        <v>38.1</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="12">
@@ -16008,14 +16272,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" t="n">
         <v>555</v>
@@ -16030,16 +16294,16 @@
         <v>27.5</v>
       </c>
       <c r="K12" t="n">
-        <v>777</v>
+        <v>807</v>
       </c>
       <c r="L12" t="n">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="M12" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="N12" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="13">
@@ -16056,7 +16320,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16104,26 +16368,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
         <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>749</v>
+        <v>781</v>
       </c>
       <c r="H14" t="n">
-        <v>806</v>
+        <v>858</v>
       </c>
       <c r="I14" t="n">
         <v>31.2</v>
       </c>
       <c r="J14" t="n">
-        <v>33.6</v>
+        <v>34.3</v>
       </c>
       <c r="K14" t="n">
         <v>517</v>
@@ -16152,14 +16416,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
         <v>830</v>
@@ -16174,16 +16438,16 @@
         <v>33.4</v>
       </c>
       <c r="K15" t="n">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="L15" t="n">
-        <v>517</v>
+        <v>560</v>
       </c>
       <c r="M15" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="N15" t="n">
-        <v>32.3</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="16">
@@ -16200,26 +16464,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
         <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="H16" t="n">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="I16" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="J16" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="K16" t="n">
         <v>730</v>
@@ -16248,14 +16512,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
         <v>469</v>
@@ -16270,13 +16534,13 @@
         <v>22.7</v>
       </c>
       <c r="K17" t="n">
-        <v>795</v>
+        <v>829</v>
       </c>
       <c r="L17" t="n">
-        <v>638</v>
+        <v>665</v>
       </c>
       <c r="M17" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="N17" t="n">
         <v>26.6</v>
@@ -16296,14 +16560,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
         <v>511</v>
@@ -16318,16 +16582,16 @@
         <v>38.6</v>
       </c>
       <c r="K18" t="n">
-        <v>612</v>
+        <v>637</v>
       </c>
       <c r="L18" t="n">
-        <v>681</v>
+        <v>727</v>
       </c>
       <c r="M18" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="N18" t="n">
-        <v>31</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="19">
@@ -16344,26 +16608,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" t="n">
         <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>854</v>
+        <v>900</v>
       </c>
       <c r="H19" t="n">
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="I19" t="n">
-        <v>35.6</v>
+        <v>36</v>
       </c>
       <c r="J19" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="K19" t="n">
         <v>518</v>
@@ -16392,20 +16656,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>643</v>
+        <v>674</v>
       </c>
       <c r="H20" t="n">
-        <v>596</v>
+        <v>626</v>
       </c>
       <c r="I20" t="n">
         <v>32.1</v>
@@ -16440,7 +16704,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16488,14 +16752,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>19</v>
       </c>
       <c r="F22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" t="n">
         <v>560</v>
@@ -16510,16 +16774,16 @@
         <v>32.7</v>
       </c>
       <c r="K22" t="n">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="L22" t="n">
-        <v>673</v>
+        <v>702</v>
       </c>
       <c r="M22" t="n">
-        <v>25.1</v>
+        <v>25.9</v>
       </c>
       <c r="N22" t="n">
-        <v>37.4</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="23">
@@ -16536,26 +16800,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" t="n">
         <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="H23" t="n">
-        <v>543</v>
+        <v>577</v>
       </c>
       <c r="I23" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="J23" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="K23" t="n">
         <v>523</v>
@@ -16650,23 +16914,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>1329</v>
+        <v>1372</v>
       </c>
       <c r="G2" t="n">
-        <v>1140</v>
+        <v>1166</v>
       </c>
       <c r="H2" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="I2" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="3">
@@ -16683,7 +16947,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -16716,7 +16980,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16749,23 +17013,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="n">
-        <v>1438</v>
+        <v>1490</v>
       </c>
       <c r="G5" t="n">
-        <v>1182</v>
+        <v>1214</v>
       </c>
       <c r="H5" t="n">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="I5" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="6">
@@ -16782,7 +17046,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16815,7 +17079,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16848,23 +17112,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" t="n">
-        <v>1159</v>
+        <v>1194</v>
       </c>
       <c r="G8" t="n">
-        <v>1143</v>
+        <v>1164</v>
       </c>
       <c r="H8" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="I8" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="9">
@@ -16881,23 +17145,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="n">
-        <v>1504</v>
+        <v>1533</v>
       </c>
       <c r="G9" t="n">
-        <v>1101</v>
+        <v>1141</v>
       </c>
       <c r="H9" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="I9" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="10">
@@ -16914,20 +17178,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="n">
-        <v>1123</v>
+        <v>1144</v>
       </c>
       <c r="G10" t="n">
-        <v>1435</v>
+        <v>1470</v>
       </c>
       <c r="H10" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="I10" t="n">
         <v>35.9</v>
@@ -16947,23 +17211,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
-        <v>1093</v>
+        <v>1115</v>
       </c>
       <c r="G11" t="n">
-        <v>1499</v>
+        <v>1531</v>
       </c>
       <c r="H11" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="I11" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="12">
@@ -16980,23 +17244,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="n">
-        <v>1332</v>
+        <v>1362</v>
       </c>
       <c r="G12" t="n">
-        <v>1103</v>
+        <v>1134</v>
       </c>
       <c r="H12" t="n">
         <v>31</v>
       </c>
       <c r="I12" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="13">
@@ -17013,7 +17277,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17046,23 +17310,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="n">
-        <v>1266</v>
+        <v>1298</v>
       </c>
       <c r="G14" t="n">
-        <v>1528</v>
+        <v>1580</v>
       </c>
       <c r="H14" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="I14" t="n">
-        <v>35.5</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="15">
@@ -17079,23 +17343,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" t="n">
-        <v>1329</v>
+        <v>1355</v>
       </c>
       <c r="G15" t="n">
-        <v>1351</v>
+        <v>1394</v>
       </c>
       <c r="H15" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="I15" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="16">
@@ -17112,23 +17376,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" t="n">
-        <v>1133</v>
+        <v>1165</v>
       </c>
       <c r="G16" t="n">
-        <v>1176</v>
+        <v>1198</v>
       </c>
       <c r="H16" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="I16" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="17">
@@ -17145,23 +17409,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" t="n">
-        <v>1264</v>
+        <v>1298</v>
       </c>
       <c r="G17" t="n">
-        <v>1001</v>
+        <v>1028</v>
       </c>
       <c r="H17" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="18">
@@ -17178,23 +17442,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" t="n">
-        <v>1123</v>
+        <v>1148</v>
       </c>
       <c r="G18" t="n">
-        <v>1414</v>
+        <v>1460</v>
       </c>
       <c r="H18" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="19">
@@ -17211,23 +17475,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" t="n">
-        <v>1372</v>
+        <v>1418</v>
       </c>
       <c r="G19" t="n">
-        <v>1198</v>
+        <v>1223</v>
       </c>
       <c r="H19" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="I19" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="20">
@@ -17244,20 +17508,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" t="n">
-        <v>1574</v>
+        <v>1605</v>
       </c>
       <c r="G20" t="n">
-        <v>1462</v>
+        <v>1492</v>
       </c>
       <c r="H20" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="I20" t="n">
         <v>31.1</v>
@@ -17277,7 +17541,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17310,23 +17574,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" t="n">
-        <v>1012</v>
+        <v>1052</v>
       </c>
       <c r="G22" t="n">
-        <v>1295</v>
+        <v>1324</v>
       </c>
       <c r="H22" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="I22" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="23">
@@ -17343,23 +17607,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" t="n">
-        <v>966</v>
+        <v>993</v>
       </c>
       <c r="G23" t="n">
-        <v>1140</v>
+        <v>1174</v>
       </c>
       <c r="H23" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="I23" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
     </row>
   </sheetData>
@@ -17416,7 +17680,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-09T15:00:00Z</t>
+          <t>2025-11-10T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -17425,7 +17689,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G462"/>
+  <dimension ref="A1:G464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15682,6 +15682,72 @@
         <v>21</v>
       </c>
       <c r="G462" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>897760</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>2025-11-11T12:15:00</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="E463" t="n">
+        <v>27</v>
+      </c>
+      <c r="F463" t="n">
+        <v>36</v>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>897761</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>2025-11-11T12:30:00</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="E464" t="n">
+        <v>33</v>
+      </c>
+      <c r="F464" t="n">
+        <v>21</v>
+      </c>
+      <c r="G464" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -15792,7 +15858,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -15840,14 +15906,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
         <v>521</v>
@@ -15862,16 +15928,16 @@
         <v>31</v>
       </c>
       <c r="K3" t="n">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="L3" t="n">
-        <v>798</v>
+        <v>831</v>
       </c>
       <c r="M3" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="N3" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="4">
@@ -15888,26 +15954,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>653</v>
+        <v>686</v>
       </c>
       <c r="H4" t="n">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="I4" t="n">
-        <v>38.4</v>
+        <v>38.1</v>
       </c>
       <c r="J4" t="n">
-        <v>27.2</v>
+        <v>26.8</v>
       </c>
       <c r="K4" t="n">
         <v>638</v>
@@ -15936,7 +16002,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15984,23 +16050,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" t="n">
         <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="H6" t="n">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="I6" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="J6" t="n">
         <v>35.5</v>
@@ -16032,7 +16098,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16080,7 +16146,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16128,7 +16194,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16176,7 +16242,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16224,7 +16290,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16272,7 +16338,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16320,7 +16386,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16368,7 +16434,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16416,7 +16482,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16464,7 +16530,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16512,7 +16578,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16560,7 +16626,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16608,7 +16674,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -16656,7 +16722,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16704,14 +16770,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G21" t="n">
         <v>599</v>
@@ -16726,16 +16792,16 @@
         <v>30.1</v>
       </c>
       <c r="K21" t="n">
-        <v>852</v>
+        <v>888</v>
       </c>
       <c r="L21" t="n">
-        <v>820</v>
+        <v>847</v>
       </c>
       <c r="M21" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="N21" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="22">
@@ -16752,7 +16818,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16800,7 +16866,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16914,7 +16980,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -16947,23 +17013,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="n">
-        <v>1252</v>
+        <v>1273</v>
       </c>
       <c r="G3" t="n">
-        <v>1356</v>
+        <v>1389</v>
       </c>
       <c r="H3" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="I3" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="4">
@@ -16980,23 +17046,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" t="n">
-        <v>1291</v>
+        <v>1324</v>
       </c>
       <c r="G4" t="n">
-        <v>1023</v>
+        <v>1044</v>
       </c>
       <c r="H4" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="I4" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="5">
@@ -17013,7 +17079,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17046,17 +17112,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
-        <v>1206</v>
+        <v>1233</v>
       </c>
       <c r="G6" t="n">
-        <v>1479</v>
+        <v>1515</v>
       </c>
       <c r="H6" t="n">
         <v>29.4</v>
@@ -17079,7 +17145,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17112,7 +17178,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17145,7 +17211,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17178,7 +17244,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17211,7 +17277,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17244,7 +17310,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17277,7 +17343,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17310,7 +17376,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -17343,7 +17409,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17376,7 +17442,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17409,7 +17475,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17442,7 +17508,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17475,7 +17541,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17508,7 +17574,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17541,23 +17607,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="n">
-        <v>1451</v>
+        <v>1487</v>
       </c>
       <c r="G21" t="n">
-        <v>1361</v>
+        <v>1388</v>
       </c>
       <c r="H21" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="I21" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="22">
@@ -17574,7 +17640,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17607,7 +17673,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17680,7 +17746,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-10T19:30:00Z</t>
+          <t>2025-11-11T12:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -17689,7 +17755,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G464"/>
+  <dimension ref="A1:G469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15748,6 +15748,171 @@
         <v>21</v>
       </c>
       <c r="G464" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>897763</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>2025-11-12T17:00:00</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="E465" t="n">
+        <v>30</v>
+      </c>
+      <c r="F465" t="n">
+        <v>29</v>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>897766</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>2025-11-12T17:00:00</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
+        <v>42</v>
+      </c>
+      <c r="F466" t="n">
+        <v>14</v>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>897764</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>2025-11-12T19:30:00</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="E467" t="n">
+        <v>43</v>
+      </c>
+      <c r="F467" t="n">
+        <v>24</v>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>897765</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>2025-11-12T19:30:00</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="E468" t="n">
+        <v>55</v>
+      </c>
+      <c r="F468" t="n">
+        <v>20</v>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>897762</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>2025-11-12T19:30:00</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="E469" t="n">
+        <v>27</v>
+      </c>
+      <c r="F469" t="n">
+        <v>32</v>
+      </c>
+      <c r="G469" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -15858,7 +16023,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -15906,7 +16071,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -15954,7 +16119,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16002,7 +16167,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16050,7 +16215,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16098,7 +16263,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16146,7 +16311,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16194,26 +16359,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>865</v>
+        <v>920</v>
       </c>
       <c r="H9" t="n">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="I9" t="n">
-        <v>36</v>
+        <v>36.8</v>
       </c>
       <c r="J9" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="K9" t="n">
         <v>668</v>
@@ -16242,7 +16407,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16290,14 +16455,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>22</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
         <v>598</v>
@@ -16312,16 +16477,16 @@
         <v>35.3</v>
       </c>
       <c r="K11" t="n">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="L11" t="n">
-        <v>755</v>
+        <v>797</v>
       </c>
       <c r="M11" t="n">
-        <v>25.9</v>
+        <v>25.3</v>
       </c>
       <c r="N11" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -16338,14 +16503,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12" t="n">
         <v>555</v>
@@ -16360,16 +16525,16 @@
         <v>27.5</v>
       </c>
       <c r="K12" t="n">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="L12" t="n">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="M12" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="N12" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="13">
@@ -16386,26 +16551,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" t="n">
         <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>884</v>
+        <v>926</v>
       </c>
       <c r="H13" t="n">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="I13" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="J13" t="n">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="K13" t="n">
         <v>488</v>
@@ -16434,7 +16599,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16482,14 +16647,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
         <v>830</v>
@@ -16504,16 +16669,16 @@
         <v>33.4</v>
       </c>
       <c r="K15" t="n">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="L15" t="n">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="M15" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="N15" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
     </row>
     <row r="16">
@@ -16530,26 +16695,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" t="n">
         <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="H16" t="n">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="I16" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="J16" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="K16" t="n">
         <v>730</v>
@@ -16578,7 +16743,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16626,14 +16791,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
         <v>511</v>
@@ -16648,16 +16813,16 @@
         <v>38.6</v>
       </c>
       <c r="K18" t="n">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="L18" t="n">
-        <v>727</v>
+        <v>782</v>
       </c>
       <c r="M18" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="N18" t="n">
-        <v>31.6</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="19">
@@ -16674,26 +16839,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" t="n">
         <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>900</v>
+        <v>927</v>
       </c>
       <c r="H19" t="n">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="I19" t="n">
-        <v>36</v>
+        <v>35.7</v>
       </c>
       <c r="J19" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="K19" t="n">
         <v>518</v>
@@ -16722,26 +16887,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>674</v>
+        <v>717</v>
       </c>
       <c r="H20" t="n">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="I20" t="n">
-        <v>32.1</v>
+        <v>32.6</v>
       </c>
       <c r="J20" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="K20" t="n">
         <v>931</v>
@@ -16770,7 +16935,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16818,14 +16983,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>19</v>
       </c>
       <c r="F22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
         <v>560</v>
@@ -16840,16 +17005,16 @@
         <v>32.7</v>
       </c>
       <c r="K22" t="n">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="L22" t="n">
-        <v>702</v>
+        <v>745</v>
       </c>
       <c r="M22" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="N22" t="n">
-        <v>36.9</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="23">
@@ -16866,7 +17031,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16980,7 +17145,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -17013,7 +17178,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -17046,7 +17211,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17079,7 +17244,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17112,7 +17277,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17145,7 +17310,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17178,7 +17343,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17211,23 +17376,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="n">
-        <v>1533</v>
+        <v>1588</v>
       </c>
       <c r="G9" t="n">
-        <v>1141</v>
+        <v>1161</v>
       </c>
       <c r="H9" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="I9" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -17244,7 +17409,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17277,23 +17442,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" t="n">
-        <v>1115</v>
+        <v>1129</v>
       </c>
       <c r="G11" t="n">
-        <v>1531</v>
+        <v>1573</v>
       </c>
       <c r="H11" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="I11" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="12">
@@ -17310,17 +17475,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="n">
-        <v>1362</v>
+        <v>1394</v>
       </c>
       <c r="G12" t="n">
-        <v>1134</v>
+        <v>1161</v>
       </c>
       <c r="H12" t="n">
         <v>31</v>
@@ -17343,23 +17508,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" t="n">
-        <v>1372</v>
+        <v>1414</v>
       </c>
       <c r="G13" t="n">
-        <v>1106</v>
+        <v>1120</v>
       </c>
       <c r="H13" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="I13" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -17376,7 +17541,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -17409,23 +17574,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" t="n">
-        <v>1355</v>
+        <v>1384</v>
       </c>
       <c r="G15" t="n">
-        <v>1394</v>
+        <v>1424</v>
       </c>
       <c r="H15" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="I15" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="16">
@@ -17442,20 +17607,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
-        <v>1165</v>
+        <v>1195</v>
       </c>
       <c r="G16" t="n">
-        <v>1198</v>
+        <v>1227</v>
       </c>
       <c r="H16" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="I16" t="n">
         <v>28.5</v>
@@ -17475,7 +17640,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17508,23 +17673,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" t="n">
-        <v>1148</v>
+        <v>1168</v>
       </c>
       <c r="G18" t="n">
-        <v>1460</v>
+        <v>1515</v>
       </c>
       <c r="H18" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="I18" t="n">
-        <v>34.8</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="19">
@@ -17541,20 +17706,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" t="n">
-        <v>1418</v>
+        <v>1445</v>
       </c>
       <c r="G19" t="n">
-        <v>1223</v>
+        <v>1255</v>
       </c>
       <c r="H19" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="I19" t="n">
         <v>30.6</v>
@@ -17574,23 +17739,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" t="n">
-        <v>1605</v>
+        <v>1648</v>
       </c>
       <c r="G20" t="n">
-        <v>1492</v>
+        <v>1516</v>
       </c>
       <c r="H20" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="I20" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="21">
@@ -17607,7 +17772,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17640,23 +17805,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F22" t="n">
-        <v>1052</v>
+        <v>1076</v>
       </c>
       <c r="G22" t="n">
-        <v>1324</v>
+        <v>1367</v>
       </c>
       <c r="H22" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="I22" t="n">
-        <v>34.8</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="23">
@@ -17673,7 +17838,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17746,7 +17911,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-11T12:30:00Z</t>
+          <t>2025-11-12T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -17755,7 +17920,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -17920,7 +17920,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -17920,7 +17920,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G469"/>
+  <dimension ref="A1:G471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15913,6 +15913,72 @@
         <v>32</v>
       </c>
       <c r="G469" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>897767</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>2025-11-13T16:30:00</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="E470" t="n">
+        <v>21</v>
+      </c>
+      <c r="F470" t="n">
+        <v>35</v>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>897768</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>2025-11-13T19:00:00</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="E471" t="n">
+        <v>33</v>
+      </c>
+      <c r="F471" t="n">
+        <v>27</v>
+      </c>
+      <c r="G471" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -16023,26 +16089,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
         <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="H2" t="n">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="I2" t="n">
-        <v>33.2</v>
+        <v>32.7</v>
       </c>
       <c r="J2" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="K2" t="n">
         <v>642</v>
@@ -16071,7 +16137,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -16119,7 +16185,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16167,26 +16233,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
         <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>779</v>
+        <v>812</v>
       </c>
       <c r="H5" t="n">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="I5" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="J5" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="K5" t="n">
         <v>711</v>
@@ -16215,7 +16281,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16263,7 +16329,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16311,14 +16377,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
         <v>598</v>
@@ -16333,16 +16399,16 @@
         <v>27.3</v>
       </c>
       <c r="K8" t="n">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="L8" t="n">
-        <v>673</v>
+        <v>706</v>
       </c>
       <c r="M8" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="N8" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="9">
@@ -16359,7 +16425,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16407,7 +16473,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16455,7 +16521,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16503,7 +16569,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16551,7 +16617,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16599,7 +16665,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16647,7 +16713,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16695,7 +16761,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16743,7 +16809,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16791,7 +16857,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16839,7 +16905,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -16887,7 +16953,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16935,14 +17001,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G21" t="n">
         <v>599</v>
@@ -16957,16 +17023,16 @@
         <v>30.1</v>
       </c>
       <c r="K21" t="n">
-        <v>888</v>
+        <v>923</v>
       </c>
       <c r="L21" t="n">
-        <v>847</v>
+        <v>868</v>
       </c>
       <c r="M21" t="n">
         <v>34.2</v>
       </c>
       <c r="N21" t="n">
-        <v>32.6</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="22">
@@ -16983,7 +17049,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17031,7 +17097,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17145,23 +17211,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" t="n">
-        <v>1372</v>
+        <v>1393</v>
       </c>
       <c r="G2" t="n">
-        <v>1166</v>
+        <v>1201</v>
       </c>
       <c r="H2" t="n">
-        <v>34.3</v>
+        <v>34</v>
       </c>
       <c r="I2" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="3">
@@ -17178,7 +17244,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -17211,7 +17277,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17244,20 +17310,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="n">
-        <v>1490</v>
+        <v>1523</v>
       </c>
       <c r="G5" t="n">
-        <v>1214</v>
+        <v>1241</v>
       </c>
       <c r="H5" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="I5" t="n">
         <v>27.6</v>
@@ -17277,7 +17343,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17310,7 +17376,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17343,23 +17409,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>1194</v>
+        <v>1221</v>
       </c>
       <c r="G8" t="n">
-        <v>1164</v>
+        <v>1197</v>
       </c>
       <c r="H8" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="I8" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="9">
@@ -17376,7 +17442,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17409,7 +17475,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17442,7 +17508,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17475,7 +17541,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17508,7 +17574,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17541,7 +17607,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -17574,7 +17640,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17607,7 +17673,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17640,7 +17706,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17673,7 +17739,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17706,7 +17772,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17739,7 +17805,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17772,23 +17838,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="n">
-        <v>1487</v>
+        <v>1522</v>
       </c>
       <c r="G21" t="n">
-        <v>1388</v>
+        <v>1409</v>
       </c>
       <c r="H21" t="n">
         <v>33.8</v>
       </c>
       <c r="I21" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="22">
@@ -17805,7 +17871,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17838,7 +17904,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17911,7 +17977,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-12T19:30:00Z</t>
+          <t>2025-11-13T19:00:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -17920,7 +17986,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G471"/>
+  <dimension ref="A1:G473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15979,6 +15979,72 @@
         <v>27</v>
       </c>
       <c r="G471" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>897770</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>2025-11-14T19:00:00</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
+        <v>27</v>
+      </c>
+      <c r="F472" t="n">
+        <v>28</v>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>897769</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>2025-11-14T19:30:00</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="E473" t="n">
+        <v>27</v>
+      </c>
+      <c r="F473" t="n">
+        <v>25</v>
+      </c>
+      <c r="G473" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -16089,7 +16155,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -16137,7 +16203,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -16185,7 +16251,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16233,7 +16299,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16281,7 +16347,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16329,7 +16395,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16377,7 +16443,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16425,7 +16491,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16473,7 +16539,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16521,7 +16587,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16569,7 +16635,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16617,7 +16683,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16665,26 +16731,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" t="n">
         <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>781</v>
+        <v>808</v>
       </c>
       <c r="H14" t="n">
-        <v>858</v>
+        <v>886</v>
       </c>
       <c r="I14" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="J14" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="K14" t="n">
         <v>517</v>
@@ -16713,7 +16779,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16761,7 +16827,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16809,14 +16875,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G17" t="n">
         <v>469</v>
@@ -16831,13 +16897,13 @@
         <v>22.7</v>
       </c>
       <c r="K17" t="n">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="L17" t="n">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="M17" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="N17" t="n">
         <v>26.6</v>
@@ -16857,7 +16923,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16905,26 +16971,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F19" t="n">
         <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>927</v>
+        <v>954</v>
       </c>
       <c r="H19" t="n">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="I19" t="n">
-        <v>35.7</v>
+        <v>35.3</v>
       </c>
       <c r="J19" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="K19" t="n">
         <v>518</v>
@@ -16953,7 +17019,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17001,7 +17067,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17049,7 +17115,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17097,14 +17163,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
         <v>470</v>
@@ -17119,13 +17185,13 @@
         <v>28.9</v>
       </c>
       <c r="K23" t="n">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="L23" t="n">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="M23" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
         <v>28.4</v>
@@ -17211,7 +17277,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -17244,7 +17310,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -17277,7 +17343,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17310,7 +17376,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17343,7 +17409,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17376,7 +17442,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17409,7 +17475,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17442,7 +17508,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17475,7 +17541,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17508,7 +17574,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17541,7 +17607,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17574,7 +17640,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17607,23 +17673,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="n">
-        <v>1298</v>
+        <v>1325</v>
       </c>
       <c r="G14" t="n">
-        <v>1580</v>
+        <v>1608</v>
       </c>
       <c r="H14" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="I14" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="15">
@@ -17640,7 +17706,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17673,7 +17739,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17706,20 +17772,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" t="n">
-        <v>1298</v>
+        <v>1323</v>
       </c>
       <c r="G17" t="n">
-        <v>1028</v>
+        <v>1055</v>
       </c>
       <c r="H17" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="I17" t="n">
         <v>25.1</v>
@@ -17739,7 +17805,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17772,23 +17838,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" t="n">
-        <v>1445</v>
+        <v>1472</v>
       </c>
       <c r="G19" t="n">
-        <v>1255</v>
+        <v>1280</v>
       </c>
       <c r="H19" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="I19" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="20">
@@ -17805,7 +17871,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17838,7 +17904,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17871,7 +17937,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17904,20 +17970,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F23" t="n">
-        <v>993</v>
+        <v>1021</v>
       </c>
       <c r="G23" t="n">
-        <v>1174</v>
+        <v>1201</v>
       </c>
       <c r="H23" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="I23" t="n">
         <v>28.6</v>
@@ -17977,7 +18043,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-13T19:00:00Z</t>
+          <t>2025-11-14T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -17986,7 +18052,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G473"/>
+  <dimension ref="A1:G476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16045,6 +16045,105 @@
         <v>25</v>
       </c>
       <c r="G473" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>897773</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>2025-11-15T13:30:00</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
+        <v>30</v>
+      </c>
+      <c r="F474" t="n">
+        <v>24</v>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>897771</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>2025-11-15T15:00:00</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="E475" t="n">
+        <v>18</v>
+      </c>
+      <c r="F475" t="n">
+        <v>38</v>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>897772</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>2025-11-15T17:00:00</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="E476" t="n">
+        <v>27</v>
+      </c>
+      <c r="F476" t="n">
+        <v>31</v>
+      </c>
+      <c r="G476" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -16155,7 +16254,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -16203,7 +16302,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -16251,7 +16350,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16299,7 +16398,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16347,7 +16446,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16395,14 +16494,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>30</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
         <v>957</v>
@@ -16417,16 +16516,16 @@
         <v>31.8</v>
       </c>
       <c r="K7" t="n">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="L7" t="n">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="M7" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="N7" t="n">
-        <v>34.3</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="8">
@@ -16443,14 +16542,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
         <v>598</v>
@@ -16465,16 +16564,16 @@
         <v>27.3</v>
       </c>
       <c r="K8" t="n">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="L8" t="n">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="M8" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="N8" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -16491,7 +16590,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16539,14 +16638,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
         <v>571</v>
@@ -16561,16 +16660,16 @@
         <v>34.9</v>
       </c>
       <c r="K10" t="n">
-        <v>573</v>
+        <v>611</v>
       </c>
       <c r="L10" t="n">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="M10" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="N10" t="n">
-        <v>36.8</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="11">
@@ -16587,7 +16686,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16635,26 +16734,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
         <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="H12" t="n">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="I12" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="J12" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="K12" t="n">
         <v>839</v>
@@ -16683,7 +16782,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16731,7 +16830,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16779,7 +16878,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16827,7 +16926,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16875,7 +16974,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16923,26 +17022,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
         <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="H18" t="n">
-        <v>733</v>
+        <v>757</v>
       </c>
       <c r="I18" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="J18" t="n">
-        <v>38.6</v>
+        <v>37.9</v>
       </c>
       <c r="K18" t="n">
         <v>657</v>
@@ -16971,7 +17070,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17019,7 +17118,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17067,7 +17166,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17115,26 +17214,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n">
         <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="H22" t="n">
-        <v>622</v>
+        <v>660</v>
       </c>
       <c r="I22" t="n">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="J22" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="K22" t="n">
         <v>516</v>
@@ -17163,7 +17262,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17277,7 +17376,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -17310,7 +17409,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -17343,7 +17442,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17376,7 +17475,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17409,7 +17508,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17442,23 +17541,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" t="n">
-        <v>1372</v>
+        <v>1403</v>
       </c>
       <c r="G7" t="n">
-        <v>1468</v>
+        <v>1495</v>
       </c>
       <c r="H7" t="n">
         <v>30.5</v>
       </c>
       <c r="I7" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="8">
@@ -17475,20 +17574,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="n">
-        <v>1221</v>
+        <v>1245</v>
       </c>
       <c r="G8" t="n">
-        <v>1197</v>
+        <v>1227</v>
       </c>
       <c r="H8" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="I8" t="n">
         <v>29.9</v>
@@ -17508,7 +17607,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17541,23 +17640,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" t="n">
-        <v>1144</v>
+        <v>1182</v>
       </c>
       <c r="G10" t="n">
-        <v>1470</v>
+        <v>1488</v>
       </c>
       <c r="H10" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="I10" t="n">
-        <v>35.9</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="11">
@@ -17574,7 +17673,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17607,23 +17706,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" t="n">
-        <v>1394</v>
+        <v>1421</v>
       </c>
       <c r="G12" t="n">
-        <v>1161</v>
+        <v>1192</v>
       </c>
       <c r="H12" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="I12" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="13">
@@ -17640,7 +17739,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17673,7 +17772,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -17706,7 +17805,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17739,7 +17838,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17772,7 +17871,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17805,23 +17904,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="n">
-        <v>1168</v>
+        <v>1198</v>
       </c>
       <c r="G18" t="n">
-        <v>1515</v>
+        <v>1539</v>
       </c>
       <c r="H18" t="n">
         <v>27.2</v>
       </c>
       <c r="I18" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -17838,7 +17937,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17871,7 +17970,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17904,7 +18003,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17937,20 +18036,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" t="n">
-        <v>1076</v>
+        <v>1094</v>
       </c>
       <c r="G22" t="n">
-        <v>1367</v>
+        <v>1405</v>
       </c>
       <c r="H22" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="I22" t="n">
         <v>35.1</v>
@@ -17970,7 +18069,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18043,7 +18142,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-14T19:30:00Z</t>
+          <t>2025-11-15T17:00:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -18052,7 +18151,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G476"/>
+  <dimension ref="A1:G483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16144,6 +16144,237 @@
         <v>31</v>
       </c>
       <c r="G476" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>897775</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>2025-11-16T10:00:00</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="E477" t="n">
+        <v>23</v>
+      </c>
+      <c r="F477" t="n">
+        <v>26</v>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>897774</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>2025-11-16T14:00:00</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="E478" t="n">
+        <v>40</v>
+      </c>
+      <c r="F478" t="n">
+        <v>29</v>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>897776</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>2025-11-16T16:00:00</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="E479" t="n">
+        <v>31</v>
+      </c>
+      <c r="F479" t="n">
+        <v>41</v>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>897777</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>2025-11-16T17:00:00</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="E480" t="n">
+        <v>22</v>
+      </c>
+      <c r="F480" t="n">
+        <v>27</v>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>897778</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>2025-11-16T17:00:00</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="E481" t="n">
+        <v>34</v>
+      </c>
+      <c r="F481" t="n">
+        <v>27</v>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>897779</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>2025-11-16T17:00:00</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="E482" t="n">
+        <v>43</v>
+      </c>
+      <c r="F482" t="n">
+        <v>43</v>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>897780</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>2025-11-16T17:30:00</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="E483" t="n">
+        <v>22</v>
+      </c>
+      <c r="F483" t="n">
+        <v>35</v>
+      </c>
+      <c r="G483" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -16254,14 +16485,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
         <v>751</v>
@@ -16276,16 +16507,16 @@
         <v>28.3</v>
       </c>
       <c r="K2" t="n">
-        <v>642</v>
+        <v>685</v>
       </c>
       <c r="L2" t="n">
-        <v>550</v>
+        <v>593</v>
       </c>
       <c r="M2" t="n">
-        <v>35.7</v>
+        <v>36.1</v>
       </c>
       <c r="N2" t="n">
-        <v>30.6</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="3">
@@ -16302,14 +16533,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="n">
         <v>521</v>
@@ -16324,16 +16555,16 @@
         <v>31</v>
       </c>
       <c r="K3" t="n">
-        <v>752</v>
+        <v>781</v>
       </c>
       <c r="L3" t="n">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="M3" t="n">
         <v>27.9</v>
       </c>
       <c r="N3" t="n">
-        <v>30.8</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="4">
@@ -16350,14 +16581,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
         <v>686</v>
@@ -16372,16 +16603,16 @@
         <v>26.8</v>
       </c>
       <c r="K4" t="n">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="L4" t="n">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="M4" t="n">
-        <v>31.9</v>
+        <v>31.6</v>
       </c>
       <c r="N4" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="5">
@@ -16398,20 +16629,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
         <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>812</v>
+        <v>846</v>
       </c>
       <c r="H5" t="n">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="I5" t="n">
         <v>33.8</v>
@@ -16446,26 +16677,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
         <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="H6" t="n">
-        <v>746</v>
+        <v>772</v>
       </c>
       <c r="I6" t="n">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="J6" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="K6" t="n">
         <v>592</v>
@@ -16494,7 +16725,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16542,7 +16773,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16590,14 +16821,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="n">
         <v>920</v>
@@ -16612,16 +16843,16 @@
         <v>27.1</v>
       </c>
       <c r="K9" t="n">
-        <v>668</v>
+        <v>695</v>
       </c>
       <c r="L9" t="n">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="M9" t="n">
-        <v>37.1</v>
+        <v>36.6</v>
       </c>
       <c r="N9" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="10">
@@ -16638,7 +16869,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16686,26 +16917,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" t="n">
         <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="H11" t="n">
-        <v>776</v>
+        <v>817</v>
       </c>
       <c r="I11" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="J11" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="K11" t="n">
         <v>531</v>
@@ -16734,7 +16965,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16782,14 +17013,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" t="n">
         <v>926</v>
@@ -16804,16 +17035,16 @@
         <v>25.4</v>
       </c>
       <c r="K13" t="n">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="L13" t="n">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="M13" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="N13" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="14">
@@ -16830,14 +17061,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>26</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
         <v>808</v>
@@ -16852,16 +17083,16 @@
         <v>34.1</v>
       </c>
       <c r="K14" t="n">
-        <v>517</v>
+        <v>558</v>
       </c>
       <c r="L14" t="n">
-        <v>722</v>
+        <v>753</v>
       </c>
       <c r="M14" t="n">
-        <v>27.2</v>
+        <v>27.9</v>
       </c>
       <c r="N14" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="15">
@@ -16878,23 +17109,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" t="n">
         <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>830</v>
+        <v>852</v>
       </c>
       <c r="H15" t="n">
-        <v>834</v>
+        <v>869</v>
       </c>
       <c r="I15" t="n">
-        <v>33.2</v>
+        <v>32.8</v>
       </c>
       <c r="J15" t="n">
         <v>33.4</v>
@@ -16926,7 +17157,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16974,26 +17205,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
         <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="H17" t="n">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="I17" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="J17" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="K17" t="n">
         <v>854</v>
@@ -17022,7 +17253,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17070,7 +17301,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17118,26 +17349,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>717</v>
+        <v>760</v>
       </c>
       <c r="H20" t="n">
-        <v>650</v>
+        <v>693</v>
       </c>
       <c r="I20" t="n">
-        <v>32.6</v>
+        <v>33</v>
       </c>
       <c r="J20" t="n">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="K20" t="n">
         <v>931</v>
@@ -17166,26 +17397,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" t="n">
         <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="H21" t="n">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="I21" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="J21" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="K21" t="n">
         <v>923</v>
@@ -17214,7 +17445,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17262,14 +17493,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" t="n">
         <v>470</v>
@@ -17284,16 +17515,16 @@
         <v>28.9</v>
       </c>
       <c r="K23" t="n">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="L23" t="n">
-        <v>624</v>
+        <v>646</v>
       </c>
       <c r="M23" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N23" t="n">
-        <v>28.4</v>
+        <v>28.1</v>
       </c>
     </row>
   </sheetData>
@@ -17376,23 +17607,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>1393</v>
+        <v>1436</v>
       </c>
       <c r="G2" t="n">
-        <v>1201</v>
+        <v>1244</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="I2" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="3">
@@ -17409,23 +17640,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="n">
-        <v>1273</v>
+        <v>1302</v>
       </c>
       <c r="G3" t="n">
-        <v>1389</v>
+        <v>1429</v>
       </c>
       <c r="H3" t="n">
         <v>28.3</v>
       </c>
       <c r="I3" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="4">
@@ -17442,23 +17673,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" t="n">
-        <v>1324</v>
+        <v>1350</v>
       </c>
       <c r="G4" t="n">
-        <v>1044</v>
+        <v>1067</v>
       </c>
       <c r="H4" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="I4" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="5">
@@ -17475,17 +17706,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" t="n">
-        <v>1523</v>
+        <v>1557</v>
       </c>
       <c r="G5" t="n">
-        <v>1241</v>
+        <v>1268</v>
       </c>
       <c r="H5" t="n">
         <v>33.8</v>
@@ -17508,23 +17739,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>1233</v>
+        <v>1256</v>
       </c>
       <c r="G6" t="n">
-        <v>1515</v>
+        <v>1541</v>
       </c>
       <c r="H6" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.1</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="7">
@@ -17541,7 +17772,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17574,7 +17805,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17607,23 +17838,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="n">
-        <v>1588</v>
+        <v>1615</v>
       </c>
       <c r="G9" t="n">
-        <v>1161</v>
+        <v>1195</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="I9" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="10">
@@ -17640,7 +17871,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17673,23 +17904,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="n">
-        <v>1129</v>
+        <v>1160</v>
       </c>
       <c r="G11" t="n">
-        <v>1573</v>
+        <v>1614</v>
       </c>
       <c r="H11" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="I11" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="12">
@@ -17706,7 +17937,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17739,17 +17970,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="n">
-        <v>1414</v>
+        <v>1449</v>
       </c>
       <c r="G13" t="n">
-        <v>1120</v>
+        <v>1142</v>
       </c>
       <c r="H13" t="n">
         <v>32.9</v>
@@ -17772,23 +18003,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" t="n">
-        <v>1325</v>
+        <v>1366</v>
       </c>
       <c r="G14" t="n">
-        <v>1608</v>
+        <v>1639</v>
       </c>
       <c r="H14" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="I14" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="15">
@@ -17805,23 +18036,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="n">
-        <v>1384</v>
+        <v>1406</v>
       </c>
       <c r="G15" t="n">
-        <v>1424</v>
+        <v>1459</v>
       </c>
       <c r="H15" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="I15" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="16">
@@ -17838,7 +18069,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17871,23 +18102,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" t="n">
-        <v>1323</v>
+        <v>1345</v>
       </c>
       <c r="G17" t="n">
-        <v>1055</v>
+        <v>1082</v>
       </c>
       <c r="H17" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="I17" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="18">
@@ -17904,7 +18135,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17937,7 +18168,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17970,23 +18201,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" t="n">
-        <v>1648</v>
+        <v>1691</v>
       </c>
       <c r="G20" t="n">
-        <v>1516</v>
+        <v>1559</v>
       </c>
       <c r="H20" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="I20" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="21">
@@ -18003,20 +18234,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" t="n">
-        <v>1522</v>
+        <v>1562</v>
       </c>
       <c r="G21" t="n">
-        <v>1409</v>
+        <v>1438</v>
       </c>
       <c r="H21" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="I21" t="n">
         <v>31.3</v>
@@ -18036,7 +18267,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18069,23 +18300,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F23" t="n">
-        <v>1021</v>
+        <v>1048</v>
       </c>
       <c r="G23" t="n">
-        <v>1201</v>
+        <v>1223</v>
       </c>
       <c r="H23" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="I23" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
     </row>
   </sheetData>
@@ -18142,7 +18373,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-15T17:00:00Z</t>
+          <t>2025-11-16T17:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -18151,7 +18382,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -18382,7 +18382,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G483"/>
+  <dimension ref="A1:G486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16375,6 +16375,105 @@
         <v>35</v>
       </c>
       <c r="G483" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>897781</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>2025-11-17T15:30:00</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="E484" t="n">
+        <v>30</v>
+      </c>
+      <c r="F484" t="n">
+        <v>24</v>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>897783</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>2025-11-17T19:00:00</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="E485" t="n">
+        <v>36</v>
+      </c>
+      <c r="F485" t="n">
+        <v>21</v>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>897782</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>2025-11-17T19:30:00</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="E486" t="n">
+        <v>34</v>
+      </c>
+      <c r="F486" t="n">
+        <v>28</v>
+      </c>
+      <c r="G486" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -16485,7 +16584,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -16533,7 +16632,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -16581,7 +16680,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16629,7 +16728,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16677,7 +16776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16725,14 +16824,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>30</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
         <v>957</v>
@@ -16747,10 +16846,10 @@
         <v>31.8</v>
       </c>
       <c r="K7" t="n">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="L7" t="n">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="M7" t="n">
         <v>27.9</v>
@@ -16773,7 +16872,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16821,7 +16920,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16869,14 +16968,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
         <v>571</v>
@@ -16891,16 +16990,16 @@
         <v>34.9</v>
       </c>
       <c r="K10" t="n">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="L10" t="n">
-        <v>790</v>
+        <v>820</v>
       </c>
       <c r="M10" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="N10" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="11">
@@ -16917,7 +17016,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16965,26 +17064,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
         <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="H12" t="n">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="I12" t="n">
-        <v>30.6</v>
+        <v>30.9</v>
       </c>
       <c r="J12" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="K12" t="n">
         <v>839</v>
@@ -17013,7 +17112,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17061,7 +17160,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -17109,7 +17208,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17157,14 +17256,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G16" t="n">
         <v>465</v>
@@ -17179,16 +17278,16 @@
         <v>27.6</v>
       </c>
       <c r="K16" t="n">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="L16" t="n">
-        <v>758</v>
+        <v>794</v>
       </c>
       <c r="M16" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="N16" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="17">
@@ -17205,7 +17304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17253,26 +17352,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
         <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>541</v>
+        <v>571</v>
       </c>
       <c r="H18" t="n">
-        <v>757</v>
+        <v>781</v>
       </c>
       <c r="I18" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="J18" t="n">
-        <v>37.9</v>
+        <v>37.2</v>
       </c>
       <c r="K18" t="n">
         <v>657</v>
@@ -17301,7 +17400,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17349,7 +17448,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17397,7 +17496,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17445,26 +17544,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" t="n">
         <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="H22" t="n">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="I22" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="J22" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="K22" t="n">
         <v>516</v>
@@ -17493,7 +17592,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17607,7 +17706,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -17640,7 +17739,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -17673,7 +17772,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17706,7 +17805,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17739,7 +17838,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17772,20 +17871,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" t="n">
-        <v>1403</v>
+        <v>1431</v>
       </c>
       <c r="G7" t="n">
-        <v>1495</v>
+        <v>1529</v>
       </c>
       <c r="H7" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="I7" t="n">
         <v>32.5</v>
@@ -17805,7 +17904,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17838,7 +17937,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17871,23 +17970,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="n">
-        <v>1182</v>
+        <v>1206</v>
       </c>
       <c r="G10" t="n">
-        <v>1488</v>
+        <v>1518</v>
       </c>
       <c r="H10" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="I10" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="11">
@@ -17904,7 +18003,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17937,23 +18036,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" t="n">
-        <v>1421</v>
+        <v>1457</v>
       </c>
       <c r="G12" t="n">
-        <v>1192</v>
+        <v>1213</v>
       </c>
       <c r="H12" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="I12" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="13">
@@ -17970,7 +18069,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -18003,7 +18102,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -18036,7 +18135,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -18069,23 +18168,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="n">
-        <v>1195</v>
+        <v>1216</v>
       </c>
       <c r="G16" t="n">
-        <v>1227</v>
+        <v>1263</v>
       </c>
       <c r="H16" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="I16" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="17">
@@ -18102,7 +18201,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -18135,23 +18234,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="n">
-        <v>1198</v>
+        <v>1228</v>
       </c>
       <c r="G18" t="n">
-        <v>1539</v>
+        <v>1563</v>
       </c>
       <c r="H18" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="I18" t="n">
-        <v>35</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="19">
@@ -18168,7 +18267,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -18201,7 +18300,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -18234,7 +18333,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18267,23 +18366,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="n">
-        <v>1094</v>
+        <v>1128</v>
       </c>
       <c r="G22" t="n">
-        <v>1405</v>
+        <v>1433</v>
       </c>
       <c r="H22" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="I22" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
@@ -18300,7 +18399,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18373,7 +18472,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-16T17:30:00Z</t>
+          <t>2025-11-17T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -18382,7 +18481,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -18481,7 +18481,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -18481,7 +18481,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -18481,7 +18481,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G486"/>
+  <dimension ref="A1:G493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16474,6 +16474,237 @@
         <v>28</v>
       </c>
       <c r="G486" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>897784</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>2025-11-18T17:00:00</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="E487" t="n">
+        <v>49</v>
+      </c>
+      <c r="F487" t="n">
+        <v>33</v>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>897790</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>2025-11-18T17:00:00</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="E488" t="n">
+        <v>33</v>
+      </c>
+      <c r="F488" t="n">
+        <v>33</v>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>897789</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>2025-11-18T18:00:00</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="E489" t="n">
+        <v>23</v>
+      </c>
+      <c r="F489" t="n">
+        <v>38</v>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>897785</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>2025-11-18T19:30:00</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="E490" t="n">
+        <v>22</v>
+      </c>
+      <c r="F490" t="n">
+        <v>20</v>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>897786</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>2025-11-18T19:00:00</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="E491" t="n">
+        <v>25</v>
+      </c>
+      <c r="F491" t="n">
+        <v>15</v>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>897788</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>2025-11-18T19:30:00</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="E492" t="n">
+        <v>26</v>
+      </c>
+      <c r="F492" t="n">
+        <v>34</v>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>897787</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>2025-11-18T19:30:00</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="E493" t="n">
+        <v>28</v>
+      </c>
+      <c r="F493" t="n">
+        <v>31</v>
+      </c>
+      <c r="G493" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -16584,14 +16815,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
         <v>751</v>
@@ -16606,16 +16837,16 @@
         <v>28.3</v>
       </c>
       <c r="K2" t="n">
-        <v>685</v>
+        <v>723</v>
       </c>
       <c r="L2" t="n">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="M2" t="n">
         <v>36.1</v>
       </c>
       <c r="N2" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="3">
@@ -16632,26 +16863,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
         <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="H3" t="n">
-        <v>558</v>
+        <v>591</v>
       </c>
       <c r="I3" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="J3" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="K3" t="n">
         <v>781</v>
@@ -16680,14 +16911,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
         <v>686</v>
@@ -16702,16 +16933,16 @@
         <v>26.8</v>
       </c>
       <c r="K4" t="n">
-        <v>664</v>
+        <v>698</v>
       </c>
       <c r="L4" t="n">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="M4" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="N4" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="5">
@@ -16728,26 +16959,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n">
         <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>846</v>
+        <v>871</v>
       </c>
       <c r="H5" t="n">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="I5" t="n">
-        <v>33.8</v>
+        <v>33.5</v>
       </c>
       <c r="J5" t="n">
-        <v>25.6</v>
+        <v>25.2</v>
       </c>
       <c r="K5" t="n">
         <v>711</v>
@@ -16776,7 +17007,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16824,7 +17055,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16872,26 +17103,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
         <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="H8" t="n">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="I8" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="J8" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="K8" t="n">
         <v>647</v>
@@ -16920,14 +17151,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
         <v>920</v>
@@ -16942,16 +17173,16 @@
         <v>27.1</v>
       </c>
       <c r="K9" t="n">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="L9" t="n">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="M9" t="n">
-        <v>36.6</v>
+        <v>35.8</v>
       </c>
       <c r="N9" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -16968,7 +17199,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17016,26 +17247,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
         <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="H11" t="n">
-        <v>817</v>
+        <v>855</v>
       </c>
       <c r="I11" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="J11" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="K11" t="n">
         <v>531</v>
@@ -17064,7 +17295,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17112,14 +17343,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="n">
         <v>926</v>
@@ -17134,16 +17365,16 @@
         <v>25.4</v>
       </c>
       <c r="K13" t="n">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="L13" t="n">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="M13" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="N13" t="n">
-        <v>26.8</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="14">
@@ -17160,14 +17391,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>26</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" t="n">
         <v>808</v>
@@ -17182,16 +17413,16 @@
         <v>34.1</v>
       </c>
       <c r="K14" t="n">
-        <v>558</v>
+        <v>591</v>
       </c>
       <c r="L14" t="n">
-        <v>753</v>
+        <v>786</v>
       </c>
       <c r="M14" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="N14" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="15">
@@ -17208,7 +17439,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17256,7 +17487,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17304,26 +17535,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
         <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="H17" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="I17" t="n">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="J17" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="K17" t="n">
         <v>854</v>
@@ -17352,7 +17583,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17400,14 +17631,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" t="n">
         <v>954</v>
@@ -17422,16 +17653,16 @@
         <v>27.6</v>
       </c>
       <c r="K19" t="n">
-        <v>518</v>
+        <v>549</v>
       </c>
       <c r="L19" t="n">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="M19" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="N19" t="n">
-        <v>35.6</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="20">
@@ -17448,26 +17679,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>760</v>
+        <v>786</v>
       </c>
       <c r="H20" t="n">
-        <v>693</v>
+        <v>727</v>
       </c>
       <c r="I20" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="J20" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="K20" t="n">
         <v>931</v>
@@ -17496,26 +17727,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
         <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>639</v>
+        <v>688</v>
       </c>
       <c r="H21" t="n">
-        <v>570</v>
+        <v>603</v>
       </c>
       <c r="I21" t="n">
-        <v>33.6</v>
+        <v>34.4</v>
       </c>
       <c r="J21" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="K21" t="n">
         <v>923</v>
@@ -17544,7 +17775,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17592,14 +17823,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
         <v>470</v>
@@ -17614,16 +17845,16 @@
         <v>28.9</v>
       </c>
       <c r="K23" t="n">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="L23" t="n">
-        <v>646</v>
+        <v>671</v>
       </c>
       <c r="M23" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="N23" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -17706,23 +17937,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="n">
-        <v>1436</v>
+        <v>1474</v>
       </c>
       <c r="G2" t="n">
-        <v>1244</v>
+        <v>1267</v>
       </c>
       <c r="H2" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="I2" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="3">
@@ -17739,20 +17970,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
-        <v>1302</v>
+        <v>1335</v>
       </c>
       <c r="G3" t="n">
-        <v>1429</v>
+        <v>1462</v>
       </c>
       <c r="H3" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="I3" t="n">
         <v>31.1</v>
@@ -17772,23 +18003,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>1350</v>
+        <v>1384</v>
       </c>
       <c r="G4" t="n">
-        <v>1067</v>
+        <v>1093</v>
       </c>
       <c r="H4" t="n">
         <v>34.6</v>
       </c>
       <c r="I4" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="5">
@@ -17805,23 +18036,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" t="n">
-        <v>1557</v>
+        <v>1582</v>
       </c>
       <c r="G5" t="n">
-        <v>1268</v>
+        <v>1283</v>
       </c>
       <c r="H5" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="I5" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="6">
@@ -17838,7 +18069,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17871,7 +18102,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17904,23 +18135,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="n">
-        <v>1245</v>
+        <v>1273</v>
       </c>
       <c r="G8" t="n">
-        <v>1227</v>
+        <v>1258</v>
       </c>
       <c r="H8" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="I8" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -17937,23 +18168,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="n">
-        <v>1615</v>
+        <v>1635</v>
       </c>
       <c r="G9" t="n">
-        <v>1195</v>
+        <v>1217</v>
       </c>
       <c r="H9" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="I9" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -17970,7 +18201,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -18003,20 +18234,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="n">
-        <v>1160</v>
+        <v>1183</v>
       </c>
       <c r="G11" t="n">
-        <v>1614</v>
+        <v>1652</v>
       </c>
       <c r="H11" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="I11" t="n">
         <v>36.7</v>
@@ -18036,7 +18267,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -18069,23 +18300,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="n">
-        <v>1449</v>
+        <v>1482</v>
       </c>
       <c r="G13" t="n">
-        <v>1142</v>
+        <v>1191</v>
       </c>
       <c r="H13" t="n">
         <v>32.9</v>
       </c>
       <c r="I13" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="14">
@@ -18102,20 +18333,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="n">
-        <v>1366</v>
+        <v>1399</v>
       </c>
       <c r="G14" t="n">
-        <v>1639</v>
+        <v>1672</v>
       </c>
       <c r="H14" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="I14" t="n">
         <v>35.6</v>
@@ -18135,7 +18366,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -18168,7 +18399,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -18201,23 +18432,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="n">
-        <v>1345</v>
+        <v>1367</v>
       </c>
       <c r="G17" t="n">
-        <v>1082</v>
+        <v>1102</v>
       </c>
       <c r="H17" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="I17" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -18234,7 +18465,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -18267,23 +18498,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" t="n">
-        <v>1472</v>
+        <v>1503</v>
       </c>
       <c r="G19" t="n">
-        <v>1280</v>
+        <v>1308</v>
       </c>
       <c r="H19" t="n">
         <v>35</v>
       </c>
       <c r="I19" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="20">
@@ -18300,20 +18531,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" t="n">
-        <v>1691</v>
+        <v>1717</v>
       </c>
       <c r="G20" t="n">
-        <v>1559</v>
+        <v>1593</v>
       </c>
       <c r="H20" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="I20" t="n">
         <v>31.2</v>
@@ -18333,20 +18564,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" t="n">
-        <v>1562</v>
+        <v>1611</v>
       </c>
       <c r="G21" t="n">
-        <v>1438</v>
+        <v>1471</v>
       </c>
       <c r="H21" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="I21" t="n">
         <v>31.3</v>
@@ -18366,7 +18597,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18399,20 +18630,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="n">
-        <v>1048</v>
+        <v>1063</v>
       </c>
       <c r="G23" t="n">
-        <v>1223</v>
+        <v>1248</v>
       </c>
       <c r="H23" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="I23" t="n">
         <v>28.4</v>
@@ -18472,7 +18703,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-17T19:30:00Z</t>
+          <t>2025-11-18T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -18481,7 +18712,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -18712,7 +18712,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -18712,7 +18712,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G493"/>
+  <dimension ref="A1:G495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16705,6 +16705,72 @@
         <v>31</v>
       </c>
       <c r="G493" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>897791</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>2025-11-19T19:00:00</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="E494" t="n">
+        <v>49</v>
+      </c>
+      <c r="F494" t="n">
+        <v>14</v>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>897792</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>2025-11-19T19:30:00</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="E495" t="n">
+        <v>31</v>
+      </c>
+      <c r="F495" t="n">
+        <v>30</v>
+      </c>
+      <c r="G495" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -16815,7 +16881,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -16863,7 +16929,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -16911,7 +16977,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16959,7 +17025,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17007,7 +17073,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17055,7 +17121,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17103,7 +17169,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17151,7 +17217,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17199,14 +17265,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
         <v>571</v>
@@ -17221,16 +17287,16 @@
         <v>34.9</v>
       </c>
       <c r="K10" t="n">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="L10" t="n">
-        <v>820</v>
+        <v>869</v>
       </c>
       <c r="M10" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="N10" t="n">
-        <v>35.7</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="11">
@@ -17247,7 +17313,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17295,26 +17361,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
         <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>618</v>
+        <v>667</v>
       </c>
       <c r="H12" t="n">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="I12" t="n">
-        <v>30.9</v>
+        <v>31.8</v>
       </c>
       <c r="J12" t="n">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="K12" t="n">
         <v>839</v>
@@ -17343,7 +17409,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17391,7 +17457,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -17439,7 +17505,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17487,14 +17553,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" t="n">
         <v>465</v>
@@ -17509,16 +17575,16 @@
         <v>27.6</v>
       </c>
       <c r="K16" t="n">
-        <v>751</v>
+        <v>781</v>
       </c>
       <c r="L16" t="n">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="M16" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="N16" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="17">
@@ -17535,7 +17601,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17583,7 +17649,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17631,7 +17697,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17679,7 +17745,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17727,7 +17793,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17775,26 +17841,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" t="n">
         <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="H22" t="n">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="I22" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="J22" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="K22" t="n">
         <v>516</v>
@@ -17823,7 +17889,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17937,7 +18003,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -17970,7 +18036,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -18003,7 +18069,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -18036,7 +18102,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -18069,7 +18135,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -18102,7 +18168,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -18135,7 +18201,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -18168,7 +18234,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -18201,23 +18267,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="n">
-        <v>1206</v>
+        <v>1220</v>
       </c>
       <c r="G10" t="n">
-        <v>1518</v>
+        <v>1567</v>
       </c>
       <c r="H10" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="I10" t="n">
-        <v>35.3</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="11">
@@ -18234,7 +18300,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -18267,23 +18333,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" t="n">
-        <v>1457</v>
+        <v>1506</v>
       </c>
       <c r="G12" t="n">
-        <v>1213</v>
+        <v>1227</v>
       </c>
       <c r="H12" t="n">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="I12" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="13">
@@ -18300,7 +18366,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -18333,7 +18399,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -18366,7 +18432,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -18399,23 +18465,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="n">
-        <v>1216</v>
+        <v>1246</v>
       </c>
       <c r="G16" t="n">
-        <v>1263</v>
+        <v>1294</v>
       </c>
       <c r="H16" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="I16" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="17">
@@ -18432,7 +18498,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -18465,7 +18531,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -18498,7 +18564,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -18531,7 +18597,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -18564,7 +18630,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18597,23 +18663,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" t="n">
-        <v>1128</v>
+        <v>1159</v>
       </c>
       <c r="G22" t="n">
-        <v>1433</v>
+        <v>1463</v>
       </c>
       <c r="H22" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="I22" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="23">
@@ -18630,7 +18696,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18703,7 +18769,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-18T19:30:00Z</t>
+          <t>2025-11-19T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -18712,7 +18778,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -18778,7 +18778,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -18778,7 +18778,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G495"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16771,6 +16771,204 @@
         <v>30</v>
       </c>
       <c r="G495" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>897793</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>2025-11-20T17:00:00</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="E496" t="n">
+        <v>48</v>
+      </c>
+      <c r="F496" t="n">
+        <v>24</v>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>897794</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>2025-11-20T17:00:00</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="E497" t="n">
+        <v>36</v>
+      </c>
+      <c r="F497" t="n">
+        <v>27</v>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>897796</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>2025-11-20T19:00:00</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="E498" t="n">
+        <v>30</v>
+      </c>
+      <c r="F498" t="n">
+        <v>30</v>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>897797</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>2025-11-20T19:30:00</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="E499" t="n">
+        <v>30</v>
+      </c>
+      <c r="F499" t="n">
+        <v>33</v>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>897798</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>2025-11-20T19:30:00</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="E500" t="n">
+        <v>19</v>
+      </c>
+      <c r="F500" t="n">
+        <v>47</v>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>897795</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>2025-11-20T19:30:00</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="E501" t="n">
+        <v>39</v>
+      </c>
+      <c r="F501" t="n">
+        <v>18</v>
+      </c>
+      <c r="G501" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -16881,7 +17079,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -16929,26 +17127,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="H3" t="n">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="I3" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="J3" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="K3" t="n">
         <v>781</v>
@@ -16977,14 +17175,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
         <v>686</v>
@@ -16999,16 +17197,16 @@
         <v>26.8</v>
       </c>
       <c r="K4" t="n">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="L4" t="n">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="M4" t="n">
         <v>31.7</v>
       </c>
       <c r="N4" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="5">
@@ -17025,7 +17223,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17073,14 +17271,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
         <v>664</v>
@@ -17095,16 +17293,16 @@
         <v>35.1</v>
       </c>
       <c r="K6" t="n">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="L6" t="n">
-        <v>769</v>
+        <v>817</v>
       </c>
       <c r="M6" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="N6" t="n">
-        <v>36.6</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="7">
@@ -17121,7 +17319,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17169,26 +17367,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
         <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>626</v>
+        <v>665</v>
       </c>
       <c r="H8" t="n">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="I8" t="n">
-        <v>32.9</v>
+        <v>33.2</v>
       </c>
       <c r="J8" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="K8" t="n">
         <v>647</v>
@@ -17217,26 +17415,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
         <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="H9" t="n">
-        <v>677</v>
+        <v>724</v>
       </c>
       <c r="I9" t="n">
-        <v>36.8</v>
+        <v>36.1</v>
       </c>
       <c r="J9" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="K9" t="n">
         <v>715</v>
@@ -17265,7 +17463,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17313,7 +17511,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17361,7 +17559,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17409,14 +17607,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
         <v>926</v>
@@ -17431,16 +17629,16 @@
         <v>25.4</v>
       </c>
       <c r="K13" t="n">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="L13" t="n">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="M13" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="N13" t="n">
-        <v>27.9</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="14">
@@ -17457,7 +17655,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -17505,7 +17703,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17553,7 +17751,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17601,26 +17799,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
         <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="H17" t="n">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="I17" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="J17" t="n">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
       <c r="K17" t="n">
         <v>854</v>
@@ -17649,14 +17847,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" t="n">
         <v>571</v>
@@ -17671,16 +17869,16 @@
         <v>37.2</v>
       </c>
       <c r="K18" t="n">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="L18" t="n">
-        <v>782</v>
+        <v>821</v>
       </c>
       <c r="M18" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="N18" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
     </row>
     <row r="19">
@@ -17697,14 +17895,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n">
         <v>954</v>
@@ -17719,16 +17917,16 @@
         <v>27.6</v>
       </c>
       <c r="K19" t="n">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="L19" t="n">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="M19" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="N19" t="n">
-        <v>35.1</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="20">
@@ -17745,26 +17943,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>786</v>
+        <v>816</v>
       </c>
       <c r="H20" t="n">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="I20" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="J20" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="K20" t="n">
         <v>931</v>
@@ -17793,26 +17991,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" t="n">
         <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>688</v>
+        <v>736</v>
       </c>
       <c r="H21" t="n">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="I21" t="n">
-        <v>34.4</v>
+        <v>35</v>
       </c>
       <c r="J21" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="K21" t="n">
         <v>923</v>
@@ -17841,7 +18039,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17889,14 +18087,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G23" t="n">
         <v>470</v>
@@ -17911,16 +18109,16 @@
         <v>28.9</v>
       </c>
       <c r="K23" t="n">
-        <v>593</v>
+        <v>640</v>
       </c>
       <c r="L23" t="n">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="M23" t="n">
-        <v>24.7</v>
+        <v>25.6</v>
       </c>
       <c r="N23" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
     </row>
   </sheetData>
@@ -18003,7 +18201,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -18036,23 +18234,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="n">
-        <v>1335</v>
+        <v>1371</v>
       </c>
       <c r="G3" t="n">
-        <v>1462</v>
+        <v>1489</v>
       </c>
       <c r="H3" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="I3" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -18069,23 +18267,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" t="n">
-        <v>1384</v>
+        <v>1414</v>
       </c>
       <c r="G4" t="n">
-        <v>1093</v>
+        <v>1123</v>
       </c>
       <c r="H4" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="I4" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="5">
@@ -18102,7 +18300,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -18135,23 +18333,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
-        <v>1256</v>
+        <v>1280</v>
       </c>
       <c r="G6" t="n">
-        <v>1541</v>
+        <v>1589</v>
       </c>
       <c r="H6" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="I6" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="7">
@@ -18168,7 +18366,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -18201,23 +18399,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="n">
-        <v>1273</v>
+        <v>1312</v>
       </c>
       <c r="G8" t="n">
-        <v>1258</v>
+        <v>1276</v>
       </c>
       <c r="H8" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="I8" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="9">
@@ -18234,23 +18432,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" t="n">
-        <v>1635</v>
+        <v>1654</v>
       </c>
       <c r="G9" t="n">
-        <v>1217</v>
+        <v>1264</v>
       </c>
       <c r="H9" t="n">
-        <v>36.3</v>
+        <v>36</v>
       </c>
       <c r="I9" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="10">
@@ -18267,7 +18465,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -18300,7 +18498,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -18333,7 +18531,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -18366,23 +18564,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" t="n">
-        <v>1482</v>
+        <v>1509</v>
       </c>
       <c r="G13" t="n">
-        <v>1191</v>
+        <v>1227</v>
       </c>
       <c r="H13" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="I13" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="14">
@@ -18399,7 +18597,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -18432,7 +18630,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -18465,7 +18663,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -18498,23 +18696,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="n">
-        <v>1367</v>
+        <v>1397</v>
       </c>
       <c r="G17" t="n">
-        <v>1102</v>
+        <v>1132</v>
       </c>
       <c r="H17" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="18">
@@ -18531,23 +18729,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" t="n">
-        <v>1228</v>
+        <v>1246</v>
       </c>
       <c r="G18" t="n">
-        <v>1563</v>
+        <v>1602</v>
       </c>
       <c r="H18" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="I18" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="19">
@@ -18564,20 +18762,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="n">
-        <v>1503</v>
+        <v>1536</v>
       </c>
       <c r="G19" t="n">
-        <v>1308</v>
+        <v>1338</v>
       </c>
       <c r="H19" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="I19" t="n">
         <v>30.4</v>
@@ -18597,23 +18795,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" t="n">
-        <v>1717</v>
+        <v>1747</v>
       </c>
       <c r="G20" t="n">
-        <v>1593</v>
+        <v>1626</v>
       </c>
       <c r="H20" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="I20" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="21">
@@ -18630,23 +18828,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" t="n">
-        <v>1611</v>
+        <v>1659</v>
       </c>
       <c r="G21" t="n">
-        <v>1471</v>
+        <v>1495</v>
       </c>
       <c r="H21" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="I21" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="22">
@@ -18663,7 +18861,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18696,23 +18894,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="n">
-        <v>1063</v>
+        <v>1110</v>
       </c>
       <c r="G23" t="n">
-        <v>1248</v>
+        <v>1267</v>
       </c>
       <c r="H23" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="I23" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
     </row>
   </sheetData>
@@ -18769,7 +18967,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-19T19:30:00Z</t>
+          <t>2025-11-20T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -18778,7 +18976,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -18976,7 +18976,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -18976,7 +18976,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G501"/>
+  <dimension ref="A1:G503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16969,6 +16969,72 @@
         <v>18</v>
       </c>
       <c r="G501" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>897800</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>2025-11-21T17:00:00</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="E502" t="n">
+        <v>31</v>
+      </c>
+      <c r="F502" t="n">
+        <v>27</v>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>897799</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>2025-11-21T19:30:00</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="E503" t="n">
+        <v>27</v>
+      </c>
+      <c r="F503" t="n">
+        <v>31</v>
+      </c>
+      <c r="G503" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -17079,7 +17145,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -17127,7 +17193,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -17175,7 +17241,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17223,14 +17289,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
         <v>871</v>
@@ -17245,16 +17311,16 @@
         <v>25.2</v>
       </c>
       <c r="K5" t="n">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="L5" t="n">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="M5" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="N5" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="6">
@@ -17271,7 +17337,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17319,26 +17385,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
         <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>957</v>
+        <v>988</v>
       </c>
       <c r="H7" t="n">
-        <v>953</v>
+        <v>980</v>
       </c>
       <c r="I7" t="n">
         <v>31.9</v>
       </c>
       <c r="J7" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="K7" t="n">
         <v>474</v>
@@ -17367,7 +17433,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17415,7 +17481,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17463,7 +17529,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17511,7 +17577,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17559,7 +17625,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17607,7 +17673,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17655,26 +17721,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" t="n">
         <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>808</v>
+        <v>835</v>
       </c>
       <c r="H14" t="n">
-        <v>886</v>
+        <v>917</v>
       </c>
       <c r="I14" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="J14" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="K14" t="n">
         <v>591</v>
@@ -17703,7 +17769,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17751,14 +17817,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16" t="n">
         <v>465</v>
@@ -17773,10 +17839,10 @@
         <v>27.6</v>
       </c>
       <c r="K16" t="n">
-        <v>781</v>
+        <v>808</v>
       </c>
       <c r="L16" t="n">
-        <v>825</v>
+        <v>856</v>
       </c>
       <c r="M16" t="n">
         <v>27.9</v>
@@ -17799,7 +17865,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17847,7 +17913,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17895,7 +17961,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17943,7 +18009,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17991,7 +18057,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18039,7 +18105,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18087,7 +18153,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18201,7 +18267,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -18234,7 +18300,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -18267,7 +18333,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -18300,20 +18366,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="n">
-        <v>1582</v>
+        <v>1613</v>
       </c>
       <c r="G5" t="n">
-        <v>1283</v>
+        <v>1310</v>
       </c>
       <c r="H5" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="I5" t="n">
         <v>27.3</v>
@@ -18333,7 +18399,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -18366,23 +18432,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="n">
-        <v>1431</v>
+        <v>1462</v>
       </c>
       <c r="G7" t="n">
-        <v>1529</v>
+        <v>1556</v>
       </c>
       <c r="H7" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="I7" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="8">
@@ -18399,7 +18465,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -18432,7 +18498,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -18465,7 +18531,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -18498,7 +18564,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -18531,7 +18597,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -18564,7 +18630,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -18597,23 +18663,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" t="n">
-        <v>1399</v>
+        <v>1426</v>
       </c>
       <c r="G14" t="n">
-        <v>1672</v>
+        <v>1703</v>
       </c>
       <c r="H14" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="I14" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="15">
@@ -18630,7 +18696,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -18663,17 +18729,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" t="n">
-        <v>1246</v>
+        <v>1273</v>
       </c>
       <c r="G16" t="n">
-        <v>1294</v>
+        <v>1325</v>
       </c>
       <c r="H16" t="n">
         <v>27.7</v>
@@ -18696,7 +18762,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -18729,7 +18795,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -18762,7 +18828,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -18795,7 +18861,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -18828,7 +18894,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18861,7 +18927,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18894,7 +18960,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18967,7 +19033,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-20T19:30:00Z</t>
+          <t>2025-11-21T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -18976,7 +19042,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10699,6 +10699,138 @@
         <v>14</v>
       </c>
       <c r="G311" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>897806</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2025-11-23T14:00:00</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>32</v>
+      </c>
+      <c r="F312" t="n">
+        <v>33</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>897805</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2025-11-23T15:00:00</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>26</v>
+      </c>
+      <c r="F313" t="n">
+        <v>28</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>897807</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2025-11-23T17:00:00</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>23</v>
+      </c>
+      <c r="F314" t="n">
+        <v>38</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>897808</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2025-11-23T17:00:00</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>29</v>
+      </c>
+      <c r="F315" t="n">
+        <v>23</v>
+      </c>
+      <c r="G315" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -10809,14 +10941,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>449</v>
@@ -10831,16 +10963,16 @@
         <v>28.9</v>
       </c>
       <c r="K2" t="n">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="L2" t="n">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="M2" t="n">
-        <v>36.4</v>
+        <v>35.8</v>
       </c>
       <c r="N2" t="n">
-        <v>31.7</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="3">
@@ -10857,7 +10989,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -10905,7 +11037,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10953,14 +11085,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
         <v>528</v>
@@ -10975,16 +11107,16 @@
         <v>25.5</v>
       </c>
       <c r="K5" t="n">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="L5" t="n">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="M5" t="n">
-        <v>33.8</v>
+        <v>34.1</v>
       </c>
       <c r="N5" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="6">
@@ -11001,7 +11133,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -11049,26 +11181,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
         <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="H7" t="n">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="I7" t="n">
-        <v>32.3</v>
+        <v>32</v>
       </c>
       <c r="J7" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="K7" t="n">
         <v>315</v>
@@ -11097,7 +11229,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -11145,7 +11277,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -11193,26 +11325,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="H10" t="n">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="I10" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="J10" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="K10" t="n">
         <v>418</v>
@@ -11241,14 +11373,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
         <v>353</v>
@@ -11263,16 +11395,16 @@
         <v>35.9</v>
       </c>
       <c r="K11" t="n">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="L11" t="n">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="M11" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="N11" t="n">
-        <v>39</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="12">
@@ -11289,7 +11421,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -11337,7 +11469,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -11385,23 +11517,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="H14" t="n">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="I14" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="J14" t="n">
         <v>34.2</v>
@@ -11433,7 +11565,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11481,14 +11613,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" t="n">
         <v>292</v>
@@ -11503,16 +11635,16 @@
         <v>28.5</v>
       </c>
       <c r="K16" t="n">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="L16" t="n">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="M16" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="N16" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="17">
@@ -11529,23 +11661,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="H17" t="n">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="I17" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="J17" t="n">
         <v>22.8</v>
@@ -11577,7 +11709,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11625,7 +11757,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11673,7 +11805,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11721,7 +11853,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11769,7 +11901,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11817,7 +11949,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -11931,23 +12063,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="G2" t="n">
-        <v>784</v>
+        <v>810</v>
       </c>
       <c r="H2" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="I2" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -11964,7 +12096,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -11997,7 +12129,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12030,23 +12162,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>968</v>
+        <v>1006</v>
       </c>
       <c r="G5" t="n">
-        <v>795</v>
+        <v>818</v>
       </c>
       <c r="H5" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="I5" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="6">
@@ -12063,7 +12195,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12096,23 +12228,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="n">
-        <v>897</v>
+        <v>923</v>
       </c>
       <c r="G7" t="n">
-        <v>934</v>
+        <v>962</v>
       </c>
       <c r="H7" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="I7" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="8">
@@ -12129,7 +12261,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12162,7 +12294,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12195,23 +12327,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="n">
-        <v>737</v>
+        <v>760</v>
       </c>
       <c r="G10" t="n">
-        <v>948</v>
+        <v>986</v>
       </c>
       <c r="H10" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="I10" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="11">
@@ -12228,23 +12360,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>690</v>
+        <v>713</v>
       </c>
       <c r="G11" t="n">
-        <v>1013</v>
+        <v>1042</v>
       </c>
       <c r="H11" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="I11" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="12">
@@ -12261,7 +12393,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12294,7 +12426,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12327,23 +12459,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>864</v>
+        <v>896</v>
       </c>
       <c r="G14" t="n">
-        <v>1023</v>
+        <v>1056</v>
       </c>
       <c r="H14" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="I14" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="15">
@@ -12360,7 +12492,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12393,23 +12525,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>771</v>
+        <v>804</v>
       </c>
       <c r="G16" t="n">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="H16" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="I16" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="17">
@@ -12426,20 +12558,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>864</v>
+        <v>893</v>
       </c>
       <c r="G17" t="n">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="H17" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="I17" t="n">
         <v>24.9</v>
@@ -12459,7 +12591,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -12492,7 +12624,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -12525,7 +12657,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12558,7 +12690,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12591,7 +12723,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -12624,7 +12756,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -12697,7 +12829,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-22T17:10:00Z</t>
+          <t>2025-11-23T17:00:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12706,7 +12838,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -12838,7 +12838,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G315"/>
+  <dimension ref="A1:G318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10831,6 +10831,105 @@
         <v>23</v>
       </c>
       <c r="G315" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>897811</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2025-11-24T19:00:00</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>23</v>
+      </c>
+      <c r="F316" t="n">
+        <v>31</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>897809</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2025-11-24T19:30:00</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>31</v>
+      </c>
+      <c r="F317" t="n">
+        <v>31</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>897810</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2025-11-24T19:30:00</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>23</v>
+      </c>
+      <c r="F318" t="n">
+        <v>23</v>
+      </c>
+      <c r="G318" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -10941,7 +11040,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -10989,7 +11088,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -11037,7 +11136,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -11085,7 +11184,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -11133,14 +11232,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
         <v>419</v>
@@ -11155,16 +11254,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="n">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="L6" t="n">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="M6" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="N6" t="n">
-        <v>38.6</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="7">
@@ -11181,7 +11280,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -11229,26 +11328,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="H8" t="n">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="I8" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="J8" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="K8" t="n">
         <v>385</v>
@@ -11277,7 +11376,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -11325,7 +11424,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -11373,7 +11472,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -11421,26 +11520,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="H12" t="n">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="I12" t="n">
-        <v>33.4</v>
+        <v>32.8</v>
       </c>
       <c r="J12" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="K12" t="n">
         <v>469</v>
@@ -11469,7 +11568,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -11517,7 +11616,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -11565,14 +11664,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
         <v>488</v>
@@ -11587,16 +11686,16 @@
         <v>33.1</v>
       </c>
       <c r="K15" t="n">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="L15" t="n">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="M15" t="n">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>33</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="16">
@@ -11613,7 +11712,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11661,7 +11760,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11709,14 +11808,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
         <v>328</v>
@@ -11731,16 +11830,16 @@
         <v>36.2</v>
       </c>
       <c r="K18" t="n">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="L18" t="n">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="M18" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="N18" t="n">
-        <v>34.4</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="19">
@@ -11757,7 +11856,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11805,7 +11904,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11853,7 +11952,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11901,7 +12000,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11949,26 +12048,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="H23" t="n">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="I23" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="J23" t="n">
-        <v>28.7</v>
+        <v>28.2</v>
       </c>
       <c r="K23" t="n">
         <v>414</v>
@@ -12063,7 +12162,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -12096,7 +12195,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -12129,7 +12228,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12162,7 +12261,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12195,23 +12294,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>798</v>
+        <v>829</v>
       </c>
       <c r="G6" t="n">
-        <v>1031</v>
+        <v>1062</v>
       </c>
       <c r="H6" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="7">
@@ -12228,7 +12327,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12261,23 +12360,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
-        <v>821</v>
+        <v>852</v>
       </c>
       <c r="G8" t="n">
-        <v>778</v>
+        <v>809</v>
       </c>
       <c r="H8" t="n">
         <v>30.4</v>
       </c>
       <c r="I8" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="9">
@@ -12294,7 +12393,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12327,7 +12426,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12360,7 +12459,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12393,23 +12492,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" t="n">
-        <v>970</v>
+        <v>993</v>
       </c>
       <c r="G12" t="n">
-        <v>760</v>
+        <v>791</v>
       </c>
       <c r="H12" t="n">
-        <v>32.3</v>
+        <v>32</v>
       </c>
       <c r="I12" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="13">
@@ -12426,7 +12525,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12459,7 +12558,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12492,23 +12591,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" t="n">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="G15" t="n">
-        <v>859</v>
+        <v>882</v>
       </c>
       <c r="H15" t="n">
-        <v>31.7</v>
+        <v>31.4</v>
       </c>
       <c r="I15" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="16">
@@ -12525,7 +12624,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12558,7 +12657,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -12591,23 +12690,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" t="n">
-        <v>769</v>
+        <v>800</v>
       </c>
       <c r="G18" t="n">
-        <v>1018</v>
+        <v>1041</v>
       </c>
       <c r="H18" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="I18" t="n">
-        <v>35.1</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="19">
@@ -12624,7 +12723,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -12657,7 +12756,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12690,7 +12789,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12723,7 +12822,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -12756,23 +12855,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" t="n">
-        <v>703</v>
+        <v>726</v>
       </c>
       <c r="G23" t="n">
-        <v>769</v>
+        <v>792</v>
       </c>
       <c r="H23" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="I23" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
     </row>
   </sheetData>
@@ -12829,7 +12928,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-23T17:00:00Z</t>
+          <t>2025-11-24T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12838,7 +12937,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -12937,7 +12937,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G318"/>
+  <dimension ref="A1:G321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10930,6 +10930,105 @@
         <v>23</v>
       </c>
       <c r="G318" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>897814</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2025-11-25T19:00:00</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>40</v>
+      </c>
+      <c r="F319" t="n">
+        <v>36</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>897812</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2025-11-25T19:30:00</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>23</v>
+      </c>
+      <c r="F320" t="n">
+        <v>32</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>897813</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2025-11-25T19:30:00</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>34</v>
+      </c>
+      <c r="F321" t="n">
+        <v>25</v>
+      </c>
+      <c r="G321" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -11040,14 +11139,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
         <v>449</v>
@@ -11062,16 +11161,16 @@
         <v>28.9</v>
       </c>
       <c r="K2" t="n">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="L2" t="n">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="M2" t="n">
         <v>35.8</v>
       </c>
       <c r="N2" t="n">
-        <v>31.2</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="3">
@@ -11088,7 +11187,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -11136,7 +11235,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -11184,14 +11283,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
         <v>528</v>
@@ -11206,16 +11305,16 @@
         <v>25.5</v>
       </c>
       <c r="K5" t="n">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="L5" t="n">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="M5" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="N5" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="6">
@@ -11232,7 +11331,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -11280,7 +11379,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -11328,7 +11427,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -11376,7 +11475,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -11424,7 +11523,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -11472,14 +11571,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
         <v>353</v>
@@ -11494,16 +11593,16 @@
         <v>35.9</v>
       </c>
       <c r="K11" t="n">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="L11" t="n">
-        <v>575</v>
+        <v>609</v>
       </c>
       <c r="M11" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="N11" t="n">
-        <v>38.3</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="12">
@@ -11520,7 +11619,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -11568,7 +11667,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -11616,26 +11715,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>522</v>
+        <v>562</v>
       </c>
       <c r="H14" t="n">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="I14" t="n">
-        <v>30.7</v>
+        <v>31.2</v>
       </c>
       <c r="J14" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="K14" t="n">
         <v>374</v>
@@ -11664,7 +11763,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11712,7 +11811,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11760,7 +11859,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11808,7 +11907,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11856,26 +11955,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
         <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="H19" t="n">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="I19" t="n">
-        <v>34.9</v>
+        <v>34.2</v>
       </c>
       <c r="J19" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="K19" t="n">
         <v>393</v>
@@ -11904,7 +12003,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11952,7 +12051,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12000,26 +12099,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="H22" t="n">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="I22" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="J22" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="K22" t="n">
         <v>316</v>
@@ -12048,7 +12147,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -12162,23 +12261,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>914</v>
+        <v>950</v>
       </c>
       <c r="G2" t="n">
-        <v>810</v>
+        <v>850</v>
       </c>
       <c r="H2" t="n">
         <v>33.9</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="3">
@@ -12195,7 +12294,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -12228,7 +12327,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12261,23 +12360,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
-        <v>1006</v>
+        <v>1038</v>
       </c>
       <c r="G5" t="n">
-        <v>818</v>
+        <v>841</v>
       </c>
       <c r="H5" t="n">
         <v>33.5</v>
       </c>
       <c r="I5" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="6">
@@ -12294,7 +12393,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12327,7 +12426,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12360,7 +12459,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12393,7 +12492,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12426,7 +12525,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12459,23 +12558,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="G11" t="n">
-        <v>1042</v>
+        <v>1076</v>
       </c>
       <c r="H11" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="I11" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="12">
@@ -12492,7 +12591,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12525,7 +12624,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12558,20 +12657,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
-        <v>896</v>
+        <v>936</v>
       </c>
       <c r="G14" t="n">
-        <v>1056</v>
+        <v>1092</v>
       </c>
       <c r="H14" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="I14" t="n">
         <v>35.2</v>
@@ -12591,7 +12690,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12624,7 +12723,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12657,7 +12756,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -12690,7 +12789,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -12723,23 +12822,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>951</v>
+        <v>974</v>
       </c>
       <c r="G19" t="n">
-        <v>852</v>
+        <v>884</v>
       </c>
       <c r="H19" t="n">
-        <v>34</v>
+        <v>33.6</v>
       </c>
       <c r="I19" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="20">
@@ -12756,7 +12855,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12789,7 +12888,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12822,23 +12921,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F22" t="n">
-        <v>754</v>
+        <v>788</v>
       </c>
       <c r="G22" t="n">
-        <v>937</v>
+        <v>962</v>
       </c>
       <c r="H22" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="I22" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="23">
@@ -12855,7 +12954,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -12928,7 +13027,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-24T19:30:00Z</t>
+          <t>2025-11-25T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12937,7 +13036,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -13036,7 +13036,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G321"/>
+  <dimension ref="A1:G325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10894,7 +10894,7 @@
         <v>31</v>
       </c>
       <c r="F317" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -11029,6 +11029,138 @@
         <v>25</v>
       </c>
       <c r="G321" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>897818</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2025-11-26T12:30:00</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>42</v>
+      </c>
+      <c r="F322" t="n">
+        <v>27</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>897816</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2025-11-26T17:00:00</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>48</v>
+      </c>
+      <c r="F323" t="n">
+        <v>27</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>897817</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2025-11-26T19:30:00</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>35</v>
+      </c>
+      <c r="F324" t="n">
+        <v>24</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>897815</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2025-11-26T19:30:00</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>32</v>
+      </c>
+      <c r="F325" t="n">
+        <v>23</v>
+      </c>
+      <c r="G325" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -11139,7 +11271,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -11187,7 +11319,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -11235,26 +11367,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="H4" t="n">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="I4" t="n">
-        <v>37.6</v>
+        <v>38</v>
       </c>
       <c r="J4" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="K4" t="n">
         <v>497</v>
@@ -11283,7 +11415,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -11331,14 +11463,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
         <v>419</v>
@@ -11353,16 +11485,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="n">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="L6" t="n">
-        <v>572</v>
+        <v>614</v>
       </c>
       <c r="M6" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="N6" t="n">
-        <v>38.1</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="7">
@@ -11379,7 +11511,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -11427,26 +11559,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="H8" t="n">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="I8" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="J8" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="K8" t="n">
         <v>385</v>
@@ -11475,7 +11607,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -11523,14 +11655,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
         <v>342</v>
@@ -11545,16 +11677,16 @@
         <v>34.7</v>
       </c>
       <c r="K10" t="n">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="L10" t="n">
-        <v>570</v>
+        <v>618</v>
       </c>
       <c r="M10" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="N10" t="n">
-        <v>35.6</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="11">
@@ -11571,7 +11703,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -11619,14 +11751,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" t="n">
         <v>524</v>
@@ -11641,16 +11773,16 @@
         <v>26.3</v>
       </c>
       <c r="K12" t="n">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="L12" t="n">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="M12" t="n">
-        <v>31.3</v>
+        <v>30.8</v>
       </c>
       <c r="N12" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="13">
@@ -11667,7 +11799,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -11715,7 +11847,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -11763,14 +11895,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
         <v>488</v>
@@ -11785,16 +11917,16 @@
         <v>33.1</v>
       </c>
       <c r="K15" t="n">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="L15" t="n">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="N15" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="16">
@@ -11811,7 +11943,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11859,26 +11991,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="H17" t="n">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="I17" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="J17" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="K17" t="n">
         <v>493</v>
@@ -11907,7 +12039,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11955,7 +12087,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -12003,7 +12135,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12051,26 +12183,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>512</v>
+        <v>560</v>
       </c>
       <c r="H21" t="n">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="I21" t="n">
-        <v>36.6</v>
+        <v>37.3</v>
       </c>
       <c r="J21" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="K21" t="n">
         <v>510</v>
@@ -12099,7 +12231,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -12147,7 +12279,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -12261,7 +12393,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -12294,7 +12426,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -12327,20 +12459,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>911</v>
+        <v>953</v>
       </c>
       <c r="G4" t="n">
-        <v>731</v>
+        <v>758</v>
       </c>
       <c r="H4" t="n">
-        <v>33.7</v>
+        <v>34</v>
       </c>
       <c r="I4" t="n">
         <v>27.1</v>
@@ -12360,7 +12492,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12393,23 +12525,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>829</v>
+        <v>857</v>
       </c>
       <c r="G6" t="n">
-        <v>1062</v>
+        <v>1104</v>
       </c>
       <c r="H6" t="n">
         <v>28.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="7">
@@ -12426,7 +12558,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12459,23 +12591,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>852</v>
+        <v>884</v>
       </c>
       <c r="G8" t="n">
-        <v>809</v>
+        <v>833</v>
       </c>
       <c r="H8" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="I8" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="9">
@@ -12492,7 +12624,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12525,23 +12657,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>760</v>
+        <v>787</v>
       </c>
       <c r="G10" t="n">
-        <v>986</v>
+        <v>1034</v>
       </c>
       <c r="H10" t="n">
         <v>27.1</v>
       </c>
       <c r="I10" t="n">
-        <v>35.2</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="11">
@@ -12558,7 +12690,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12591,23 +12723,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" t="n">
-        <v>993</v>
+        <v>1016</v>
       </c>
       <c r="G12" t="n">
-        <v>791</v>
+        <v>823</v>
       </c>
       <c r="H12" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="I12" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="13">
@@ -12624,7 +12756,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12657,7 +12789,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12690,23 +12822,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F15" t="n">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="G15" t="n">
-        <v>882</v>
+        <v>917</v>
       </c>
       <c r="H15" t="n">
-        <v>31.4</v>
+        <v>31.1</v>
       </c>
       <c r="I15" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
     </row>
     <row r="16">
@@ -12723,7 +12855,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12756,23 +12888,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>893</v>
+        <v>928</v>
       </c>
       <c r="G17" t="n">
-        <v>721</v>
+        <v>745</v>
       </c>
       <c r="H17" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="I17" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="18">
@@ -12789,7 +12921,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -12822,7 +12954,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -12855,7 +12987,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12888,23 +13020,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21" t="n">
-        <v>1022</v>
+        <v>1070</v>
       </c>
       <c r="G21" t="n">
-        <v>885</v>
+        <v>912</v>
       </c>
       <c r="H21" t="n">
-        <v>35.2</v>
+        <v>35.7</v>
       </c>
       <c r="I21" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="22">
@@ -12921,7 +13053,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -12954,7 +13086,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13027,7 +13159,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-25T19:30:00Z</t>
+          <t>2025-11-26T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -13036,7 +13168,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -13168,7 +13168,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G325"/>
+  <dimension ref="A1:G329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11125,7 +11125,7 @@
         <v>35</v>
       </c>
       <c r="F324" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -11161,6 +11161,138 @@
         <v>23</v>
       </c>
       <c r="G325" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>897819</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2025-11-27T17:00:00</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>35</v>
+      </c>
+      <c r="F326" t="n">
+        <v>33</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>897821</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2025-11-27T17:00:00</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>60</v>
+      </c>
+      <c r="F327" t="n">
+        <v>30</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>897820</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2025-11-27T19:30:00</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>25</v>
+      </c>
+      <c r="F328" t="n">
+        <v>35</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>897822</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2025-11-27T19:30:00</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>39</v>
+      </c>
+      <c r="F329" t="n">
+        <v>19</v>
+      </c>
+      <c r="G329" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -11271,14 +11403,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
         <v>449</v>
@@ -11293,16 +11425,16 @@
         <v>28.9</v>
       </c>
       <c r="K2" t="n">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="L2" t="n">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="M2" t="n">
-        <v>35.8</v>
+        <v>35.4</v>
       </c>
       <c r="N2" t="n">
-        <v>31.9</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="3">
@@ -11319,14 +11451,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
         <v>354</v>
@@ -11341,16 +11473,16 @@
         <v>30.1</v>
       </c>
       <c r="K3" t="n">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="L3" t="n">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="M3" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="N3" t="n">
-        <v>31.8</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="4">
@@ -11367,7 +11499,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -11415,7 +11547,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -11463,7 +11595,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -11511,14 +11643,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
         <v>608</v>
@@ -11533,16 +11665,16 @@
         <v>31.3</v>
       </c>
       <c r="K7" t="n">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="L7" t="n">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="M7" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="N7" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="8">
@@ -11559,7 +11691,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -11607,7 +11739,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -11655,7 +11787,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -11703,14 +11835,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
         <v>353</v>
@@ -11725,13 +11857,13 @@
         <v>35.9</v>
       </c>
       <c r="K11" t="n">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="L11" t="n">
-        <v>609</v>
+        <v>648</v>
       </c>
       <c r="M11" t="n">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="N11" t="n">
         <v>38.1</v>
@@ -11751,7 +11883,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -11799,26 +11931,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
         <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>547</v>
+        <v>607</v>
       </c>
       <c r="H13" t="n">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="I13" t="n">
-        <v>36.5</v>
+        <v>37.9</v>
       </c>
       <c r="J13" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="K13" t="n">
         <v>411</v>
@@ -11847,7 +11979,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -11895,7 +12027,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11917,13 +12049,13 @@
         <v>33.1</v>
       </c>
       <c r="K15" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L15" t="n">
         <v>421</v>
       </c>
       <c r="M15" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="N15" t="n">
         <v>32.4</v>
@@ -11943,26 +12075,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="H16" t="n">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="I16" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="J16" t="n">
-        <v>28.5</v>
+        <v>28.9</v>
       </c>
       <c r="K16" t="n">
         <v>512</v>
@@ -11991,7 +12123,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -12004,7 +12136,7 @@
         <v>435</v>
       </c>
       <c r="H17" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I17" t="n">
         <v>29</v>
@@ -12039,7 +12171,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -12087,26 +12219,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" t="n">
         <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="H19" t="n">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="I19" t="n">
-        <v>34.2</v>
+        <v>33.7</v>
       </c>
       <c r="J19" t="n">
-        <v>28</v>
+        <v>28.4</v>
       </c>
       <c r="K19" t="n">
         <v>393</v>
@@ -12135,7 +12267,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12183,7 +12315,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12231,7 +12363,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -12279,26 +12411,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="H23" t="n">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="I23" t="n">
-        <v>24</v>
+        <v>25.1</v>
       </c>
       <c r="J23" t="n">
-        <v>28.2</v>
+        <v>27.6</v>
       </c>
       <c r="K23" t="n">
         <v>414</v>
@@ -12393,23 +12525,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="G2" t="n">
-        <v>850</v>
+        <v>910</v>
       </c>
       <c r="H2" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="I2" t="n">
-        <v>30.4</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="3">
@@ -12426,23 +12558,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>837</v>
+        <v>872</v>
       </c>
       <c r="G3" t="n">
-        <v>902</v>
+        <v>927</v>
       </c>
       <c r="H3" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="I3" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="4">
@@ -12459,7 +12591,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12492,7 +12624,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12525,7 +12657,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12558,23 +12690,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>923</v>
+        <v>956</v>
       </c>
       <c r="G7" t="n">
-        <v>962</v>
+        <v>997</v>
       </c>
       <c r="H7" t="n">
         <v>30.8</v>
       </c>
       <c r="I7" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="8">
@@ -12591,7 +12723,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12624,7 +12756,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12657,7 +12789,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12690,23 +12822,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>738</v>
+        <v>757</v>
       </c>
       <c r="G11" t="n">
-        <v>1076</v>
+        <v>1115</v>
       </c>
       <c r="H11" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="I11" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="12">
@@ -12723,7 +12855,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12756,23 +12888,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>958</v>
+        <v>1018</v>
       </c>
       <c r="G13" t="n">
-        <v>783</v>
+        <v>813</v>
       </c>
       <c r="H13" t="n">
-        <v>33</v>
+        <v>33.9</v>
       </c>
       <c r="I13" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="14">
@@ -12789,7 +12921,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12822,20 +12954,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>28</v>
       </c>
       <c r="F15" t="n">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G15" t="n">
         <v>917</v>
       </c>
       <c r="H15" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="I15" t="n">
         <v>32.8</v>
@@ -12855,23 +12987,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16" t="n">
-        <v>804</v>
+        <v>839</v>
       </c>
       <c r="G16" t="n">
-        <v>853</v>
+        <v>886</v>
       </c>
       <c r="H16" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="I16" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="17">
@@ -12888,7 +13020,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -12898,13 +13030,13 @@
         <v>928</v>
       </c>
       <c r="G17" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H17" t="n">
         <v>30.9</v>
       </c>
       <c r="I17" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="18">
@@ -12921,7 +13053,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -12954,23 +13086,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>974</v>
+        <v>999</v>
       </c>
       <c r="G19" t="n">
-        <v>884</v>
+        <v>919</v>
       </c>
       <c r="H19" t="n">
-        <v>33.6</v>
+        <v>33.3</v>
       </c>
       <c r="I19" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="20">
@@ -12987,7 +13119,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13020,7 +13152,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -13053,7 +13185,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -13086,23 +13218,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" t="n">
-        <v>726</v>
+        <v>765</v>
       </c>
       <c r="G23" t="n">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="H23" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="I23" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -13159,7 +13291,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-26T19:30:00Z</t>
+          <t>2025-11-27T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -13168,7 +13300,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G329"/>
+  <dimension ref="A1:G334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11293,6 +11293,171 @@
         <v>19</v>
       </c>
       <c r="G329" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>897827</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2025-11-28T17:00:00</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>33</v>
+      </c>
+      <c r="F330" t="n">
+        <v>32</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>897823</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2025-11-28T19:30:00</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>39</v>
+      </c>
+      <c r="F331" t="n">
+        <v>29</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>897824</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2025-11-28T19:30:00</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>37</v>
+      </c>
+      <c r="F332" t="n">
+        <v>31</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>897825</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2025-11-28T19:30:00</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>18</v>
+      </c>
+      <c r="F333" t="n">
+        <v>32</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>897826</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2025-11-28T19:00:00</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>39</v>
+      </c>
+      <c r="F334" t="n">
+        <v>50</v>
+      </c>
+      <c r="G334" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -11403,7 +11568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -11451,7 +11616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -11499,7 +11664,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -11547,26 +11712,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
         <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="H5" t="n">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="I5" t="n">
-        <v>33</v>
+        <v>33.4</v>
       </c>
       <c r="J5" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="K5" t="n">
         <v>510</v>
@@ -11595,7 +11760,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -11643,7 +11808,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -11691,7 +11856,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -11739,14 +11904,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
         <v>661</v>
@@ -11761,16 +11926,16 @@
         <v>26.8</v>
       </c>
       <c r="K9" t="n">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="L9" t="n">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="M9" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="N9" t="n">
-        <v>27.1</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="10">
@@ -11787,14 +11952,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
         <v>342</v>
@@ -11809,16 +11974,16 @@
         <v>34.7</v>
       </c>
       <c r="K10" t="n">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="L10" t="n">
-        <v>618</v>
+        <v>657</v>
       </c>
       <c r="M10" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="N10" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="11">
@@ -11835,7 +12000,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -11883,14 +12048,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" t="n">
         <v>524</v>
@@ -11905,16 +12070,16 @@
         <v>26.3</v>
       </c>
       <c r="K12" t="n">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="L12" t="n">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="M12" t="n">
         <v>30.8</v>
       </c>
       <c r="N12" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="13">
@@ -11931,7 +12096,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -11979,26 +12144,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="H14" t="n">
-        <v>617</v>
+        <v>667</v>
       </c>
       <c r="I14" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="J14" t="n">
-        <v>34.3</v>
+        <v>35.1</v>
       </c>
       <c r="K14" t="n">
         <v>374</v>
@@ -12027,14 +12192,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
         <v>488</v>
@@ -12049,16 +12214,16 @@
         <v>33.1</v>
       </c>
       <c r="K15" t="n">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="L15" t="n">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="M15" t="n">
         <v>29.6</v>
       </c>
       <c r="N15" t="n">
-        <v>32.4</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="16">
@@ -12075,7 +12240,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12123,26 +12288,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="H17" t="n">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="I17" t="n">
-        <v>29</v>
+        <v>28.3</v>
       </c>
       <c r="J17" t="n">
-        <v>22.9</v>
+        <v>23.5</v>
       </c>
       <c r="K17" t="n">
         <v>493</v>
@@ -12171,7 +12336,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -12219,7 +12384,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -12267,23 +12432,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="H20" t="n">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="I20" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="J20" t="n">
         <v>31.2</v>
@@ -12315,26 +12480,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="H21" t="n">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="I21" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J21" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="K21" t="n">
         <v>510</v>
@@ -12363,14 +12528,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
         <v>472</v>
@@ -12385,16 +12550,16 @@
         <v>32</v>
       </c>
       <c r="K22" t="n">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="L22" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="M22" t="n">
-        <v>26.3</v>
+        <v>26.8</v>
       </c>
       <c r="N22" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="23">
@@ -12411,7 +12576,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -12525,7 +12690,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -12558,7 +12723,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -12591,7 +12756,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12624,23 +12789,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="n">
-        <v>1038</v>
+        <v>1077</v>
       </c>
       <c r="G5" t="n">
-        <v>841</v>
+        <v>870</v>
       </c>
       <c r="H5" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="I5" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="6">
@@ -12657,7 +12822,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12690,7 +12855,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12723,7 +12888,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12756,23 +12921,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>1042</v>
+        <v>1073</v>
       </c>
       <c r="G9" t="n">
-        <v>781</v>
+        <v>818</v>
       </c>
       <c r="H9" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="I9" t="n">
-        <v>26.9</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="10">
@@ -12789,23 +12954,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
-        <v>787</v>
+        <v>837</v>
       </c>
       <c r="G10" t="n">
-        <v>1034</v>
+        <v>1073</v>
       </c>
       <c r="H10" t="n">
-        <v>27.1</v>
+        <v>27.9</v>
       </c>
       <c r="I10" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="11">
@@ -12822,7 +12987,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12855,23 +13020,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n">
-        <v>1016</v>
+        <v>1048</v>
       </c>
       <c r="G12" t="n">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="H12" t="n">
         <v>31.8</v>
       </c>
       <c r="I12" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="13">
@@ -12888,7 +13053,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12921,23 +13086,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>936</v>
+        <v>975</v>
       </c>
       <c r="G14" t="n">
-        <v>1092</v>
+        <v>1142</v>
       </c>
       <c r="H14" t="n">
-        <v>30.2</v>
+        <v>30.5</v>
       </c>
       <c r="I14" t="n">
-        <v>35.2</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="15">
@@ -12954,23 +13119,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" t="n">
-        <v>873</v>
+        <v>902</v>
       </c>
       <c r="G15" t="n">
-        <v>917</v>
+        <v>956</v>
       </c>
       <c r="H15" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="I15" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -12987,7 +13152,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -13020,23 +13185,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>928</v>
+        <v>946</v>
       </c>
       <c r="G17" t="n">
-        <v>746</v>
+        <v>778</v>
       </c>
       <c r="H17" t="n">
-        <v>30.9</v>
+        <v>30.5</v>
       </c>
       <c r="I17" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="18">
@@ -13053,7 +13218,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13086,7 +13251,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13119,20 +13284,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>1035</v>
+        <v>1072</v>
       </c>
       <c r="G20" t="n">
-        <v>971</v>
+        <v>1002</v>
       </c>
       <c r="H20" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="I20" t="n">
         <v>31.3</v>
@@ -13152,23 +13317,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" t="n">
-        <v>1070</v>
+        <v>1103</v>
       </c>
       <c r="G21" t="n">
-        <v>912</v>
+        <v>944</v>
       </c>
       <c r="H21" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="I21" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="22">
@@ -13185,23 +13350,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" t="n">
-        <v>788</v>
+        <v>820</v>
       </c>
       <c r="G22" t="n">
-        <v>962</v>
+        <v>995</v>
       </c>
       <c r="H22" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="I22" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="23">
@@ -13218,7 +13383,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13291,7 +13456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-27T19:30:00Z</t>
+          <t>2025-11-28T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -13300,7 +13465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -13465,7 +13465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G334"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11458,6 +11458,105 @@
         <v>50</v>
       </c>
       <c r="G334" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>897828</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2025-11-29T13:30:00</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>33</v>
+      </c>
+      <c r="F335" t="n">
+        <v>18</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>897829</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2025-11-29T14:30:00</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>35</v>
+      </c>
+      <c r="F336" t="n">
+        <v>32</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>897830</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2025-11-29T17:00:00</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>35</v>
+      </c>
+      <c r="F337" t="n">
+        <v>31</v>
+      </c>
+      <c r="G337" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -11568,7 +11667,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -11616,14 +11715,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
         <v>354</v>
@@ -11638,16 +11737,16 @@
         <v>30.1</v>
       </c>
       <c r="K3" t="n">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="L3" t="n">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="M3" t="n">
-        <v>28.8</v>
+        <v>28.2</v>
       </c>
       <c r="N3" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="4">
@@ -11664,7 +11763,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -11712,7 +11811,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -11760,7 +11859,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -11808,14 +11907,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n">
         <v>608</v>
@@ -11830,16 +11929,16 @@
         <v>31.3</v>
       </c>
       <c r="K7" t="n">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="L7" t="n">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="M7" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="N7" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="8">
@@ -11856,7 +11955,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -11904,7 +12003,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -11952,7 +12051,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12000,14 +12099,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="n">
         <v>353</v>
@@ -12022,16 +12121,16 @@
         <v>35.9</v>
       </c>
       <c r="K11" t="n">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="L11" t="n">
-        <v>648</v>
+        <v>683</v>
       </c>
       <c r="M11" t="n">
-        <v>23.8</v>
+        <v>24.2</v>
       </c>
       <c r="N11" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="12">
@@ -12048,7 +12147,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12096,26 +12195,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
         <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>607</v>
+        <v>642</v>
       </c>
       <c r="H13" t="n">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="I13" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J13" t="n">
-        <v>24.9</v>
+        <v>25.3</v>
       </c>
       <c r="K13" t="n">
         <v>411</v>
@@ -12144,7 +12243,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12192,7 +12291,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12240,7 +12339,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12288,7 +12387,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -12336,26 +12435,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
         <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="H18" t="n">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="I18" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="J18" t="n">
-        <v>36.2</v>
+        <v>34.8</v>
       </c>
       <c r="K18" t="n">
         <v>472</v>
@@ -12384,26 +12483,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
         <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>606</v>
+        <v>641</v>
       </c>
       <c r="H19" t="n">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="I19" t="n">
         <v>33.7</v>
       </c>
       <c r="J19" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="K19" t="n">
         <v>393</v>
@@ -12432,7 +12531,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12480,7 +12579,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12528,7 +12627,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -12576,7 +12675,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -12690,7 +12789,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -12723,23 +12822,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="G3" t="n">
-        <v>927</v>
+        <v>960</v>
       </c>
       <c r="H3" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="I3" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -12756,7 +12855,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12789,7 +12888,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12822,7 +12921,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12855,20 +12954,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="n">
-        <v>956</v>
+        <v>988</v>
       </c>
       <c r="G7" t="n">
-        <v>997</v>
+        <v>1032</v>
       </c>
       <c r="H7" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="I7" t="n">
         <v>32.2</v>
@@ -12888,7 +12987,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12921,7 +13020,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12954,7 +13053,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12987,23 +13086,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
-        <v>757</v>
+        <v>788</v>
       </c>
       <c r="G11" t="n">
-        <v>1115</v>
+        <v>1150</v>
       </c>
       <c r="H11" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="I11" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="12">
@@ -13020,7 +13119,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13053,23 +13152,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>1018</v>
+        <v>1053</v>
       </c>
       <c r="G13" t="n">
-        <v>813</v>
+        <v>845</v>
       </c>
       <c r="H13" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="I13" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="14">
@@ -13086,7 +13185,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13119,7 +13218,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -13152,7 +13251,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -13185,7 +13284,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -13218,23 +13317,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="G18" t="n">
-        <v>1041</v>
+        <v>1059</v>
       </c>
       <c r="H18" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="I18" t="n">
-        <v>34.7</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="19">
@@ -13251,20 +13350,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" t="n">
-        <v>999</v>
+        <v>1034</v>
       </c>
       <c r="G19" t="n">
-        <v>919</v>
+        <v>950</v>
       </c>
       <c r="H19" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="I19" t="n">
         <v>30.6</v>
@@ -13284,7 +13383,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13317,7 +13416,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -13350,7 +13449,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -13383,7 +13482,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13456,7 +13555,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-28T19:30:00Z</t>
+          <t>2025-11-29T17:00:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -13465,7 +13564,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -13564,7 +13564,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G337"/>
+  <dimension ref="A1:G340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11557,6 +11557,105 @@
         <v>31</v>
       </c>
       <c r="G337" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>897831</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2025-11-30T10:00:00</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>31</v>
+      </c>
+      <c r="F338" t="n">
+        <v>38</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>897832</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2025-11-30T10:00:00</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>39</v>
+      </c>
+      <c r="F339" t="n">
+        <v>21</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>897833</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2025-11-30T17:00:00</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>32</v>
+      </c>
+      <c r="F340" t="n">
+        <v>36</v>
+      </c>
+      <c r="G340" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -11667,7 +11766,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -11715,7 +11814,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -11763,26 +11862,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="H4" t="n">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="I4" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="J4" t="n">
-        <v>26.2</v>
+        <v>27.1</v>
       </c>
       <c r="K4" t="n">
         <v>497</v>
@@ -11811,26 +11910,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="H5" t="n">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="I5" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="J5" t="n">
-        <v>25.7</v>
+        <v>26.3</v>
       </c>
       <c r="K5" t="n">
         <v>510</v>
@@ -11859,26 +11958,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
         <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="H6" t="n">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="I6" t="n">
-        <v>29.9</v>
+        <v>30.5</v>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="K6" t="n">
         <v>438</v>
@@ -11907,7 +12006,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -11955,7 +12054,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12003,14 +12102,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n">
         <v>661</v>
@@ -12025,16 +12124,16 @@
         <v>26.8</v>
       </c>
       <c r="K9" t="n">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="L9" t="n">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="M9" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="N9" t="n">
-        <v>27.9</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="10">
@@ -12051,14 +12150,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
         <v>342</v>
@@ -12073,16 +12172,16 @@
         <v>34.7</v>
       </c>
       <c r="K10" t="n">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="L10" t="n">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="M10" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="N10" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="11">
@@ -12099,7 +12198,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12147,7 +12246,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12195,7 +12294,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12243,7 +12342,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12291,7 +12390,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12339,7 +12438,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12387,7 +12486,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -12435,7 +12534,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -12483,7 +12582,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -12531,7 +12630,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12579,7 +12678,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12627,14 +12726,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" t="n">
         <v>472</v>
@@ -12649,16 +12748,16 @@
         <v>32</v>
       </c>
       <c r="K22" t="n">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="L22" t="n">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="M22" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="N22" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="23">
@@ -12675,7 +12774,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -12789,7 +12888,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -12822,7 +12921,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -12855,23 +12954,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>953</v>
+        <v>984</v>
       </c>
       <c r="G4" t="n">
-        <v>758</v>
+        <v>796</v>
       </c>
       <c r="H4" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="I4" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="5">
@@ -12888,23 +12987,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>1077</v>
+        <v>1109</v>
       </c>
       <c r="G5" t="n">
-        <v>870</v>
+        <v>906</v>
       </c>
       <c r="H5" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="I5" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="6">
@@ -12921,23 +13020,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n">
-        <v>857</v>
+        <v>896</v>
       </c>
       <c r="G6" t="n">
-        <v>1104</v>
+        <v>1125</v>
       </c>
       <c r="H6" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="7">
@@ -12954,7 +13053,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12987,7 +13086,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -13020,23 +13119,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
-        <v>1073</v>
+        <v>1111</v>
       </c>
       <c r="G9" t="n">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="H9" t="n">
         <v>35.8</v>
       </c>
       <c r="I9" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="10">
@@ -13053,23 +13152,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" t="n">
-        <v>837</v>
+        <v>873</v>
       </c>
       <c r="G10" t="n">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="H10" t="n">
-        <v>27.9</v>
+        <v>28.2</v>
       </c>
       <c r="I10" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="11">
@@ -13086,7 +13185,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13119,7 +13218,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13152,7 +13251,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -13185,7 +13284,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13218,7 +13317,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -13251,7 +13350,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -13284,7 +13383,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -13317,7 +13416,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13350,7 +13449,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13383,7 +13482,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13416,7 +13515,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -13449,23 +13548,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" t="n">
-        <v>820</v>
+        <v>841</v>
       </c>
       <c r="G22" t="n">
-        <v>995</v>
+        <v>1034</v>
       </c>
       <c r="H22" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="I22" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="23">
@@ -13482,7 +13581,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13555,7 +13654,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-29T17:00:00Z</t>
+          <t>2025-11-30T17:00:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -13564,7 +13663,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -13663,7 +13663,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G340"/>
+  <dimension ref="A1:G344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11656,6 +11656,138 @@
         <v>36</v>
       </c>
       <c r="G340" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>897836</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2025-12-01T15:30:00</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>21</v>
+      </c>
+      <c r="F341" t="n">
+        <v>26</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>897835</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2025-12-01T19:00:00</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>23</v>
+      </c>
+      <c r="F342" t="n">
+        <v>36</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>897834</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2025-12-01T19:30:00</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>41</v>
+      </c>
+      <c r="F343" t="n">
+        <v>24</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>897837</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2025-12-01T19:30:00</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>24</v>
+      </c>
+      <c r="F344" t="n">
+        <v>29</v>
+      </c>
+      <c r="G344" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -11766,7 +11898,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -11814,7 +11946,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -11862,7 +11994,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -11910,7 +12042,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -11958,7 +12090,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12006,14 +12138,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>608</v>
@@ -12028,16 +12160,16 @@
         <v>31.3</v>
       </c>
       <c r="K7" t="n">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="L7" t="n">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="M7" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="N7" t="n">
-        <v>33.6</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="8">
@@ -12054,26 +12186,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="H8" t="n">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="I8" t="n">
-        <v>33.3</v>
+        <v>32.7</v>
       </c>
       <c r="J8" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="K8" t="n">
         <v>385</v>
@@ -12102,7 +12234,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12150,7 +12282,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12198,7 +12330,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12246,7 +12378,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12294,7 +12426,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12342,7 +12474,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12390,7 +12522,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12438,14 +12570,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" t="n">
         <v>327</v>
@@ -12460,16 +12592,16 @@
         <v>28.9</v>
       </c>
       <c r="K16" t="n">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="L16" t="n">
-        <v>539</v>
+        <v>580</v>
       </c>
       <c r="M16" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="N16" t="n">
-        <v>29.9</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="17">
@@ -12486,26 +12618,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="H17" t="n">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="I17" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="J17" t="n">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="K17" t="n">
         <v>493</v>
@@ -12534,26 +12666,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
         <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="H18" t="n">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="I18" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="J18" t="n">
-        <v>34.8</v>
+        <v>34.1</v>
       </c>
       <c r="K18" t="n">
         <v>472</v>
@@ -12582,7 +12714,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -12630,14 +12762,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
         <v>565</v>
@@ -12652,16 +12784,16 @@
         <v>31.2</v>
       </c>
       <c r="K20" t="n">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="L20" t="n">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="M20" t="n">
-        <v>33.8</v>
+        <v>33.5</v>
       </c>
       <c r="N20" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -12678,14 +12810,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" t="n">
         <v>593</v>
@@ -12700,16 +12832,16 @@
         <v>29.2</v>
       </c>
       <c r="K21" t="n">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="L21" t="n">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="M21" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="N21" t="n">
-        <v>31.7</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="22">
@@ -12726,7 +12858,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -12774,26 +12906,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="H23" t="n">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="I23" t="n">
-        <v>25.1</v>
+        <v>26.1</v>
       </c>
       <c r="J23" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="K23" t="n">
         <v>414</v>
@@ -12888,7 +13020,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -12921,7 +13053,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -12954,7 +13086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12987,7 +13119,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -13020,7 +13152,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -13053,23 +13185,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>988</v>
+        <v>1014</v>
       </c>
       <c r="G7" t="n">
-        <v>1032</v>
+        <v>1053</v>
       </c>
       <c r="H7" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="I7" t="n">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="8">
@@ -13086,20 +13218,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>884</v>
+        <v>908</v>
       </c>
       <c r="G8" t="n">
-        <v>833</v>
+        <v>862</v>
       </c>
       <c r="H8" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="I8" t="n">
         <v>28.7</v>
@@ -13119,7 +13251,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13152,7 +13284,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13185,7 +13317,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13218,7 +13350,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13251,7 +13383,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -13284,7 +13416,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13317,7 +13449,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -13350,23 +13482,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" t="n">
-        <v>839</v>
+        <v>863</v>
       </c>
       <c r="G16" t="n">
-        <v>886</v>
+        <v>927</v>
       </c>
       <c r="H16" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="I16" t="n">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="17">
@@ -13383,23 +13515,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>946</v>
+        <v>969</v>
       </c>
       <c r="G17" t="n">
-        <v>778</v>
+        <v>814</v>
       </c>
       <c r="H17" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="I17" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="18">
@@ -13416,23 +13548,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" t="n">
-        <v>833</v>
+        <v>854</v>
       </c>
       <c r="G18" t="n">
-        <v>1059</v>
+        <v>1085</v>
       </c>
       <c r="H18" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="I18" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="19">
@@ -13449,7 +13581,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13482,23 +13614,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" t="n">
-        <v>1072</v>
+        <v>1101</v>
       </c>
       <c r="G20" t="n">
-        <v>1002</v>
+        <v>1026</v>
       </c>
       <c r="H20" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="I20" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="21">
@@ -13515,23 +13647,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" t="n">
-        <v>1103</v>
+        <v>1139</v>
       </c>
       <c r="G21" t="n">
-        <v>944</v>
+        <v>967</v>
       </c>
       <c r="H21" t="n">
         <v>35.6</v>
       </c>
       <c r="I21" t="n">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="22">
@@ -13548,7 +13680,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -13581,23 +13713,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="n">
-        <v>765</v>
+        <v>806</v>
       </c>
       <c r="G23" t="n">
-        <v>811</v>
+        <v>835</v>
       </c>
       <c r="H23" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="I23" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
     </row>
   </sheetData>
@@ -13654,7 +13786,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-30T17:00:00Z</t>
+          <t>2025-12-01T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -13663,7 +13795,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -13795,7 +13795,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -13795,7 +13795,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -13795,7 +13795,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G344"/>
+  <dimension ref="A1:G347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11788,6 +11788,105 @@
         <v>29</v>
       </c>
       <c r="G344" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>897838</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2025-12-02T12:15:00</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>27</v>
+      </c>
+      <c r="F345" t="n">
+        <v>43</v>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>897839</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2025-12-02T12:30:00</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>35</v>
+      </c>
+      <c r="F346" t="n">
+        <v>23</v>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>897840</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>2025-12-02T19:00:00</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>48</v>
+      </c>
+      <c r="F347" t="n">
+        <v>29</v>
+      </c>
+      <c r="G347" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -11898,7 +11997,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -11946,7 +12045,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -11994,26 +12093,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
         <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="H4" t="n">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="I4" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J4" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="K4" t="n">
         <v>497</v>
@@ -12042,7 +12141,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12090,26 +12189,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
         <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="H6" t="n">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="I6" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="J6" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="K6" t="n">
         <v>438</v>
@@ -12138,7 +12237,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12186,7 +12285,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12234,14 +12333,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
         <v>661</v>
@@ -12256,16 +12355,16 @@
         <v>26.8</v>
       </c>
       <c r="K9" t="n">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="L9" t="n">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="M9" t="n">
-        <v>34.6</v>
+        <v>35.2</v>
       </c>
       <c r="N9" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="10">
@@ -12282,7 +12381,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12330,7 +12429,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12378,26 +12477,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" t="n">
         <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>524</v>
+        <v>572</v>
       </c>
       <c r="H12" t="n">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="I12" t="n">
-        <v>32.8</v>
+        <v>33.6</v>
       </c>
       <c r="J12" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="K12" t="n">
         <v>524</v>
@@ -12426,7 +12525,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12474,7 +12573,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12522,14 +12621,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
         <v>488</v>
@@ -12544,16 +12643,16 @@
         <v>33.1</v>
       </c>
       <c r="K15" t="n">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="L15" t="n">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="M15" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="N15" t="n">
-        <v>32.9</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="16">
@@ -12570,7 +12669,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12618,7 +12717,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -12666,7 +12765,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -12714,7 +12813,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -12762,7 +12861,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12810,7 +12909,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12858,14 +12957,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
         <v>472</v>
@@ -12880,16 +12979,16 @@
         <v>32</v>
       </c>
       <c r="K22" t="n">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="L22" t="n">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="M22" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="N22" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="23">
@@ -12906,7 +13005,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13020,7 +13119,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -13053,7 +13152,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -13086,23 +13185,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>984</v>
+        <v>1019</v>
       </c>
       <c r="G4" t="n">
-        <v>796</v>
+        <v>819</v>
       </c>
       <c r="H4" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="I4" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="5">
@@ -13119,7 +13218,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -13152,23 +13251,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="G6" t="n">
-        <v>1125</v>
+        <v>1168</v>
       </c>
       <c r="H6" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="I6" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="7">
@@ -13185,7 +13284,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -13218,7 +13317,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -13251,20 +13350,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>1111</v>
+        <v>1154</v>
       </c>
       <c r="G9" t="n">
-        <v>849</v>
+        <v>876</v>
       </c>
       <c r="H9" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="I9" t="n">
         <v>27.4</v>
@@ -13284,7 +13383,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13317,7 +13416,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13350,23 +13449,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" t="n">
-        <v>1048</v>
+        <v>1096</v>
       </c>
       <c r="G12" t="n">
-        <v>841</v>
+        <v>870</v>
       </c>
       <c r="H12" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="I12" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="13">
@@ -13383,7 +13482,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -13416,7 +13515,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13449,23 +13548,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>902</v>
+        <v>931</v>
       </c>
       <c r="G15" t="n">
-        <v>956</v>
+        <v>1004</v>
       </c>
       <c r="H15" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="I15" t="n">
-        <v>33</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="16">
@@ -13482,7 +13581,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -13515,7 +13614,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -13548,7 +13647,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13581,7 +13680,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13614,7 +13713,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13647,7 +13746,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -13680,20 +13779,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" t="n">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="G22" t="n">
-        <v>1034</v>
+        <v>1069</v>
       </c>
       <c r="H22" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="I22" t="n">
         <v>34.5</v>
@@ -13713,7 +13812,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13786,7 +13885,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-01T19:30:00Z</t>
+          <t>2025-12-02T19:00:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -13795,7 +13894,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G347"/>
+  <dimension ref="A1:G353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11887,6 +11887,204 @@
         <v>29</v>
       </c>
       <c r="G347" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>897844</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2025-12-03T15:30:00</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>21</v>
+      </c>
+      <c r="F348" t="n">
+        <v>30</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>897843</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2025-12-03T17:00:00</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>26</v>
+      </c>
+      <c r="F349" t="n">
+        <v>39</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>897841</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2025-12-03T19:00:00</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>27</v>
+      </c>
+      <c r="F350" t="n">
+        <v>33</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>897845</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>2025-12-03T19:00:00</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
+        <v>34</v>
+      </c>
+      <c r="F351" t="n">
+        <v>39</v>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>897842</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>2025-12-03T19:30:00</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>34</v>
+      </c>
+      <c r="F352" t="n">
+        <v>25</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>897846</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>2025-12-03T19:30:00</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
+        <v>38</v>
+      </c>
+      <c r="F353" t="n">
+        <v>36</v>
+      </c>
+      <c r="G353" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -11997,7 +12195,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -12045,26 +12243,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="H3" t="n">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="I3" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="J3" t="n">
-        <v>30.1</v>
+        <v>30.8</v>
       </c>
       <c r="K3" t="n">
         <v>536</v>
@@ -12093,7 +12291,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12141,26 +12339,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
         <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>599</v>
+        <v>633</v>
       </c>
       <c r="H5" t="n">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="I5" t="n">
         <v>33.3</v>
       </c>
       <c r="J5" t="n">
-        <v>26.3</v>
+        <v>26.9</v>
       </c>
       <c r="K5" t="n">
         <v>510</v>
@@ -12189,7 +12387,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12237,7 +12435,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12285,14 +12483,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
         <v>523</v>
@@ -12307,16 +12505,16 @@
         <v>26.6</v>
       </c>
       <c r="K8" t="n">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="L8" t="n">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="M8" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="N8" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="9">
@@ -12333,7 +12531,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12381,26 +12579,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
         <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="H10" t="n">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="I10" t="n">
-        <v>28.5</v>
+        <v>29.2</v>
       </c>
       <c r="J10" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="K10" t="n">
         <v>531</v>
@@ -12429,7 +12627,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12477,7 +12675,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12525,14 +12723,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
         <v>642</v>
@@ -12547,16 +12745,16 @@
         <v>25.3</v>
       </c>
       <c r="K13" t="n">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="L13" t="n">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="M13" t="n">
+        <v>30</v>
+      </c>
+      <c r="N13" t="n">
         <v>29.4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>29.6</v>
       </c>
     </row>
     <row r="14">
@@ -12573,7 +12771,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12621,7 +12819,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12669,14 +12867,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
         <v>327</v>
@@ -12691,16 +12889,16 @@
         <v>28.9</v>
       </c>
       <c r="K16" t="n">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="L16" t="n">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="M16" t="n">
-        <v>28.2</v>
+        <v>28.6</v>
       </c>
       <c r="N16" t="n">
-        <v>30.5</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="17">
@@ -12717,26 +12915,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="H17" t="n">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="I17" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="J17" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="K17" t="n">
         <v>493</v>
@@ -12765,26 +12963,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
         <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="H18" t="n">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="I18" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="J18" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="K18" t="n">
         <v>472</v>
@@ -12813,14 +13011,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="n">
         <v>641</v>
@@ -12835,16 +13033,16 @@
         <v>28.5</v>
       </c>
       <c r="K19" t="n">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="L19" t="n">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="M19" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="N19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -12861,14 +13059,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20" t="n">
         <v>565</v>
@@ -12883,16 +13081,16 @@
         <v>31.2</v>
       </c>
       <c r="K20" t="n">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="L20" t="n">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="M20" t="n">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="N20" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="21">
@@ -12909,14 +13107,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
         <v>593</v>
@@ -12931,16 +13129,16 @@
         <v>29.2</v>
       </c>
       <c r="K21" t="n">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="L21" t="n">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="M21" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="N21" t="n">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="22">
@@ -12957,7 +13155,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -13005,26 +13203,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="H23" t="n">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="I23" t="n">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="J23" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="K23" t="n">
         <v>414</v>
@@ -13119,7 +13317,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -13152,23 +13350,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
-        <v>890</v>
+        <v>916</v>
       </c>
       <c r="G3" t="n">
-        <v>960</v>
+        <v>999</v>
       </c>
       <c r="H3" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="I3" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="4">
@@ -13185,7 +13383,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -13218,23 +13416,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="n">
-        <v>1109</v>
+        <v>1143</v>
       </c>
       <c r="G5" t="n">
-        <v>906</v>
+        <v>945</v>
       </c>
       <c r="H5" t="n">
         <v>33.6</v>
       </c>
       <c r="I5" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="6">
@@ -13251,7 +13449,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -13284,7 +13482,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -13317,20 +13515,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>908</v>
+        <v>941</v>
       </c>
       <c r="G8" t="n">
-        <v>862</v>
+        <v>889</v>
       </c>
       <c r="H8" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="I8" t="n">
         <v>28.7</v>
@@ -13350,7 +13548,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13383,23 +13581,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="n">
-        <v>873</v>
+        <v>911</v>
       </c>
       <c r="G10" t="n">
-        <v>1105</v>
+        <v>1141</v>
       </c>
       <c r="H10" t="n">
-        <v>28.2</v>
+        <v>28.5</v>
       </c>
       <c r="I10" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="11">
@@ -13416,7 +13614,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13449,7 +13647,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13482,23 +13680,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" t="n">
-        <v>1053</v>
+        <v>1092</v>
       </c>
       <c r="G13" t="n">
-        <v>845</v>
+        <v>871</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="I13" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="14">
@@ -13515,7 +13713,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13548,7 +13746,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -13581,23 +13779,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" t="n">
-        <v>863</v>
+        <v>899</v>
       </c>
       <c r="G16" t="n">
-        <v>927</v>
+        <v>965</v>
       </c>
       <c r="H16" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="I16" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="17">
@@ -13614,23 +13812,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" t="n">
-        <v>969</v>
+        <v>996</v>
       </c>
       <c r="G17" t="n">
-        <v>814</v>
+        <v>847</v>
       </c>
       <c r="H17" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="I17" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="18">
@@ -13647,23 +13845,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" t="n">
-        <v>854</v>
+        <v>875</v>
       </c>
       <c r="G18" t="n">
-        <v>1085</v>
+        <v>1115</v>
       </c>
       <c r="H18" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="I18" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="19">
@@ -13680,23 +13878,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" t="n">
-        <v>1034</v>
+        <v>1064</v>
       </c>
       <c r="G19" t="n">
-        <v>950</v>
+        <v>971</v>
       </c>
       <c r="H19" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="I19" t="n">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="20">
@@ -13713,23 +13911,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="n">
-        <v>1101</v>
+        <v>1126</v>
       </c>
       <c r="G20" t="n">
-        <v>1026</v>
+        <v>1060</v>
       </c>
       <c r="H20" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="I20" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="21">
@@ -13746,23 +13944,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" t="n">
-        <v>1139</v>
+        <v>1178</v>
       </c>
       <c r="G21" t="n">
-        <v>967</v>
+        <v>1001</v>
       </c>
       <c r="H21" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="I21" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="22">
@@ -13779,7 +13977,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -13812,20 +14010,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" t="n">
-        <v>806</v>
+        <v>840</v>
       </c>
       <c r="G23" t="n">
-        <v>835</v>
+        <v>860</v>
       </c>
       <c r="H23" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="I23" t="n">
         <v>26.9</v>
@@ -13885,7 +14083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-02T19:00:00Z</t>
+          <t>2025-12-03T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -13894,7 +14092,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G353"/>
+  <dimension ref="A1:G356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12085,6 +12085,105 @@
         <v>36</v>
       </c>
       <c r="G353" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>897848</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>2025-12-04T12:15:00</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>21</v>
+      </c>
+      <c r="F354" t="n">
+        <v>27</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>897849</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>2025-12-04T12:30:00</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>33</v>
+      </c>
+      <c r="F355" t="n">
+        <v>33</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>897847</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>2025-12-04T16:30:00</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>31</v>
+      </c>
+      <c r="F356" t="n">
+        <v>23</v>
+      </c>
+      <c r="G356" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -12195,26 +12294,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="H2" t="n">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="I2" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="K2" t="n">
         <v>531</v>
@@ -12243,7 +12342,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -12291,26 +12390,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
         <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="H4" t="n">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="I4" t="n">
-        <v>37.3</v>
+        <v>37</v>
       </c>
       <c r="J4" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="K4" t="n">
         <v>497</v>
@@ -12339,7 +12438,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12387,26 +12486,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="H6" t="n">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="I6" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="J6" t="n">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="K6" t="n">
         <v>438</v>
@@ -12435,7 +12534,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12483,7 +12582,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12531,7 +12630,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12579,7 +12678,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12627,7 +12726,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12675,14 +12774,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
         <v>572</v>
@@ -12697,16 +12796,16 @@
         <v>26.5</v>
       </c>
       <c r="K12" t="n">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="L12" t="n">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="M12" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="N12" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="13">
@@ -12723,7 +12822,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12771,7 +12870,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12819,14 +12918,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" t="n">
         <v>488</v>
@@ -12841,16 +12940,16 @@
         <v>33.1</v>
       </c>
       <c r="K15" t="n">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="L15" t="n">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="M15" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="N15" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="16">
@@ -12867,7 +12966,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12915,7 +13014,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -12963,7 +13062,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13011,7 +13110,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13059,7 +13158,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13107,7 +13206,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -13155,14 +13254,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
         <v>472</v>
@@ -13177,16 +13276,16 @@
         <v>32</v>
       </c>
       <c r="K22" t="n">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="L22" t="n">
-        <v>557</v>
+        <v>588</v>
       </c>
       <c r="M22" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="N22" t="n">
-        <v>37.1</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="23">
@@ -13203,7 +13302,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13317,23 +13416,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>980</v>
+        <v>1011</v>
       </c>
       <c r="G2" t="n">
-        <v>910</v>
+        <v>933</v>
       </c>
       <c r="H2" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="I2" t="n">
-        <v>31.4</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="3">
@@ -13350,7 +13449,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -13383,23 +13482,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>1019</v>
+        <v>1052</v>
       </c>
       <c r="G4" t="n">
-        <v>819</v>
+        <v>852</v>
       </c>
       <c r="H4" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="I4" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="5">
@@ -13416,7 +13515,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -13449,23 +13548,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
-        <v>923</v>
+        <v>944</v>
       </c>
       <c r="G6" t="n">
-        <v>1168</v>
+        <v>1195</v>
       </c>
       <c r="H6" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="7">
@@ -13482,7 +13581,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -13515,7 +13614,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -13548,7 +13647,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13581,7 +13680,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13614,7 +13713,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13647,23 +13746,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>1096</v>
+        <v>1123</v>
       </c>
       <c r="G12" t="n">
-        <v>870</v>
+        <v>891</v>
       </c>
       <c r="H12" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="I12" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="13">
@@ -13680,7 +13779,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -13713,7 +13812,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13746,20 +13845,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" t="n">
-        <v>931</v>
+        <v>964</v>
       </c>
       <c r="G15" t="n">
-        <v>1004</v>
+        <v>1037</v>
       </c>
       <c r="H15" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="I15" t="n">
         <v>33.5</v>
@@ -13779,7 +13878,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -13812,7 +13911,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -13845,7 +13944,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13878,7 +13977,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13911,7 +14010,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13944,7 +14043,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -13977,23 +14076,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" t="n">
-        <v>864</v>
+        <v>887</v>
       </c>
       <c r="G22" t="n">
-        <v>1069</v>
+        <v>1100</v>
       </c>
       <c r="H22" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="I22" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="23">
@@ -14010,7 +14109,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14083,7 +14182,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-03T19:30:00Z</t>
+          <t>2025-12-04T16:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -14092,7 +14191,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14191,7 +14191,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14191,7 +14191,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G356"/>
+  <dimension ref="A1:G363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12184,6 +12184,237 @@
         <v>23</v>
       </c>
       <c r="G356" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>897850</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>2025-12-05T17:00:00</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>25</v>
+      </c>
+      <c r="F357" t="n">
+        <v>19</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>897851</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2025-12-05T17:00:00</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>38</v>
+      </c>
+      <c r="F358" t="n">
+        <v>19</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>897855</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>2025-12-05T17:00:00</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
+        <v>22</v>
+      </c>
+      <c r="F359" t="n">
+        <v>36</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>897856</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>2025-12-05T17:30:00</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>36</v>
+      </c>
+      <c r="F360" t="n">
+        <v>25</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>897854</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>2025-12-05T18:00:00</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
+        <v>18</v>
+      </c>
+      <c r="F361" t="n">
+        <v>36</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>897853</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>2025-12-05T19:30:00</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="E362" t="n">
+        <v>31</v>
+      </c>
+      <c r="F362" t="n">
+        <v>43</v>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>897852</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>2025-12-05T19:30:00</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="E363" t="n">
+        <v>28</v>
+      </c>
+      <c r="F363" t="n">
+        <v>36</v>
+      </c>
+      <c r="G363" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -12294,7 +12525,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -12342,26 +12573,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="H3" t="n">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="I3" t="n">
-        <v>29.2</v>
+        <v>28.7</v>
       </c>
       <c r="J3" t="n">
-        <v>30.8</v>
+        <v>31.1</v>
       </c>
       <c r="K3" t="n">
         <v>536</v>
@@ -12390,7 +12621,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12438,14 +12669,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
         <v>633</v>
@@ -12460,16 +12691,16 @@
         <v>26.9</v>
       </c>
       <c r="K5" t="n">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="L5" t="n">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="M5" t="n">
-        <v>34</v>
+        <v>33.1</v>
       </c>
       <c r="N5" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="6">
@@ -12486,7 +12717,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12534,26 +12765,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
         <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="H7" t="n">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="I7" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="J7" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="K7" t="n">
         <v>406</v>
@@ -12582,14 +12813,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>523</v>
@@ -12604,16 +12835,16 @@
         <v>26.6</v>
       </c>
       <c r="K8" t="n">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="L8" t="n">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="M8" t="n">
-        <v>27.9</v>
+        <v>28.4</v>
       </c>
       <c r="N8" t="n">
-        <v>30.9</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="9">
@@ -12630,7 +12861,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12678,26 +12909,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
         <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="H10" t="n">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="I10" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="J10" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="K10" t="n">
         <v>531</v>
@@ -12726,23 +12957,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
         <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="H11" t="n">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="I11" t="n">
-        <v>27.2</v>
+        <v>26.5</v>
       </c>
       <c r="J11" t="n">
         <v>35.9</v>
@@ -12774,7 +13005,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12822,14 +13053,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
         <v>642</v>
@@ -12844,16 +13075,16 @@
         <v>25.3</v>
       </c>
       <c r="K13" t="n">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="L13" t="n">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>30.8</v>
       </c>
       <c r="N13" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="14">
@@ -12870,26 +13101,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>601</v>
+        <v>632</v>
       </c>
       <c r="H14" t="n">
-        <v>667</v>
+        <v>710</v>
       </c>
       <c r="I14" t="n">
         <v>31.6</v>
       </c>
       <c r="J14" t="n">
-        <v>35.1</v>
+        <v>35.5</v>
       </c>
       <c r="K14" t="n">
         <v>374</v>
@@ -12918,7 +13149,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12966,26 +13197,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
         <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="H16" t="n">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="I16" t="n">
-        <v>27.2</v>
+        <v>28.1</v>
       </c>
       <c r="J16" t="n">
-        <v>28.9</v>
+        <v>28.2</v>
       </c>
       <c r="K16" t="n">
         <v>572</v>
@@ -13014,14 +13245,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>18</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
         <v>503</v>
@@ -13036,16 +13267,16 @@
         <v>24.7</v>
       </c>
       <c r="K17" t="n">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="L17" t="n">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="M17" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="N17" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="18">
@@ -13062,7 +13293,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13110,14 +13341,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
         <v>641</v>
@@ -13132,16 +13363,16 @@
         <v>28.5</v>
       </c>
       <c r="K19" t="n">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="L19" t="n">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="M19" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="N19" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="20">
@@ -13158,14 +13389,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
         <v>565</v>
@@ -13180,16 +13411,16 @@
         <v>31.2</v>
       </c>
       <c r="K20" t="n">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="L20" t="n">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="M20" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="N20" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -13206,26 +13437,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
         <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="H21" t="n">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="I21" t="n">
-        <v>37.1</v>
+        <v>36.4</v>
       </c>
       <c r="J21" t="n">
-        <v>29.2</v>
+        <v>28.6</v>
       </c>
       <c r="K21" t="n">
         <v>585</v>
@@ -13254,7 +13485,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -13302,14 +13533,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" t="n">
         <v>426</v>
@@ -13324,16 +13555,16 @@
         <v>27.2</v>
       </c>
       <c r="K23" t="n">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="L23" t="n">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="M23" t="n">
-        <v>25.9</v>
+        <v>25.5</v>
       </c>
       <c r="N23" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
     </row>
   </sheetData>
@@ -13416,7 +13647,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -13449,23 +13680,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" t="n">
-        <v>916</v>
+        <v>938</v>
       </c>
       <c r="G3" t="n">
-        <v>999</v>
+        <v>1035</v>
       </c>
       <c r="H3" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="I3" t="n">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="4">
@@ -13482,7 +13713,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -13515,23 +13746,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" t="n">
-        <v>1143</v>
+        <v>1162</v>
       </c>
       <c r="G5" t="n">
-        <v>945</v>
+        <v>983</v>
       </c>
       <c r="H5" t="n">
-        <v>33.6</v>
+        <v>33.2</v>
       </c>
       <c r="I5" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="6">
@@ -13548,7 +13779,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -13581,23 +13812,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>1014</v>
+        <v>1050</v>
       </c>
       <c r="G7" t="n">
-        <v>1053</v>
+        <v>1078</v>
       </c>
       <c r="H7" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="I7" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="8">
@@ -13614,23 +13845,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>941</v>
+        <v>977</v>
       </c>
       <c r="G8" t="n">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="H8" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="I8" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="9">
@@ -13647,7 +13878,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13680,17 +13911,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="n">
-        <v>911</v>
+        <v>939</v>
       </c>
       <c r="G10" t="n">
-        <v>1141</v>
+        <v>1177</v>
       </c>
       <c r="H10" t="n">
         <v>28.5</v>
@@ -13713,20 +13944,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="G11" t="n">
-        <v>1150</v>
+        <v>1186</v>
       </c>
       <c r="H11" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="I11" t="n">
         <v>37.1</v>
@@ -13746,7 +13977,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13779,23 +14010,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" t="n">
-        <v>1092</v>
+        <v>1135</v>
       </c>
       <c r="G13" t="n">
-        <v>871</v>
+        <v>902</v>
       </c>
       <c r="H13" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="I13" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="14">
@@ -13812,23 +14043,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
-        <v>975</v>
+        <v>1006</v>
       </c>
       <c r="G14" t="n">
-        <v>1142</v>
+        <v>1185</v>
       </c>
       <c r="H14" t="n">
         <v>30.5</v>
       </c>
       <c r="I14" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="15">
@@ -13845,7 +14076,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -13878,23 +14109,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" t="n">
-        <v>899</v>
+        <v>937</v>
       </c>
       <c r="G16" t="n">
-        <v>965</v>
+        <v>984</v>
       </c>
       <c r="H16" t="n">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
       <c r="I16" t="n">
-        <v>30.2</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="17">
@@ -13911,23 +14142,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" t="n">
-        <v>996</v>
+        <v>1032</v>
       </c>
       <c r="G17" t="n">
-        <v>847</v>
+        <v>869</v>
       </c>
       <c r="H17" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="I17" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="18">
@@ -13944,7 +14175,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13977,23 +14208,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" t="n">
-        <v>1064</v>
+        <v>1089</v>
       </c>
       <c r="G19" t="n">
-        <v>971</v>
+        <v>1007</v>
       </c>
       <c r="H19" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="I19" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="20">
@@ -14010,23 +14241,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" t="n">
-        <v>1126</v>
+        <v>1162</v>
       </c>
       <c r="G20" t="n">
-        <v>1060</v>
+        <v>1088</v>
       </c>
       <c r="H20" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="I20" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="21">
@@ -14043,23 +14274,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" t="n">
-        <v>1178</v>
+        <v>1203</v>
       </c>
       <c r="G21" t="n">
-        <v>1001</v>
+        <v>1020</v>
       </c>
       <c r="H21" t="n">
-        <v>35.7</v>
+        <v>35.4</v>
       </c>
       <c r="I21" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -14076,7 +14307,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14109,23 +14340,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" t="n">
-        <v>840</v>
+        <v>859</v>
       </c>
       <c r="G23" t="n">
-        <v>860</v>
+        <v>885</v>
       </c>
       <c r="H23" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="I23" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
     </row>
   </sheetData>
@@ -14182,7 +14413,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-04T16:30:00Z</t>
+          <t>2025-12-05T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -14191,7 +14422,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14422,7 +14422,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G363"/>
+  <dimension ref="A1:G365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12415,6 +12415,72 @@
         <v>36</v>
       </c>
       <c r="G363" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>897857</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>2025-12-06T10:00:00</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="E364" t="n">
+        <v>29</v>
+      </c>
+      <c r="F364" t="n">
+        <v>25</v>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>897858</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>2025-12-06T10:00:00</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="E365" t="n">
+        <v>42</v>
+      </c>
+      <c r="F365" t="n">
+        <v>37</v>
+      </c>
+      <c r="G365" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -12525,7 +12591,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -12573,7 +12639,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -12621,26 +12687,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
         <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="H4" t="n">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="I4" t="n">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="J4" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="K4" t="n">
         <v>497</v>
@@ -12669,7 +12735,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12717,26 +12783,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
         <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>506</v>
+        <v>548</v>
       </c>
       <c r="H6" t="n">
-        <v>581</v>
+        <v>618</v>
       </c>
       <c r="I6" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="J6" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="K6" t="n">
         <v>438</v>
@@ -12765,7 +12831,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12813,7 +12879,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12861,7 +12927,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12909,7 +12975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12957,7 +13023,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13005,14 +13071,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
         <v>572</v>
@@ -13027,16 +13093,16 @@
         <v>26.5</v>
       </c>
       <c r="K12" t="n">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="L12" t="n">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="M12" t="n">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="N12" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="13">
@@ -13053,7 +13119,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -13101,7 +13167,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13149,14 +13215,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
         <v>488</v>
@@ -13171,16 +13237,16 @@
         <v>33.1</v>
       </c>
       <c r="K15" t="n">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="L15" t="n">
-        <v>541</v>
+        <v>583</v>
       </c>
       <c r="M15" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="N15" t="n">
-        <v>33.8</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="16">
@@ -13197,7 +13263,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -13245,7 +13311,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -13293,7 +13359,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13341,7 +13407,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13389,7 +13455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13437,7 +13503,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -13485,7 +13551,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -13533,7 +13599,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13647,7 +13713,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -13680,7 +13746,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -13713,23 +13779,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>1052</v>
+        <v>1081</v>
       </c>
       <c r="G4" t="n">
-        <v>852</v>
+        <v>877</v>
       </c>
       <c r="H4" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="I4" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="5">
@@ -13746,7 +13812,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -13779,20 +13845,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>944</v>
+        <v>986</v>
       </c>
       <c r="G6" t="n">
-        <v>1195</v>
+        <v>1232</v>
       </c>
       <c r="H6" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="I6" t="n">
         <v>36.2</v>
@@ -13812,7 +13878,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -13845,7 +13911,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -13878,7 +13944,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13911,7 +13977,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13944,7 +14010,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13977,23 +14043,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
-        <v>1123</v>
+        <v>1148</v>
       </c>
       <c r="G12" t="n">
-        <v>891</v>
+        <v>920</v>
       </c>
       <c r="H12" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="I12" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="13">
@@ -14010,7 +14076,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14043,7 +14109,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14076,23 +14142,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" t="n">
-        <v>964</v>
+        <v>1001</v>
       </c>
       <c r="G15" t="n">
-        <v>1037</v>
+        <v>1079</v>
       </c>
       <c r="H15" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="I15" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="16">
@@ -14109,7 +14175,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14142,7 +14208,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14175,7 +14241,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -14208,7 +14274,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -14241,7 +14307,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14274,7 +14340,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14307,7 +14373,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14340,7 +14406,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14413,7 +14479,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-05T19:30:00Z</t>
+          <t>2025-12-06T10:00:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -14422,7 +14488,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14488,7 +14488,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G365"/>
+  <dimension ref="A1:G372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12481,6 +12481,237 @@
         <v>37</v>
       </c>
       <c r="G365" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>897941</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>2025-12-07T10:00:00</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="E366" t="n">
+        <v>30</v>
+      </c>
+      <c r="F366" t="n">
+        <v>47</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>897861</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>2025-12-07T14:00:00</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="E367" t="n">
+        <v>34</v>
+      </c>
+      <c r="F367" t="n">
+        <v>34</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>897862</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>2025-12-07T14:00:00</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="E368" t="n">
+        <v>33</v>
+      </c>
+      <c r="F368" t="n">
+        <v>42</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>897860</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>2025-12-07T14:30:00</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="E369" t="n">
+        <v>24</v>
+      </c>
+      <c r="F369" t="n">
+        <v>23</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>897864</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>2025-12-07T15:00:00</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="E370" t="n">
+        <v>38</v>
+      </c>
+      <c r="F370" t="n">
+        <v>28</v>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>897863</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>2025-12-07T16:00:00</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="E371" t="n">
+        <v>21</v>
+      </c>
+      <c r="F371" t="n">
+        <v>33</v>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>897859</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>2025-12-07T17:00:00</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="E372" t="n">
+        <v>23</v>
+      </c>
+      <c r="F372" t="n">
+        <v>27</v>
+      </c>
+      <c r="G372" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -12591,26 +12822,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c r="H2" t="n">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="I2" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="J2" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="K2" t="n">
         <v>531</v>
@@ -12639,7 +12870,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -12687,7 +12918,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12735,14 +12966,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
         <v>633</v>
@@ -12757,16 +12988,16 @@
         <v>26.9</v>
       </c>
       <c r="K5" t="n">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="L5" t="n">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="M5" t="n">
-        <v>33.1</v>
+        <v>32.7</v>
       </c>
       <c r="N5" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="6">
@@ -12783,14 +13014,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
         <v>548</v>
@@ -12805,16 +13036,16 @@
         <v>34.3</v>
       </c>
       <c r="K6" t="n">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="L6" t="n">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="M6" t="n">
-        <v>27.4</v>
+        <v>28.5</v>
       </c>
       <c r="N6" t="n">
-        <v>38.4</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="7">
@@ -12831,26 +13062,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
         <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>644</v>
+        <v>682</v>
       </c>
       <c r="H7" t="n">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="I7" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="J7" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="K7" t="n">
         <v>406</v>
@@ -12879,14 +13110,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
         <v>523</v>
@@ -12901,16 +13132,16 @@
         <v>26.6</v>
       </c>
       <c r="K8" t="n">
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="L8" t="n">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="M8" t="n">
-        <v>28.4</v>
+        <v>29.2</v>
       </c>
       <c r="N8" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="9">
@@ -12927,7 +13158,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12975,7 +13206,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13023,26 +13254,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
         <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="H11" t="n">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="I11" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="J11" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="K11" t="n">
         <v>435</v>
@@ -13071,7 +13302,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13119,7 +13350,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -13167,26 +13398,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="H14" t="n">
-        <v>710</v>
+        <v>737</v>
       </c>
       <c r="I14" t="n">
-        <v>31.6</v>
+        <v>31.2</v>
       </c>
       <c r="J14" t="n">
-        <v>35.5</v>
+        <v>35.1</v>
       </c>
       <c r="K14" t="n">
         <v>374</v>
@@ -13215,26 +13446,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
         <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="H15" t="n">
-        <v>496</v>
+        <v>543</v>
       </c>
       <c r="I15" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="J15" t="n">
-        <v>33.1</v>
+        <v>33.9</v>
       </c>
       <c r="K15" t="n">
         <v>513</v>
@@ -13263,26 +13494,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
         <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="H16" t="n">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="I16" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="J16" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="K16" t="n">
         <v>572</v>
@@ -13311,14 +13542,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>18</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
         <v>503</v>
@@ -13333,16 +13564,16 @@
         <v>24.7</v>
       </c>
       <c r="K17" t="n">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="L17" t="n">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="M17" t="n">
         <v>33.1</v>
       </c>
       <c r="N17" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="18">
@@ -13359,14 +13590,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
         <v>403</v>
@@ -13381,16 +13612,16 @@
         <v>33.9</v>
       </c>
       <c r="K18" t="n">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="L18" t="n">
-        <v>607</v>
+        <v>645</v>
       </c>
       <c r="M18" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="N18" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="19">
@@ -13407,14 +13638,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
         <v>641</v>
@@ -13429,16 +13660,16 @@
         <v>28.5</v>
       </c>
       <c r="K19" t="n">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="L19" t="n">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="M19" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="N19" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="20">
@@ -13455,7 +13686,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13503,26 +13734,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" t="n">
         <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>618</v>
+        <v>651</v>
       </c>
       <c r="H21" t="n">
-        <v>487</v>
+        <v>529</v>
       </c>
       <c r="I21" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J21" t="n">
-        <v>28.6</v>
+        <v>29.4</v>
       </c>
       <c r="K21" t="n">
         <v>585</v>
@@ -13551,7 +13782,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -13599,14 +13830,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" t="n">
         <v>426</v>
@@ -13621,16 +13852,16 @@
         <v>27.2</v>
       </c>
       <c r="K23" t="n">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="L23" t="n">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="M23" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="N23" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
     </row>
   </sheetData>
@@ -13713,23 +13944,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>1011</v>
+        <v>1045</v>
       </c>
       <c r="G2" t="n">
-        <v>933</v>
+        <v>967</v>
       </c>
       <c r="H2" t="n">
         <v>33.7</v>
       </c>
       <c r="I2" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="3">
@@ -13746,7 +13977,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -13779,7 +14010,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -13812,23 +14043,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
-        <v>1162</v>
+        <v>1189</v>
       </c>
       <c r="G5" t="n">
-        <v>983</v>
+        <v>1006</v>
       </c>
       <c r="H5" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="I5" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="6">
@@ -13845,23 +14076,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>986</v>
+        <v>1033</v>
       </c>
       <c r="G6" t="n">
-        <v>1232</v>
+        <v>1262</v>
       </c>
       <c r="H6" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="7">
@@ -13878,23 +14109,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" t="n">
-        <v>1050</v>
+        <v>1088</v>
       </c>
       <c r="G7" t="n">
-        <v>1078</v>
+        <v>1106</v>
       </c>
       <c r="H7" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="I7" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="8">
@@ -13911,23 +14142,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>977</v>
+        <v>1019</v>
       </c>
       <c r="G8" t="n">
-        <v>907</v>
+        <v>940</v>
       </c>
       <c r="H8" t="n">
-        <v>30.5</v>
+        <v>30.9</v>
       </c>
       <c r="I8" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="9">
@@ -13944,7 +14175,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13977,7 +14208,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14010,23 +14241,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" t="n">
-        <v>806</v>
+        <v>827</v>
       </c>
       <c r="G11" t="n">
-        <v>1186</v>
+        <v>1219</v>
       </c>
       <c r="H11" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="I11" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="12">
@@ -14043,7 +14274,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -14076,7 +14307,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14109,23 +14340,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" t="n">
-        <v>1006</v>
+        <v>1029</v>
       </c>
       <c r="G14" t="n">
-        <v>1185</v>
+        <v>1212</v>
       </c>
       <c r="H14" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="I14" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="15">
@@ -14142,23 +14373,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" t="n">
-        <v>1001</v>
+        <v>1031</v>
       </c>
       <c r="G15" t="n">
-        <v>1079</v>
+        <v>1126</v>
       </c>
       <c r="H15" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="I15" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="16">
@@ -14175,23 +14406,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" t="n">
-        <v>937</v>
+        <v>961</v>
       </c>
       <c r="G16" t="n">
-        <v>984</v>
+        <v>1007</v>
       </c>
       <c r="H16" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="I16" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="17">
@@ -14208,23 +14439,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" t="n">
-        <v>1032</v>
+        <v>1065</v>
       </c>
       <c r="G17" t="n">
-        <v>869</v>
+        <v>890</v>
       </c>
       <c r="H17" t="n">
         <v>30.4</v>
       </c>
       <c r="I17" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="18">
@@ -14241,23 +14472,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>875</v>
+        <v>903</v>
       </c>
       <c r="G18" t="n">
-        <v>1115</v>
+        <v>1153</v>
       </c>
       <c r="H18" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="I18" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="19">
@@ -14274,23 +14505,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>1089</v>
+        <v>1123</v>
       </c>
       <c r="G19" t="n">
-        <v>1007</v>
+        <v>1041</v>
       </c>
       <c r="H19" t="n">
         <v>33</v>
       </c>
       <c r="I19" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="20">
@@ -14307,7 +14538,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14340,23 +14571,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" t="n">
-        <v>1203</v>
+        <v>1236</v>
       </c>
       <c r="G21" t="n">
-        <v>1020</v>
+        <v>1062</v>
       </c>
       <c r="H21" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="I21" t="n">
-        <v>30</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="22">
@@ -14373,7 +14604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14406,23 +14637,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F23" t="n">
-        <v>859</v>
+        <v>882</v>
       </c>
       <c r="G23" t="n">
-        <v>885</v>
+        <v>909</v>
       </c>
       <c r="H23" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="I23" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
     </row>
   </sheetData>
@@ -14479,7 +14710,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-06T10:00:00Z</t>
+          <t>2025-12-07T17:00:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -14488,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14719,7 +14719,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G372"/>
+  <dimension ref="A1:G380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12712,6 +12712,270 @@
         <v>27</v>
       </c>
       <c r="G372" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>897869</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2025-12-16T15:30:00</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="E373" t="n">
+        <v>20</v>
+      </c>
+      <c r="F373" t="n">
+        <v>37</v>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>897868</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2025-12-16T17:00:00</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
+        <v>34</v>
+      </c>
+      <c r="F374" t="n">
+        <v>27</v>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>897871</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2025-12-16T18:00:00</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="E375" t="n">
+        <v>30</v>
+      </c>
+      <c r="F375" t="n">
+        <v>38</v>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>897866</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2025-12-16T19:00:00</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="E376" t="n">
+        <v>25</v>
+      </c>
+      <c r="F376" t="n">
+        <v>26</v>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>897867</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2025-12-16T19:00:00</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>27</v>
+      </c>
+      <c r="F377" t="n">
+        <v>42</v>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>897872</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2025-12-16T19:00:00</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>19</v>
+      </c>
+      <c r="F378" t="n">
+        <v>48</v>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>897865</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2025-12-16T19:30:00</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>27</v>
+      </c>
+      <c r="F379" t="n">
+        <v>26</v>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>897870</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2025-12-16T19:30:00</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>36</v>
+      </c>
+      <c r="F380" t="n">
+        <v>35</v>
+      </c>
+      <c r="G380" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -12822,14 +13086,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
         <v>514</v>
@@ -12844,16 +13108,16 @@
         <v>28.8</v>
       </c>
       <c r="K2" t="n">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="L2" t="n">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="M2" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="N2" t="n">
-        <v>33.7</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="3">
@@ -12870,26 +13134,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="H3" t="n">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="I3" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="J3" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="K3" t="n">
         <v>536</v>
@@ -12918,7 +13182,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12966,26 +13230,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
         <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="H5" t="n">
-        <v>512</v>
+        <v>554</v>
       </c>
       <c r="I5" t="n">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>26.9</v>
+        <v>27.7</v>
       </c>
       <c r="K5" t="n">
         <v>556</v>
@@ -13014,7 +13278,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -13062,14 +13326,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
         <v>682</v>
@@ -13084,16 +13348,16 @@
         <v>30.9</v>
       </c>
       <c r="K7" t="n">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="L7" t="n">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="M7" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="N7" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
     </row>
     <row r="8">
@@ -13110,23 +13374,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
         <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="H8" t="n">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="I8" t="n">
-        <v>32.7</v>
+        <v>32.4</v>
       </c>
       <c r="J8" t="n">
         <v>26.6</v>
@@ -13158,14 +13422,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
         <v>661</v>
@@ -13180,16 +13444,16 @@
         <v>26.8</v>
       </c>
       <c r="K9" t="n">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="L9" t="n">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="M9" t="n">
-        <v>35.2</v>
+        <v>34.6</v>
       </c>
       <c r="N9" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="10">
@@ -13206,14 +13470,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>408</v>
@@ -13228,16 +13492,16 @@
         <v>34.9</v>
       </c>
       <c r="K10" t="n">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="L10" t="n">
-        <v>689</v>
+        <v>725</v>
       </c>
       <c r="M10" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
       <c r="N10" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="11">
@@ -13254,26 +13518,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
         <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="H11" t="n">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="I11" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="J11" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="K11" t="n">
         <v>435</v>
@@ -13302,26 +13566,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
         <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="H12" t="n">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="I12" t="n">
-        <v>33.6</v>
+        <v>33.2</v>
       </c>
       <c r="J12" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="K12" t="n">
         <v>576</v>
@@ -13350,7 +13614,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -13398,26 +13662,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="H14" t="n">
-        <v>737</v>
+        <v>785</v>
       </c>
       <c r="I14" t="n">
-        <v>31.2</v>
+        <v>30.6</v>
       </c>
       <c r="J14" t="n">
-        <v>35.1</v>
+        <v>35.7</v>
       </c>
       <c r="K14" t="n">
         <v>374</v>
@@ -13446,26 +13710,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
         <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="H15" t="n">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="I15" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="J15" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="K15" t="n">
         <v>513</v>
@@ -13494,14 +13758,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" t="n">
         <v>389</v>
@@ -13516,16 +13780,16 @@
         <v>27.8</v>
       </c>
       <c r="K16" t="n">
-        <v>572</v>
+        <v>614</v>
       </c>
       <c r="L16" t="n">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="M16" t="n">
-        <v>28.6</v>
+        <v>29.2</v>
       </c>
       <c r="N16" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="17">
@@ -13542,7 +13806,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -13590,26 +13854,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
         <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="H18" t="n">
-        <v>508</v>
+        <v>545</v>
       </c>
       <c r="I18" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="J18" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="K18" t="n">
         <v>500</v>
@@ -13638,14 +13902,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" t="n">
         <v>641</v>
@@ -13660,16 +13924,16 @@
         <v>28.5</v>
       </c>
       <c r="K19" t="n">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="L19" t="n">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="M19" t="n">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="N19" t="n">
-        <v>33.3</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="20">
@@ -13686,14 +13950,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" t="n">
         <v>565</v>
@@ -13708,16 +13972,16 @@
         <v>31.2</v>
       </c>
       <c r="K20" t="n">
-        <v>597</v>
+        <v>645</v>
       </c>
       <c r="L20" t="n">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="M20" t="n">
-        <v>33.2</v>
+        <v>33.9</v>
       </c>
       <c r="N20" t="n">
-        <v>31</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="21">
@@ -13734,7 +13998,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -13782,7 +14046,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -13830,14 +14094,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
         <v>426</v>
@@ -13852,16 +14116,16 @@
         <v>27.2</v>
       </c>
       <c r="K23" t="n">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="L23" t="n">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="M23" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="N23" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
     </row>
   </sheetData>
@@ -13944,23 +14208,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>1045</v>
+        <v>1082</v>
       </c>
       <c r="G2" t="n">
-        <v>967</v>
+        <v>987</v>
       </c>
       <c r="H2" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="3">
@@ -13977,23 +14241,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" t="n">
-        <v>938</v>
+        <v>972</v>
       </c>
       <c r="G3" t="n">
-        <v>1035</v>
+        <v>1062</v>
       </c>
       <c r="H3" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="I3" t="n">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="4">
@@ -14010,7 +14274,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14043,23 +14307,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="n">
-        <v>1189</v>
+        <v>1216</v>
       </c>
       <c r="G5" t="n">
-        <v>1006</v>
+        <v>1048</v>
       </c>
       <c r="H5" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="I5" t="n">
-        <v>27.9</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="6">
@@ -14076,7 +14340,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14109,23 +14373,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" t="n">
-        <v>1088</v>
+        <v>1115</v>
       </c>
       <c r="G7" t="n">
-        <v>1106</v>
+        <v>1140</v>
       </c>
       <c r="H7" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="I7" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="8">
@@ -14142,23 +14406,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
-        <v>1019</v>
+        <v>1046</v>
       </c>
       <c r="G8" t="n">
-        <v>940</v>
+        <v>966</v>
       </c>
       <c r="H8" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="I8" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="9">
@@ -14175,23 +14439,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>1154</v>
+        <v>1180</v>
       </c>
       <c r="G9" t="n">
-        <v>876</v>
+        <v>901</v>
       </c>
       <c r="H9" t="n">
-        <v>36.1</v>
+        <v>35.8</v>
       </c>
       <c r="I9" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="10">
@@ -14208,20 +14472,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" t="n">
-        <v>939</v>
+        <v>974</v>
       </c>
       <c r="G10" t="n">
-        <v>1177</v>
+        <v>1213</v>
       </c>
       <c r="H10" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="I10" t="n">
         <v>35.7</v>
@@ -14241,23 +14505,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" t="n">
-        <v>827</v>
+        <v>857</v>
       </c>
       <c r="G11" t="n">
-        <v>1219</v>
+        <v>1257</v>
       </c>
       <c r="H11" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="I11" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -14274,20 +14538,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="n">
-        <v>1148</v>
+        <v>1173</v>
       </c>
       <c r="G12" t="n">
-        <v>920</v>
+        <v>946</v>
       </c>
       <c r="H12" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="I12" t="n">
         <v>25.6</v>
@@ -14307,7 +14571,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14340,23 +14604,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" t="n">
-        <v>1029</v>
+        <v>1048</v>
       </c>
       <c r="G14" t="n">
-        <v>1212</v>
+        <v>1260</v>
       </c>
       <c r="H14" t="n">
-        <v>30.3</v>
+        <v>29.9</v>
       </c>
       <c r="I14" t="n">
-        <v>35.6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -14373,20 +14637,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" t="n">
-        <v>1031</v>
+        <v>1067</v>
       </c>
       <c r="G15" t="n">
-        <v>1126</v>
+        <v>1161</v>
       </c>
       <c r="H15" t="n">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
       <c r="I15" t="n">
         <v>34.1</v>
@@ -14406,23 +14670,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="n">
-        <v>961</v>
+        <v>1003</v>
       </c>
       <c r="G16" t="n">
-        <v>1007</v>
+        <v>1034</v>
       </c>
       <c r="H16" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="I16" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="17">
@@ -14439,7 +14703,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14472,23 +14736,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
+        <v>35</v>
+      </c>
+      <c r="F18" t="n">
+        <v>923</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1190</v>
+      </c>
+      <c r="H18" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="I18" t="n">
         <v>34</v>
-      </c>
-      <c r="F18" t="n">
-        <v>903</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1153</v>
-      </c>
-      <c r="H18" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="I18" t="n">
-        <v>33.9</v>
       </c>
     </row>
     <row r="19">
@@ -14505,23 +14769,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" t="n">
-        <v>1123</v>
+        <v>1149</v>
       </c>
       <c r="G19" t="n">
-        <v>1041</v>
+        <v>1068</v>
       </c>
       <c r="H19" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="I19" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="20">
@@ -14538,23 +14802,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" t="n">
-        <v>1162</v>
+        <v>1210</v>
       </c>
       <c r="G20" t="n">
-        <v>1088</v>
+        <v>1107</v>
       </c>
       <c r="H20" t="n">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
       <c r="I20" t="n">
-        <v>31.1</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="21">
@@ -14571,7 +14835,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14604,7 +14868,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14637,23 +14901,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" t="n">
-        <v>882</v>
+        <v>920</v>
       </c>
       <c r="G23" t="n">
-        <v>909</v>
+        <v>939</v>
       </c>
       <c r="H23" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="I23" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
     </row>
   </sheetData>
@@ -14710,7 +14974,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-07T17:00:00Z</t>
+          <t>2025-12-16T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -14719,7 +14983,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14983,7 +14983,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14983,7 +14983,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -14983,7 +14983,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G380"/>
+  <dimension ref="A1:G382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12976,6 +12976,72 @@
         <v>35</v>
       </c>
       <c r="G380" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>897873</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>2025-12-17T12:15:00</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>36</v>
+      </c>
+      <c r="F381" t="n">
+        <v>30</v>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>897874</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>2025-12-17T19:30:00</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>26</v>
+      </c>
+      <c r="F382" t="n">
+        <v>25</v>
+      </c>
+      <c r="G382" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -13086,7 +13152,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -13134,7 +13200,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -13182,14 +13248,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
         <v>584</v>
@@ -13204,16 +13270,16 @@
         <v>27.1</v>
       </c>
       <c r="K4" t="n">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="L4" t="n">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="M4" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>27.8</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="5">
@@ -13230,7 +13296,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -13278,26 +13344,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
         <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="H6" t="n">
-        <v>618</v>
+        <v>648</v>
       </c>
       <c r="I6" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="J6" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="K6" t="n">
         <v>485</v>
@@ -13326,7 +13392,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -13374,7 +13440,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -13422,7 +13488,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13470,7 +13536,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13518,7 +13584,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13566,7 +13632,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13614,14 +13680,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
         <v>642</v>
@@ -13636,16 +13702,16 @@
         <v>25.3</v>
       </c>
       <c r="K13" t="n">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="L13" t="n">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="M13" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="N13" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="14">
@@ -13662,7 +13728,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13710,7 +13776,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -13758,7 +13824,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -13806,7 +13872,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -13854,7 +13920,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13902,7 +13968,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13950,7 +14016,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13998,7 +14064,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14046,26 +14112,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="H22" t="n">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="I22" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="J22" t="n">
-        <v>32</v>
+        <v>31.6</v>
       </c>
       <c r="K22" t="n">
         <v>415</v>
@@ -14094,7 +14160,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14208,7 +14274,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -14241,7 +14307,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -14274,23 +14340,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>1081</v>
+        <v>1111</v>
       </c>
       <c r="G4" t="n">
-        <v>877</v>
+        <v>913</v>
       </c>
       <c r="H4" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="I4" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="5">
@@ -14307,7 +14373,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14340,23 +14406,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="n">
-        <v>1033</v>
+        <v>1069</v>
       </c>
       <c r="G6" t="n">
-        <v>1262</v>
+        <v>1292</v>
       </c>
       <c r="H6" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="I6" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="7">
@@ -14373,7 +14439,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14406,7 +14472,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -14439,7 +14505,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -14472,7 +14538,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14505,7 +14571,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -14538,7 +14604,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -14571,20 +14637,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" t="n">
-        <v>1135</v>
+        <v>1160</v>
       </c>
       <c r="G13" t="n">
-        <v>902</v>
+        <v>928</v>
       </c>
       <c r="H13" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="I13" t="n">
         <v>27.3</v>
@@ -14604,7 +14670,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14637,7 +14703,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14670,7 +14736,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14703,7 +14769,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14736,7 +14802,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -14769,7 +14835,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -14802,7 +14868,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14835,7 +14901,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14868,23 +14934,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" t="n">
-        <v>887</v>
+        <v>913</v>
       </c>
       <c r="G22" t="n">
-        <v>1100</v>
+        <v>1125</v>
       </c>
       <c r="H22" t="n">
         <v>27.7</v>
       </c>
       <c r="I22" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="23">
@@ -14901,7 +14967,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14974,7 +15040,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-16T19:30:00Z</t>
+          <t>2025-12-17T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -14983,7 +15049,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15049,7 +15049,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15049,7 +15049,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G382"/>
+  <dimension ref="A1:G388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13042,6 +13042,204 @@
         <v>25</v>
       </c>
       <c r="G382" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>897879</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2025-12-18T17:00:00</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>25</v>
+      </c>
+      <c r="F383" t="n">
+        <v>30</v>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>897876</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2025-12-18T19:00:00</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>34</v>
+      </c>
+      <c r="F384" t="n">
+        <v>33</v>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>897877</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2025-12-18T19:00:00</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>29</v>
+      </c>
+      <c r="F385" t="n">
+        <v>20</v>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>897878</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2025-12-18T19:00:00</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>37</v>
+      </c>
+      <c r="F386" t="n">
+        <v>17</v>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>897875</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2025-12-18T19:30:00</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>35</v>
+      </c>
+      <c r="F387" t="n">
+        <v>25</v>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>897893</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2025-12-18T19:30:00</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>29</v>
+      </c>
+      <c r="F388" t="n">
+        <v>38</v>
+      </c>
+      <c r="G388" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -13152,14 +13350,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
         <v>514</v>
@@ -13174,13 +13372,13 @@
         <v>28.8</v>
       </c>
       <c r="K2" t="n">
-        <v>568</v>
+        <v>601</v>
       </c>
       <c r="L2" t="n">
-        <v>526</v>
+        <v>560</v>
       </c>
       <c r="M2" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="N2" t="n">
         <v>32.9</v>
@@ -13200,26 +13398,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="H3" t="n">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="I3" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="J3" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="K3" t="n">
         <v>536</v>
@@ -13248,7 +13446,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -13296,14 +13494,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
         <v>660</v>
@@ -13318,13 +13516,13 @@
         <v>27.7</v>
       </c>
       <c r="K5" t="n">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="L5" t="n">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="M5" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="N5" t="n">
         <v>29.1</v>
@@ -13344,7 +13542,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -13392,14 +13590,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
         <v>682</v>
@@ -13414,16 +13612,16 @@
         <v>30.9</v>
       </c>
       <c r="K7" t="n">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="L7" t="n">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="M7" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="N7" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="8">
@@ -13440,26 +13638,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
         <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="H8" t="n">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="I8" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="J8" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="K8" t="n">
         <v>496</v>
@@ -13488,14 +13686,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
         <v>661</v>
@@ -13510,16 +13708,16 @@
         <v>26.8</v>
       </c>
       <c r="K9" t="n">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="L9" t="n">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="M9" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="N9" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="10">
@@ -13536,7 +13734,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13584,7 +13782,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13632,26 +13830,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
         <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>597</v>
+        <v>626</v>
       </c>
       <c r="H12" t="n">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="I12" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="J12" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="K12" t="n">
         <v>576</v>
@@ -13680,7 +13878,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -13728,26 +13926,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="H14" t="n">
-        <v>785</v>
+        <v>818</v>
       </c>
       <c r="I14" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="J14" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="K14" t="n">
         <v>374</v>
@@ -13776,26 +13974,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
         <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="H15" t="n">
-        <v>578</v>
+        <v>616</v>
       </c>
       <c r="I15" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="J15" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="K15" t="n">
         <v>513</v>
@@ -13824,14 +14022,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
         <v>389</v>
@@ -13846,16 +14044,16 @@
         <v>27.8</v>
       </c>
       <c r="K16" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="L16" t="n">
-        <v>645</v>
+        <v>682</v>
       </c>
       <c r="M16" t="n">
-        <v>29.2</v>
+        <v>28.7</v>
       </c>
       <c r="N16" t="n">
-        <v>30.7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -13872,26 +14070,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
         <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="H17" t="n">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="I17" t="n">
-        <v>27.9</v>
+        <v>28.4</v>
       </c>
       <c r="J17" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="K17" t="n">
         <v>562</v>
@@ -13920,7 +14118,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13968,7 +14166,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -14016,7 +14214,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14064,7 +14262,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14112,7 +14310,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14160,14 +14358,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
         <v>426</v>
@@ -14182,16 +14380,16 @@
         <v>27.2</v>
       </c>
       <c r="K23" t="n">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="L23" t="n">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="M23" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="N23" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
     </row>
   </sheetData>
@@ -14274,23 +14472,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>1082</v>
+        <v>1115</v>
       </c>
       <c r="G2" t="n">
-        <v>987</v>
+        <v>1021</v>
       </c>
       <c r="H2" t="n">
         <v>33.8</v>
       </c>
       <c r="I2" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="3">
@@ -14307,20 +14505,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n">
-        <v>972</v>
+        <v>997</v>
       </c>
       <c r="G3" t="n">
-        <v>1062</v>
+        <v>1092</v>
       </c>
       <c r="H3" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="I3" t="n">
         <v>31.2</v>
@@ -14340,7 +14538,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14373,20 +14571,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>1216</v>
+        <v>1254</v>
       </c>
       <c r="G5" t="n">
-        <v>1048</v>
+        <v>1077</v>
       </c>
       <c r="H5" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="I5" t="n">
         <v>28.3</v>
@@ -14406,7 +14604,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14439,23 +14637,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="n">
-        <v>1115</v>
+        <v>1140</v>
       </c>
       <c r="G7" t="n">
-        <v>1140</v>
+        <v>1175</v>
       </c>
       <c r="H7" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="I7" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="8">
@@ -14472,23 +14670,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>1046</v>
+        <v>1081</v>
       </c>
       <c r="G8" t="n">
-        <v>966</v>
+        <v>991</v>
       </c>
       <c r="H8" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="I8" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="9">
@@ -14505,23 +14703,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>1180</v>
+        <v>1210</v>
       </c>
       <c r="G9" t="n">
-        <v>901</v>
+        <v>926</v>
       </c>
       <c r="H9" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="I9" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="10">
@@ -14538,7 +14736,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14571,7 +14769,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -14604,23 +14802,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" t="n">
-        <v>1173</v>
+        <v>1202</v>
       </c>
       <c r="G12" t="n">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="H12" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="I12" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="13">
@@ -14637,7 +14835,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14670,23 +14868,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" t="n">
-        <v>1048</v>
+        <v>1082</v>
       </c>
       <c r="G14" t="n">
-        <v>1260</v>
+        <v>1293</v>
       </c>
       <c r="H14" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="I14" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="15">
@@ -14703,23 +14901,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" t="n">
-        <v>1067</v>
+        <v>1096</v>
       </c>
       <c r="G15" t="n">
-        <v>1161</v>
+        <v>1199</v>
       </c>
       <c r="H15" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="I15" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="16">
@@ -14736,23 +14934,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" t="n">
-        <v>1003</v>
+        <v>1020</v>
       </c>
       <c r="G16" t="n">
-        <v>1034</v>
+        <v>1071</v>
       </c>
       <c r="H16" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="I16" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="17">
@@ -14769,23 +14967,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" t="n">
-        <v>1065</v>
+        <v>1102</v>
       </c>
       <c r="G17" t="n">
-        <v>890</v>
+        <v>907</v>
       </c>
       <c r="H17" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="I17" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="18">
@@ -14802,7 +15000,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -14835,7 +15033,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -14868,7 +15066,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14901,7 +15099,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14934,7 +15132,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14967,23 +15165,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" t="n">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="G23" t="n">
-        <v>939</v>
+        <v>968</v>
       </c>
       <c r="H23" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="I23" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
     </row>
   </sheetData>
@@ -15040,7 +15238,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-17T19:30:00Z</t>
+          <t>2025-12-18T19:30:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -15049,7 +15247,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15247,7 +15247,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15247,7 +15247,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15247,7 +15247,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15247,7 +15247,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15247,7 +15247,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15247,7 +15247,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -15247,7 +15247,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G388"/>
+  <dimension ref="A1:G394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13240,6 +13240,204 @@
         <v>38</v>
       </c>
       <c r="G388" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>897881</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2025-12-19T15:30:00</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>26</v>
+      </c>
+      <c r="F389" t="n">
+        <v>36</v>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>897883</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2025-12-19T17:00:00</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>38</v>
+      </c>
+      <c r="F390" t="n">
+        <v>24</v>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>897882</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2025-12-19T19:30:00</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>46</v>
+      </c>
+      <c r="F391" t="n">
+        <v>27</v>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>897884</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2025-12-20T14:30:00</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>35</v>
+      </c>
+      <c r="F392" t="n">
+        <v>26</v>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>897885</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2025-12-20T17:00:00</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>22</v>
+      </c>
+      <c r="F393" t="n">
+        <v>41</v>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>897886</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2025-12-20T17:00:00</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>33</v>
+      </c>
+      <c r="F394" t="n">
+        <v>34</v>
+      </c>
+      <c r="G394" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -13350,14 +13548,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
         <v>514</v>
@@ -13372,13 +13570,13 @@
         <v>28.8</v>
       </c>
       <c r="K2" t="n">
-        <v>601</v>
+        <v>635</v>
       </c>
       <c r="L2" t="n">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="M2" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="N2" t="n">
         <v>32.9</v>
@@ -13398,7 +13596,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -13446,14 +13644,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
         <v>584</v>
@@ -13468,16 +13666,16 @@
         <v>27.1</v>
       </c>
       <c r="K4" t="n">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="L4" t="n">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="N4" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="5">
@@ -13494,14 +13692,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
         <v>660</v>
@@ -13516,16 +13714,16 @@
         <v>27.7</v>
       </c>
       <c r="K5" t="n">
-        <v>594</v>
+        <v>620</v>
       </c>
       <c r="L5" t="n">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="M5" t="n">
-        <v>33</v>
+        <v>32.6</v>
       </c>
       <c r="N5" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="6">
@@ -13542,7 +13740,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -13590,7 +13788,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -13638,7 +13836,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -13686,7 +13884,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13734,26 +13932,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="H10" t="n">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="I10" t="n">
-        <v>29.1</v>
+        <v>30.3</v>
       </c>
       <c r="J10" t="n">
-        <v>34.9</v>
+        <v>34.3</v>
       </c>
       <c r="K10" t="n">
         <v>566</v>
@@ -13782,14 +13980,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
         <v>422</v>
@@ -13804,16 +14002,16 @@
         <v>35.9</v>
       </c>
       <c r="K11" t="n">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="L11" t="n">
-        <v>683</v>
+        <v>729</v>
       </c>
       <c r="M11" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="N11" t="n">
-        <v>37.9</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="12">
@@ -13830,26 +14028,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
         <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="H12" t="n">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="I12" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="J12" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="K12" t="n">
         <v>576</v>
@@ -13878,14 +14076,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" t="n">
         <v>642</v>
@@ -13900,16 +14098,16 @@
         <v>25.3</v>
       </c>
       <c r="K13" t="n">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="L13" t="n">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="M13" t="n">
-        <v>30.5</v>
+        <v>30.1</v>
       </c>
       <c r="N13" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="14">
@@ -13926,7 +14124,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13974,26 +14172,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" t="n">
         <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>583</v>
+        <v>605</v>
       </c>
       <c r="H15" t="n">
-        <v>616</v>
+        <v>657</v>
       </c>
       <c r="I15" t="n">
-        <v>32.4</v>
+        <v>31.8</v>
       </c>
       <c r="J15" t="n">
-        <v>34.2</v>
+        <v>34.6</v>
       </c>
       <c r="K15" t="n">
         <v>513</v>
@@ -14022,26 +14220,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
         <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="H16" t="n">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="I16" t="n">
-        <v>27.8</v>
+        <v>28.3</v>
       </c>
       <c r="J16" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="K16" t="n">
         <v>631</v>
@@ -14070,7 +14268,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14118,26 +14316,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
         <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="H18" t="n">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="I18" t="n">
         <v>26.4</v>
       </c>
       <c r="J18" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="K18" t="n">
         <v>500</v>
@@ -14166,14 +14364,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n">
         <v>641</v>
@@ -14188,16 +14386,16 @@
         <v>28.5</v>
       </c>
       <c r="K19" t="n">
-        <v>508</v>
+        <v>549</v>
       </c>
       <c r="L19" t="n">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="M19" t="n">
-        <v>31.8</v>
+        <v>32.3</v>
       </c>
       <c r="N19" t="n">
-        <v>32.9</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="20">
@@ -14214,7 +14412,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14262,26 +14460,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" t="n">
         <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>651</v>
+        <v>689</v>
       </c>
       <c r="H21" t="n">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="I21" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J21" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="K21" t="n">
         <v>585</v>
@@ -14310,7 +14508,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14358,7 +14556,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14472,23 +14670,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>1115</v>
+        <v>1149</v>
       </c>
       <c r="G2" t="n">
-        <v>1021</v>
+        <v>1054</v>
       </c>
       <c r="H2" t="n">
         <v>33.8</v>
       </c>
       <c r="I2" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -14505,7 +14703,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -14538,23 +14736,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>1111</v>
+        <v>1147</v>
       </c>
       <c r="G4" t="n">
-        <v>913</v>
+        <v>939</v>
       </c>
       <c r="H4" t="n">
         <v>33.7</v>
       </c>
       <c r="I4" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="5">
@@ -14571,23 +14769,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="n">
-        <v>1254</v>
+        <v>1280</v>
       </c>
       <c r="G5" t="n">
-        <v>1077</v>
+        <v>1112</v>
       </c>
       <c r="H5" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="I5" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="6">
@@ -14604,7 +14802,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -14637,7 +14835,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14670,7 +14868,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -14703,7 +14901,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -14736,23 +14934,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" t="n">
-        <v>974</v>
+        <v>1020</v>
       </c>
       <c r="G10" t="n">
-        <v>1213</v>
+        <v>1240</v>
       </c>
       <c r="H10" t="n">
-        <v>28.6</v>
+        <v>29.1</v>
       </c>
       <c r="I10" t="n">
-        <v>35.7</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="11">
@@ -14769,23 +14967,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" t="n">
-        <v>857</v>
+        <v>884</v>
       </c>
       <c r="G11" t="n">
-        <v>1257</v>
+        <v>1303</v>
       </c>
       <c r="H11" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="I11" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="12">
@@ -14802,23 +15000,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="n">
-        <v>1202</v>
+        <v>1235</v>
       </c>
       <c r="G12" t="n">
-        <v>966</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="I12" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="13">
@@ -14835,23 +15033,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" t="n">
-        <v>1160</v>
+        <v>1184</v>
       </c>
       <c r="G13" t="n">
-        <v>928</v>
+        <v>966</v>
       </c>
       <c r="H13" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="I13" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="14">
@@ -14868,7 +15066,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14901,23 +15099,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" t="n">
-        <v>1096</v>
+        <v>1118</v>
       </c>
       <c r="G15" t="n">
-        <v>1199</v>
+        <v>1240</v>
       </c>
       <c r="H15" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="I15" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="16">
@@ -14934,23 +15132,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
-        <v>1020</v>
+        <v>1055</v>
       </c>
       <c r="G16" t="n">
-        <v>1071</v>
+        <v>1097</v>
       </c>
       <c r="H16" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="I16" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="17">
@@ -14967,7 +15165,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15000,23 +15198,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" t="n">
-        <v>923</v>
+        <v>949</v>
       </c>
       <c r="G18" t="n">
-        <v>1190</v>
+        <v>1226</v>
       </c>
       <c r="H18" t="n">
         <v>26.4</v>
       </c>
       <c r="I18" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="19">
@@ -15033,23 +15231,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" t="n">
-        <v>1149</v>
+        <v>1190</v>
       </c>
       <c r="G19" t="n">
-        <v>1068</v>
+        <v>1090</v>
       </c>
       <c r="H19" t="n">
-        <v>32.8</v>
+        <v>33.1</v>
       </c>
       <c r="I19" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="20">
@@ -15066,7 +15264,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15099,23 +15297,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="n">
-        <v>1236</v>
+        <v>1274</v>
       </c>
       <c r="G21" t="n">
-        <v>1062</v>
+        <v>1086</v>
       </c>
       <c r="H21" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="I21" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="22">
@@ -15132,7 +15330,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15165,7 +15363,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15238,7 +15436,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-18T19:30:00Z</t>
+          <t>2025-12-20T17:00:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -15247,7 +15445,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>

--- a/khl/khl_stats_1369_ext.xlsx
+++ b/khl/khl_stats_1369_ext.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G394"/>
+  <dimension ref="A1:G399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13438,6 +13438,171 @@
         <v>34</v>
       </c>
       <c r="G394" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>897889</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2025-12-21T13:30:00</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>24</v>
+      </c>
+      <c r="F395" t="n">
+        <v>34</v>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>897887</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2025-12-21T15:30:00</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>33</v>
+      </c>
+      <c r="F396" t="n">
+        <v>25</v>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>897888</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2025-12-21T15:00:00</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>42</v>
+      </c>
+      <c r="F397" t="n">
+        <v>28</v>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>897891</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2025-12-21T15:30:00</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>27</v>
+      </c>
+      <c r="F398" t="n">
+        <v>13</v>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>khl_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>897890</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2025-12-21T17:10:00</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>45</v>
+      </c>
+      <c r="F399" t="n">
+        <v>21</v>
+      </c>
+      <c r="G399" t="inlineStr">
         <is>
           <t>khl_text</t>
         </is>
@@ -13548,7 +13713,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -13596,26 +13761,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="H3" t="n">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="I3" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="J3" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="K3" t="n">
         <v>536</v>
@@ -13644,14 +13809,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
         <v>584</v>
@@ -13666,16 +13831,16 @@
         <v>27.1</v>
       </c>
       <c r="K4" t="n">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="L4" t="n">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="M4" t="n">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="N4" t="n">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="5">
@@ -13692,7 +13857,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -13740,14 +13905,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
         <v>584</v>
@@ -13762,16 +13927,16 @@
         <v>34.1</v>
       </c>
       <c r="K6" t="n">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="L6" t="n">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="M6" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="N6" t="n">
-        <v>37.9</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="7">
@@ -13788,26 +13953,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
         <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>682</v>
+        <v>724</v>
       </c>
       <c r="H7" t="n">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="I7" t="n">
-        <v>32.5</v>
+        <v>32.9</v>
       </c>
       <c r="J7" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="K7" t="n">
         <v>458</v>
@@ -13836,14 +14001,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
         <v>585</v>
@@ -13858,16 +14023,16 @@
         <v>26.5</v>
       </c>
       <c r="K8" t="n">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="L8" t="n">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="M8" t="n">
-        <v>29.2</v>
+        <v>28.3</v>
       </c>
       <c r="N8" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="9">
@@ -13884,26 +14049,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
         <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>661</v>
+        <v>706</v>
       </c>
       <c r="H9" t="n">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="I9" t="n">
-        <v>36.7</v>
+        <v>37.2</v>
       </c>
       <c r="J9" t="n">
-        <v>26.8</v>
+        <v>26.5</v>
       </c>
       <c r="K9" t="n">
         <v>549</v>
@@ -13932,7 +14097,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13980,14 +14145,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
         <v>422</v>
@@ -14002,16 +14167,16 @@
         <v>35.9</v>
       </c>
       <c r="K11" t="n">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="L11" t="n">
-        <v>729</v>
+        <v>774</v>
       </c>
       <c r="M11" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="N11" t="n">
-        <v>38.4</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="12">
@@ -14028,7 +14193,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -14076,7 +14241,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14124,7 +14289,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14172,7 +14337,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14220,7 +14385,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14268,7 +14433,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14316,23 +14481,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" t="n">
         <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="H18" t="n">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="I18" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="J18" t="n">
         <v>34.2</v>
@@ -14364,7 +14529,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -14412,7 +14577,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14460,7 +14625,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14508,14 +14673,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" t="n">
         <v>498</v>
@@ -14530,16 +14695,16 @@
         <v>31.6</v>
       </c>
       <c r="K22" t="n">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="L22" t="n">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="M22" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="N22" t="n">
-        <v>36.8</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="23">
@@ -14556,26 +14721,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" t="n">
         <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="H23" t="n">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="I23" t="n">
         <v>26.6</v>
       </c>
       <c r="J23" t="n">
-        <v>27.2</v>
+        <v>26.4</v>
       </c>
       <c r="K23" t="n">
         <v>514</v>
@@ -14670,7 +14835,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -14703,23 +14868,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" t="n">
-        <v>997</v>
+        <v>1030</v>
       </c>
       <c r="G3" t="n">
-        <v>1092</v>
+        <v>1117</v>
       </c>
       <c r="H3" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="I3" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -14736,23 +14901,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="n">
-        <v>1147</v>
+        <v>1172</v>
       </c>
       <c r="G4" t="n">
-        <v>939</v>
+        <v>972</v>
       </c>
       <c r="H4" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="I4" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="5">
@@ -14769,7 +14934,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -14802,23 +14967,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="n">
-        <v>1069</v>
+        <v>1103</v>
       </c>
       <c r="G6" t="n">
-        <v>1292</v>
+        <v>1316</v>
       </c>
       <c r="H6" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="I6" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="7">
@@ -14835,23 +15000,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>1140</v>
+        <v>1182</v>
       </c>
       <c r="G7" t="n">
-        <v>1175</v>
+        <v>1203</v>
       </c>
       <c r="H7" t="n">
-        <v>30.8</v>
+        <v>31.1</v>
       </c>
       <c r="I7" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="8">
@@ -14868,20 +15033,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>1081</v>
+        <v>1094</v>
       </c>
       <c r="G8" t="n">
-        <v>991</v>
+        <v>1018</v>
       </c>
       <c r="H8" t="n">
-        <v>30.9</v>
+        <v>30.4</v>
       </c>
       <c r="I8" t="n">
         <v>28.3</v>
@@ -14901,23 +15066,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>1210</v>
+        <v>1255</v>
       </c>
       <c r="G9" t="n">
-        <v>926</v>
+        <v>947</v>
       </c>
       <c r="H9" t="n">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="I9" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="10">
@@ -14934,7 +15099,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14967,23 +15132,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" t="n">
-        <v>884</v>
+        <v>905</v>
       </c>
       <c r="G11" t="n">
-        <v>1303</v>
+        <v>1348</v>
       </c>
       <c r="H11" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="I11" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="12">
@@ -15000,7 +15165,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15033,7 +15198,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15066,7 +15231,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15099,7 +15264,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15132,7 +15297,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15165,7 +15330,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15198,20 +15363,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="G18" t="n">
-        <v>1226</v>
+        <v>1260</v>
       </c>
       <c r="H18" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="I18" t="n">
         <v>34.1</v>
@@ -15231,7 +15396,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15264,7 +15429,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15297,7 +15462,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15330,23 +15495,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" t="n">
-        <v>913</v>
+        <v>941</v>
       </c>
       <c r="G22" t="n">
-        <v>1125</v>
+        <v>1167</v>
       </c>
       <c r="H22" t="n">
         <v>27.7</v>
       </c>
       <c r="I22" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="23">
@@ -15363,23 +15528,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" t="n">
-        <v>940</v>
+        <v>967</v>
       </c>
       <c r="G23" t="n">
-        <v>968</v>
+        <v>981</v>
       </c>
       <c r="H23" t="n">
         <v>26.1</v>
       </c>
       <c r="I23" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
     </row>
   </sheetData>
@@ -15436,7 +15601,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-12-20T17:00:00Z</t>
+          <t>2025-12-21T17:10:00Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -15445,7 +15610,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
